--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -226,21 +226,21 @@
     <t>2025</t>
   </si>
   <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Grêmio</t>
+  </si>
+  <si>
     <t>São Paulo</t>
   </si>
   <si>
     <t>Cruzeiro</t>
   </si>
   <si>
-    <t>Grêmio</t>
-  </si>
-  <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
-    <t>Juventude</t>
-  </si>
-  <si>
     <t>Flamengo</t>
   </si>
   <si>
@@ -256,12 +256,12 @@
     <t>Bragantino</t>
   </si>
   <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
     <t>Ceará</t>
   </si>
   <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
     <t>Botafogo</t>
   </si>
   <si>
@@ -271,36 +271,36 @@
     <t>Fluminense</t>
   </si>
   <si>
+    <t>Sport Recife</t>
+  </si>
+  <si>
+    <t>Vitória</t>
+  </si>
+  <si>
     <t>Mirassol</t>
   </si>
   <si>
     <t>Internacional</t>
   </si>
   <si>
-    <t>Vitória</t>
-  </si>
-  <si>
-    <t>Sport Recife</t>
-  </si>
-  <si>
     <t>Santos</t>
   </si>
   <si>
+    <t>['4', '21']</t>
+  </si>
+  <si>
+    <t>['8', '51']</t>
+  </si>
+  <si>
+    <t>['33', '45']</t>
+  </si>
+  <si>
     <t>[]</t>
   </si>
   <si>
     <t>['14', '22']</t>
   </si>
   <si>
-    <t>['33', '45']</t>
-  </si>
-  <si>
-    <t>['4', '21']</t>
-  </si>
-  <si>
-    <t>['8', '51']</t>
-  </si>
-  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -313,30 +313,30 @@
     <t>['45+1', '90+3']</t>
   </si>
   <si>
+    <t>['12', '27', '90+1']</t>
+  </si>
+  <si>
     <t>['26', '90+5']</t>
   </si>
   <si>
-    <t>['12', '27', '90+1']</t>
-  </si>
-  <si>
     <t>['24', '62']</t>
   </si>
   <si>
     <t>['35', '90+2']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['77']</t>
+  </si>
+  <si>
     <t>['90+3']</t>
   </si>
   <si>
     <t>['31', '37', '77']</t>
   </si>
   <si>
-    <t>['77']</t>
-  </si>
-  <si>
-    <t>['38']</t>
-  </si>
-  <si>
     <t>['50', '81']</t>
   </si>
   <si>
@@ -385,12 +385,18 @@
     <t>['45+7', '65', '76']</t>
   </si>
   <si>
+    <t>['46', '62']</t>
+  </si>
+  <si>
+    <t>['24', '45+2']</t>
+  </si>
+  <si>
+    <t>['75']</t>
+  </si>
+  <si>
     <t>['45+3']</t>
   </si>
   <si>
-    <t>['75']</t>
-  </si>
-  <si>
     <t>['34']</t>
   </si>
   <si>
@@ -406,15 +412,15 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['33', '90+1']</t>
+  </si>
+  <si>
+    <t>['62', '87']</t>
+  </si>
+  <si>
     <t>['15']</t>
   </si>
   <si>
-    <t>['62', '87']</t>
-  </si>
-  <si>
-    <t>['33', '90+1']</t>
-  </si>
-  <si>
     <t>['17', '90']</t>
   </si>
   <si>
@@ -424,12 +430,12 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['4', '67']</t>
   </si>
   <si>
-    <t>['65']</t>
-  </si>
-  <si>
     <t>['47', '65']</t>
   </si>
   <si>
@@ -439,12 +445,12 @@
     <t>['21', '45+13']</t>
   </si>
   <si>
+    <t>['13']</t>
+  </si>
+  <si>
     <t>['82']</t>
   </si>
   <si>
-    <t>['13']</t>
-  </si>
-  <si>
     <t>['63', '82']</t>
   </si>
   <si>
@@ -452,6 +458,15 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['34', '72']</t>
   </si>
 </sst>
 </file>
@@ -813,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1045,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7834314</v>
+        <v>7834319</v>
       </c>
       <c r="C2" t="s">
         <v>68</v>
@@ -1048,100 +1063,100 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2" t="s">
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="R2">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>3.7</v>
       </c>
       <c r="T2">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="U2">
-        <v>2.63</v>
+        <v>2.45</v>
       </c>
       <c r="V2">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="W2">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="X2">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="Y2">
         <v>1.06</v>
       </c>
       <c r="Z2">
-        <v>1.52</v>
+        <v>2.26</v>
       </c>
       <c r="AA2">
-        <v>3.88</v>
+        <v>3.09</v>
       </c>
       <c r="AB2">
-        <v>6.4</v>
+        <v>3.29</v>
       </c>
       <c r="AC2">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AD2">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE2">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AF2">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="AG2">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="AH2">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="AI2">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AJ2">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK2">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AL2">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="AM2">
-        <v>2.2</v>
+        <v>1.58</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -1150,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1171,64 +1186,64 @@
         <v>2</v>
       </c>
       <c r="AW2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AX2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AY2">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="AZ2">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="BA2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD2">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="BE2">
-        <v>7</v>
+        <v>6.55</v>
       </c>
       <c r="BF2">
-        <v>3.05</v>
+        <v>2.35</v>
       </c>
       <c r="BG2">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BH2">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="BI2">
         <v>1.44</v>
       </c>
       <c r="BJ2">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="BK2">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="BL2">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="BM2">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="BN2">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="BO2">
-        <v>2.65</v>
+        <v>2.97</v>
       </c>
       <c r="BP2">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="3" spans="1:68">
@@ -1236,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7834316</v>
+        <v>7834320</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -1254,40 +1269,40 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3" t="s">
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="Q3">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="R3">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="T3">
         <v>1.44</v>
@@ -1308,13 +1323,13 @@
         <v>1.06</v>
       </c>
       <c r="Z3">
-        <v>1.55</v>
+        <v>2.04</v>
       </c>
       <c r="AA3">
-        <v>3.56</v>
+        <v>3.29</v>
       </c>
       <c r="AB3">
-        <v>7</v>
+        <v>3.64</v>
       </c>
       <c r="AC3">
         <v>1.04</v>
@@ -1323,31 +1338,31 @@
         <v>9.5</v>
       </c>
       <c r="AE3">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="AF3">
-        <v>3.22</v>
+        <v>3.09</v>
       </c>
       <c r="AG3">
-        <v>2.09</v>
+        <v>2.2</v>
       </c>
       <c r="AH3">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AI3">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AJ3">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AK3">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AL3">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AM3">
-        <v>2.45</v>
+        <v>1.72</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -1356,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1371,70 +1386,70 @@
         <v>0</v>
       </c>
       <c r="AU3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY3">
         <v>10</v>
       </c>
       <c r="AZ3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC3">
         <v>8</v>
       </c>
       <c r="BD3">
-        <v>1.16</v>
+        <v>1.82</v>
       </c>
       <c r="BE3">
-        <v>10.25</v>
+        <v>6.65</v>
       </c>
       <c r="BF3">
-        <v>7.4</v>
+        <v>2.54</v>
       </c>
       <c r="BG3">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="BH3">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="BI3">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="BJ3">
-        <v>3.05</v>
+        <v>2.67</v>
       </c>
       <c r="BK3">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="BL3">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="BM3">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="BN3">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="BO3">
-        <v>2.45</v>
+        <v>2.81</v>
       </c>
       <c r="BP3">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -1484,7 +1499,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1562,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1648,7 +1663,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7834319</v>
+        <v>7834314</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1666,100 +1681,100 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="s">
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q5">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="R5">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="S5">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="U5">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="V5">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="W5">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X5">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="Y5">
         <v>1.06</v>
       </c>
       <c r="Z5">
-        <v>2.26</v>
+        <v>1.52</v>
       </c>
       <c r="AA5">
-        <v>3.09</v>
+        <v>3.88</v>
       </c>
       <c r="AB5">
-        <v>3.29</v>
+        <v>6.4</v>
       </c>
       <c r="AC5">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AD5">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE5">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="AF5">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AG5">
+        <v>2.11</v>
+      </c>
+      <c r="AH5">
+        <v>1.68</v>
+      </c>
+      <c r="AI5">
         <v>2.1</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>1.67</v>
       </c>
-      <c r="AI5">
-        <v>1.95</v>
-      </c>
-      <c r="AJ5">
-        <v>1.73</v>
-      </c>
       <c r="AK5">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AL5">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="AM5">
-        <v>1.58</v>
+        <v>2.2</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1768,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1789,64 +1804,64 @@
         <v>2</v>
       </c>
       <c r="AW5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AX5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AY5">
+        <v>19</v>
+      </c>
+      <c r="AZ5">
+        <v>12</v>
+      </c>
+      <c r="BA5">
         <v>6</v>
       </c>
-      <c r="AZ5">
-        <v>22</v>
-      </c>
-      <c r="BA5">
-        <v>4</v>
-      </c>
       <c r="BB5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD5">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="BE5">
-        <v>6.55</v>
+        <v>7</v>
       </c>
       <c r="BF5">
-        <v>2.35</v>
+        <v>3.05</v>
       </c>
       <c r="BG5">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="BH5">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="BI5">
         <v>1.44</v>
       </c>
       <c r="BJ5">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="BK5">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="BL5">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="BM5">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="BN5">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="BO5">
-        <v>2.97</v>
+        <v>2.65</v>
       </c>
       <c r="BP5">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -1854,7 +1869,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7834320</v>
+        <v>7834316</v>
       </c>
       <c r="C6" t="s">
         <v>68</v>
@@ -1875,37 +1890,37 @@
         <v>87</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>2</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="Q6">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="R6">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S6">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="T6">
         <v>1.44</v>
@@ -1926,13 +1941,13 @@
         <v>1.06</v>
       </c>
       <c r="Z6">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="AA6">
-        <v>3.29</v>
+        <v>3.56</v>
       </c>
       <c r="AB6">
-        <v>3.64</v>
+        <v>7</v>
       </c>
       <c r="AC6">
         <v>1.04</v>
@@ -1941,31 +1956,31 @@
         <v>9.5</v>
       </c>
       <c r="AE6">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AF6">
-        <v>3.09</v>
+        <v>3.22</v>
       </c>
       <c r="AG6">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="AH6">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AI6">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AJ6">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AK6">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="AL6">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM6">
-        <v>1.72</v>
+        <v>2.45</v>
       </c>
       <c r="AN6">
         <v>0</v>
@@ -1977,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -1989,70 +2004,70 @@
         <v>0</v>
       </c>
       <c r="AU6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV6">
+        <v>7</v>
+      </c>
+      <c r="AW6">
         <v>6</v>
       </c>
-      <c r="AW6">
-        <v>5</v>
-      </c>
       <c r="AX6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY6">
         <v>10</v>
       </c>
       <c r="AZ6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BB6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC6">
         <v>8</v>
       </c>
       <c r="BD6">
-        <v>1.82</v>
+        <v>1.16</v>
       </c>
       <c r="BE6">
-        <v>6.65</v>
+        <v>10.25</v>
       </c>
       <c r="BF6">
-        <v>2.54</v>
+        <v>7.4</v>
       </c>
       <c r="BG6">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="BH6">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="BI6">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="BJ6">
-        <v>2.67</v>
+        <v>3.05</v>
       </c>
       <c r="BK6">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="BL6">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="BM6">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="BN6">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="BO6">
-        <v>2.81</v>
+        <v>2.45</v>
       </c>
       <c r="BP6">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -2078,7 +2093,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2102,7 +2117,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2305,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q8">
         <v>2.3</v>
@@ -2514,7 +2529,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2592,7 +2607,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2696,7 +2711,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2720,7 +2735,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2902,7 +2917,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -2926,7 +2941,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3090,7 +3105,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7834329</v>
+        <v>7834323</v>
       </c>
       <c r="C12" t="s">
         <v>68</v>
@@ -3108,187 +3123,187 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" t="s">
         <v>99</v>
       </c>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="R12">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S12">
+        <v>5.5</v>
+      </c>
+      <c r="T12">
+        <v>1.44</v>
+      </c>
+      <c r="U12">
+        <v>2.63</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>1.36</v>
+      </c>
+      <c r="X12">
+        <v>9</v>
+      </c>
+      <c r="Y12">
+        <v>1.07</v>
+      </c>
+      <c r="Z12">
+        <v>1.62</v>
+      </c>
+      <c r="AA12">
+        <v>3.88</v>
+      </c>
+      <c r="AB12">
+        <v>5.1</v>
+      </c>
+      <c r="AC12">
+        <v>1.06</v>
+      </c>
+      <c r="AD12">
+        <v>8.5</v>
+      </c>
+      <c r="AE12">
+        <v>1.35</v>
+      </c>
+      <c r="AF12">
+        <v>3.1</v>
+      </c>
+      <c r="AG12">
+        <v>1.85</v>
+      </c>
+      <c r="AH12">
+        <v>1.85</v>
+      </c>
+      <c r="AI12">
+        <v>2</v>
+      </c>
+      <c r="AJ12">
+        <v>1.75</v>
+      </c>
+      <c r="AK12">
+        <v>1.14</v>
+      </c>
+      <c r="AL12">
+        <v>1.27</v>
+      </c>
+      <c r="AM12">
+        <v>2.2</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>2</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
         <v>4</v>
-      </c>
-      <c r="T12">
-        <v>1.5</v>
-      </c>
-      <c r="U12">
-        <v>2.5</v>
-      </c>
-      <c r="V12">
-        <v>3.4</v>
-      </c>
-      <c r="W12">
-        <v>1.3</v>
-      </c>
-      <c r="X12">
-        <v>10</v>
-      </c>
-      <c r="Y12">
-        <v>1.06</v>
-      </c>
-      <c r="Z12">
-        <v>2.65</v>
-      </c>
-      <c r="AA12">
-        <v>3.18</v>
-      </c>
-      <c r="AB12">
-        <v>2.65</v>
-      </c>
-      <c r="AC12">
-        <v>1.08</v>
-      </c>
-      <c r="AD12">
-        <v>7.5</v>
-      </c>
-      <c r="AE12">
-        <v>1.4</v>
-      </c>
-      <c r="AF12">
-        <v>2.9</v>
-      </c>
-      <c r="AG12">
-        <v>2.15</v>
-      </c>
-      <c r="AH12">
-        <v>1.67</v>
-      </c>
-      <c r="AI12">
-        <v>1.95</v>
-      </c>
-      <c r="AJ12">
-        <v>1.8</v>
-      </c>
-      <c r="AK12">
-        <v>1.35</v>
-      </c>
-      <c r="AL12">
-        <v>1.33</v>
-      </c>
-      <c r="AM12">
-        <v>1.58</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>3</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>7</v>
       </c>
       <c r="AV12">
         <v>4</v>
       </c>
       <c r="AW12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY12">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AZ12">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BA12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BC12">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BD12">
+        <v>1.49</v>
+      </c>
+      <c r="BE12">
+        <v>6.75</v>
+      </c>
+      <c r="BF12">
+        <v>3.25</v>
+      </c>
+      <c r="BG12">
+        <v>1.16</v>
+      </c>
+      <c r="BH12">
+        <v>4.5</v>
+      </c>
+      <c r="BI12">
+        <v>1.31</v>
+      </c>
+      <c r="BJ12">
+        <v>3</v>
+      </c>
+      <c r="BK12">
+        <v>1.57</v>
+      </c>
+      <c r="BL12">
+        <v>2.15</v>
+      </c>
+      <c r="BM12">
+        <v>1.98</v>
+      </c>
+      <c r="BN12">
         <v>1.68</v>
       </c>
-      <c r="BE12">
-        <v>7</v>
-      </c>
-      <c r="BF12">
-        <v>2.55</v>
-      </c>
-      <c r="BG12">
-        <v>1.15</v>
-      </c>
-      <c r="BH12">
-        <v>4.6</v>
-      </c>
-      <c r="BI12">
-        <v>1.29</v>
-      </c>
-      <c r="BJ12">
-        <v>3.1</v>
-      </c>
-      <c r="BK12">
-        <v>1.53</v>
-      </c>
-      <c r="BL12">
-        <v>2.25</v>
-      </c>
-      <c r="BM12">
-        <v>1.93</v>
-      </c>
-      <c r="BN12">
-        <v>1.73</v>
-      </c>
       <c r="BO12">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BP12">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="13" spans="1:68">
@@ -3296,7 +3311,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7834323</v>
+        <v>7834329</v>
       </c>
       <c r="C13" t="s">
         <v>68</v>
@@ -3314,100 +3329,100 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
         <v>100</v>
       </c>
       <c r="P13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q13">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S13">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U13">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W13">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="X13">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y13">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z13">
-        <v>1.62</v>
+        <v>2.65</v>
       </c>
       <c r="AA13">
-        <v>3.88</v>
+        <v>3.18</v>
       </c>
       <c r="AB13">
-        <v>5.1</v>
+        <v>2.65</v>
       </c>
       <c r="AC13">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AD13">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE13">
+        <v>1.4</v>
+      </c>
+      <c r="AF13">
+        <v>2.9</v>
+      </c>
+      <c r="AG13">
+        <v>2.15</v>
+      </c>
+      <c r="AH13">
+        <v>1.67</v>
+      </c>
+      <c r="AI13">
+        <v>1.95</v>
+      </c>
+      <c r="AJ13">
+        <v>1.8</v>
+      </c>
+      <c r="AK13">
         <v>1.35</v>
       </c>
-      <c r="AF13">
-        <v>3.1</v>
-      </c>
-      <c r="AG13">
-        <v>1.85</v>
-      </c>
-      <c r="AH13">
-        <v>1.85</v>
-      </c>
-      <c r="AI13">
-        <v>2</v>
-      </c>
-      <c r="AJ13">
-        <v>1.75</v>
-      </c>
-      <c r="AK13">
-        <v>1.14</v>
-      </c>
       <c r="AL13">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AM13">
-        <v>2.2</v>
+        <v>1.58</v>
       </c>
       <c r="AN13">
         <v>0</v>
@@ -3416,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3431,70 +3446,70 @@
         <v>0</v>
       </c>
       <c r="AU13">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV13">
         <v>4</v>
       </c>
       <c r="AW13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX13">
+        <v>9</v>
+      </c>
+      <c r="AY13">
+        <v>16</v>
+      </c>
+      <c r="AZ13">
+        <v>17</v>
+      </c>
+      <c r="BA13">
+        <v>3</v>
+      </c>
+      <c r="BB13">
+        <v>9</v>
+      </c>
+      <c r="BC13">
+        <v>12</v>
+      </c>
+      <c r="BD13">
+        <v>1.68</v>
+      </c>
+      <c r="BE13">
         <v>7</v>
       </c>
-      <c r="AY13">
-        <v>8</v>
-      </c>
-      <c r="AZ13">
-        <v>12</v>
-      </c>
-      <c r="BA13">
-        <v>1</v>
-      </c>
-      <c r="BB13">
-        <v>4</v>
-      </c>
-      <c r="BC13">
-        <v>5</v>
-      </c>
-      <c r="BD13">
-        <v>1.49</v>
-      </c>
-      <c r="BE13">
-        <v>6.75</v>
-      </c>
       <c r="BF13">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="BG13">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="BH13">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="BI13">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BJ13">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="BK13">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="BL13">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="BM13">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="BN13">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="BO13">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="BP13">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3520,7 +3535,7 @@
         <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3544,7 +3559,7 @@
         <v>101</v>
       </c>
       <c r="P14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q14">
         <v>2.1</v>
@@ -3726,7 +3741,7 @@
         <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3747,10 +3762,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q15">
         <v>2.75</v>
@@ -3956,7 +3971,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4120,7 +4135,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7834325</v>
+        <v>7834330</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4138,187 +4153,187 @@
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" t="s">
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q17">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="R17">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S17">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T17">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="U17">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="V17">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W17">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y17">
         <v>1.06</v>
       </c>
       <c r="Z17">
-        <v>3.15</v>
+        <v>5.1</v>
       </c>
       <c r="AA17">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="AB17">
-        <v>2.27</v>
+        <v>1.71</v>
       </c>
       <c r="AC17">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD17">
+        <v>8</v>
+      </c>
+      <c r="AE17">
+        <v>1.38</v>
+      </c>
+      <c r="AF17">
+        <v>2.95</v>
+      </c>
+      <c r="AG17">
+        <v>2.08</v>
+      </c>
+      <c r="AH17">
+        <v>1.7</v>
+      </c>
+      <c r="AI17">
+        <v>2</v>
+      </c>
+      <c r="AJ17">
+        <v>1.75</v>
+      </c>
+      <c r="AK17">
+        <v>1.98</v>
+      </c>
+      <c r="AL17">
+        <v>1.3</v>
+      </c>
+      <c r="AM17">
+        <v>1.19</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>3</v>
+      </c>
+      <c r="AV17">
+        <v>5</v>
+      </c>
+      <c r="AW17">
         <v>7</v>
       </c>
-      <c r="AE17">
-        <v>1.42</v>
-      </c>
-      <c r="AF17">
-        <v>2.6</v>
-      </c>
-      <c r="AG17">
-        <v>2.11</v>
-      </c>
-      <c r="AH17">
-        <v>1.62</v>
-      </c>
-      <c r="AI17">
-        <v>1.98</v>
-      </c>
-      <c r="AJ17">
-        <v>1.73</v>
-      </c>
-      <c r="AK17">
-        <v>1.46</v>
-      </c>
-      <c r="AL17">
-        <v>1.35</v>
-      </c>
-      <c r="AM17">
-        <v>1.44</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>2</v>
-      </c>
-      <c r="AQ17">
-        <v>0.5</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
+      <c r="AX17">
+        <v>3</v>
+      </c>
+      <c r="AY17">
+        <v>11</v>
+      </c>
+      <c r="AZ17">
+        <v>8</v>
+      </c>
+      <c r="BA17">
         <v>6</v>
       </c>
-      <c r="AV17">
-        <v>4</v>
-      </c>
-      <c r="AW17">
-        <v>15</v>
-      </c>
-      <c r="AX17">
-        <v>4</v>
-      </c>
-      <c r="AY17">
-        <v>24</v>
-      </c>
-      <c r="AZ17">
-        <v>10</v>
-      </c>
-      <c r="BA17">
-        <v>8</v>
-      </c>
       <c r="BB17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC17">
         <v>9</v>
       </c>
       <c r="BD17">
-        <v>2.07</v>
+        <v>2.33</v>
       </c>
       <c r="BE17">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF17">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="BG17">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH17">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="BI17">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="BJ17">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BK17">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="BL17">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="BM17">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="BN17">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="BO17">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="BP17">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4326,7 +4341,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7834327</v>
+        <v>7834328</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4344,22 +4359,22 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -4368,16 +4383,16 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="Q18">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>2.05</v>
       </c>
       <c r="S18">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="T18">
         <v>1.5</v>
@@ -4398,13 +4413,13 @@
         <v>1.06</v>
       </c>
       <c r="Z18">
-        <v>1.77</v>
+        <v>4.9</v>
       </c>
       <c r="AA18">
-        <v>3.45</v>
+        <v>3.71</v>
       </c>
       <c r="AB18">
-        <v>4.7</v>
+        <v>1.68</v>
       </c>
       <c r="AC18">
         <v>1.07</v>
@@ -4419,25 +4434,25 @@
         <v>2.9</v>
       </c>
       <c r="AG18">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="AH18">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="AI18">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AJ18">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AK18">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="AL18">
         <v>1.3</v>
       </c>
       <c r="AM18">
-        <v>1.95</v>
+        <v>1.21</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -4449,7 +4464,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4461,70 +4476,70 @@
         <v>0</v>
       </c>
       <c r="AU18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AV18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW18">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AX18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY18">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="AZ18">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA18">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BB18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC18">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD18">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="BE18">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF18">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="BG18">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="BH18">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="BI18">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="BJ18">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="BK18">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="BL18">
-        <v>1.88</v>
+        <v>2.15</v>
       </c>
       <c r="BM18">
-        <v>2.23</v>
+        <v>1.96</v>
       </c>
       <c r="BN18">
-        <v>1.56</v>
+        <v>1.74</v>
       </c>
       <c r="BO18">
-        <v>2.88</v>
+        <v>2.43</v>
       </c>
       <c r="BP18">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4532,7 +4547,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7834328</v>
+        <v>7834325</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4550,175 +4565,175 @@
         <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" t="s">
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="S19">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="T19">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="U19">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="V19">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W19">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y19">
         <v>1.06</v>
       </c>
       <c r="Z19">
-        <v>4.9</v>
+        <v>3.15</v>
       </c>
       <c r="AA19">
-        <v>3.71</v>
+        <v>3.2</v>
       </c>
       <c r="AB19">
-        <v>1.68</v>
+        <v>2.27</v>
       </c>
       <c r="AC19">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AD19">
+        <v>7</v>
+      </c>
+      <c r="AE19">
+        <v>1.42</v>
+      </c>
+      <c r="AF19">
+        <v>2.6</v>
+      </c>
+      <c r="AG19">
+        <v>2.11</v>
+      </c>
+      <c r="AH19">
+        <v>1.62</v>
+      </c>
+      <c r="AI19">
+        <v>1.98</v>
+      </c>
+      <c r="AJ19">
+        <v>1.73</v>
+      </c>
+      <c r="AK19">
+        <v>1.46</v>
+      </c>
+      <c r="AL19">
+        <v>1.35</v>
+      </c>
+      <c r="AM19">
+        <v>1.44</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>2</v>
+      </c>
+      <c r="AQ19">
+        <v>0.5</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>6</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>15</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+      <c r="AY19">
+        <v>24</v>
+      </c>
+      <c r="AZ19">
+        <v>10</v>
+      </c>
+      <c r="BA19">
         <v>8</v>
       </c>
-      <c r="AE19">
-        <v>1.4</v>
-      </c>
-      <c r="AF19">
-        <v>2.9</v>
-      </c>
-      <c r="AG19">
-        <v>1.85</v>
-      </c>
-      <c r="AH19">
-        <v>1.89</v>
-      </c>
-      <c r="AI19">
-        <v>2</v>
-      </c>
-      <c r="AJ19">
-        <v>1.75</v>
-      </c>
-      <c r="AK19">
-        <v>1.9</v>
-      </c>
-      <c r="AL19">
-        <v>1.3</v>
-      </c>
-      <c r="AM19">
-        <v>1.21</v>
-      </c>
-      <c r="AN19">
-        <v>0</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>1.5</v>
-      </c>
-      <c r="AQ19">
-        <v>3</v>
-      </c>
-      <c r="AR19">
-        <v>0</v>
-      </c>
-      <c r="AS19">
-        <v>0</v>
-      </c>
-      <c r="AT19">
-        <v>0</v>
-      </c>
-      <c r="AU19">
-        <v>4</v>
-      </c>
-      <c r="AV19">
-        <v>8</v>
-      </c>
-      <c r="AW19">
-        <v>2</v>
-      </c>
-      <c r="AX19">
-        <v>7</v>
-      </c>
-      <c r="AY19">
-        <v>7</v>
-      </c>
-      <c r="AZ19">
-        <v>15</v>
-      </c>
-      <c r="BA19">
-        <v>2</v>
-      </c>
       <c r="BB19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BC19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD19">
-        <v>2.45</v>
+        <v>2.07</v>
       </c>
       <c r="BE19">
         <v>6.75</v>
       </c>
       <c r="BF19">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="BG19">
         <v>1.2</v>
       </c>
       <c r="BH19">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="BI19">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BJ19">
         <v>2.8</v>
       </c>
       <c r="BK19">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="BL19">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="BM19">
         <v>1.96</v>
@@ -4730,7 +4745,7 @@
         <v>2.43</v>
       </c>
       <c r="BP19">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -4738,7 +4753,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7834330</v>
+        <v>7834327</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -4756,22 +4771,22 @@
         <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -4780,22 +4795,22 @@
         <v>106</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="R20">
         <v>2.05</v>
       </c>
       <c r="S20">
+        <v>5.5</v>
+      </c>
+      <c r="T20">
+        <v>1.5</v>
+      </c>
+      <c r="U20">
         <v>2.5</v>
-      </c>
-      <c r="T20">
-        <v>1.44</v>
-      </c>
-      <c r="U20">
-        <v>2.63</v>
       </c>
       <c r="V20">
         <v>3.4</v>
@@ -4810,13 +4825,13 @@
         <v>1.06</v>
       </c>
       <c r="Z20">
-        <v>5.1</v>
+        <v>1.77</v>
       </c>
       <c r="AA20">
         <v>3.45</v>
       </c>
       <c r="AB20">
-        <v>1.71</v>
+        <v>4.7</v>
       </c>
       <c r="AC20">
         <v>1.07</v>
@@ -4825,31 +4840,31 @@
         <v>8</v>
       </c>
       <c r="AE20">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AF20">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AG20">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="AH20">
+        <v>1.6</v>
+      </c>
+      <c r="AI20">
+        <v>2.05</v>
+      </c>
+      <c r="AJ20">
         <v>1.7</v>
       </c>
-      <c r="AI20">
-        <v>2</v>
-      </c>
-      <c r="AJ20">
-        <v>1.75</v>
-      </c>
       <c r="AK20">
-        <v>1.98</v>
+        <v>1.2</v>
       </c>
       <c r="AL20">
         <v>1.3</v>
       </c>
       <c r="AM20">
-        <v>1.19</v>
+        <v>1.95</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -4858,10 +4873,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -4873,70 +4888,70 @@
         <v>0</v>
       </c>
       <c r="AU20">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AV20">
+        <v>2</v>
+      </c>
+      <c r="AW20">
+        <v>13</v>
+      </c>
+      <c r="AX20">
         <v>5</v>
       </c>
-      <c r="AW20">
-        <v>7</v>
-      </c>
-      <c r="AX20">
-        <v>3</v>
-      </c>
       <c r="AY20">
+        <v>33</v>
+      </c>
+      <c r="AZ20">
+        <v>9</v>
+      </c>
+      <c r="BA20">
+        <v>9</v>
+      </c>
+      <c r="BB20">
+        <v>2</v>
+      </c>
+      <c r="BC20">
         <v>11</v>
       </c>
-      <c r="AZ20">
-        <v>8</v>
-      </c>
-      <c r="BA20">
-        <v>6</v>
-      </c>
-      <c r="BB20">
-        <v>3</v>
-      </c>
-      <c r="BC20">
-        <v>9</v>
-      </c>
       <c r="BD20">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="BE20">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF20">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="BG20">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="BH20">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="BI20">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BJ20">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="BK20">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="BL20">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="BM20">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="BN20">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="BO20">
-        <v>2.45</v>
+        <v>2.88</v>
       </c>
       <c r="BP20">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -4986,7 +5001,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5192,7 +5207,7 @@
         <v>108</v>
       </c>
       <c r="P22" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q22">
         <v>3.28</v>
@@ -5371,10 +5386,10 @@
         <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -5398,7 +5413,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5476,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ23">
         <v>0.5</v>
@@ -5580,7 +5595,7 @@
         <v>76</v>
       </c>
       <c r="H24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -5604,7 +5619,7 @@
         <v>110</v>
       </c>
       <c r="P24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q24">
         <v>2.4</v>
@@ -5786,7 +5801,7 @@
         <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -5810,7 +5825,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5888,10 +5903,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>1.71</v>
@@ -5992,7 +6007,7 @@
         <v>78</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -6097,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6180,7 +6195,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>7834337</v>
+        <v>7834334</v>
       </c>
       <c r="C27" t="s">
         <v>68</v>
@@ -6195,190 +6210,190 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q27">
-        <v>4.1</v>
+        <v>2.69</v>
       </c>
       <c r="R27">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>2.7</v>
+        <v>5.55</v>
       </c>
       <c r="T27">
+        <v>1.63</v>
+      </c>
+      <c r="U27">
+        <v>2.36</v>
+      </c>
+      <c r="V27">
+        <v>3.85</v>
+      </c>
+      <c r="W27">
+        <v>1.25</v>
+      </c>
+      <c r="X27">
+        <v>10.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.03</v>
+      </c>
+      <c r="Z27">
+        <v>2.01</v>
+      </c>
+      <c r="AA27">
+        <v>3.15</v>
+      </c>
+      <c r="AB27">
+        <v>3.91</v>
+      </c>
+      <c r="AC27">
+        <v>1.08</v>
+      </c>
+      <c r="AD27">
+        <v>6.2</v>
+      </c>
+      <c r="AE27">
         <v>1.47</v>
       </c>
-      <c r="U27">
-        <v>2.75</v>
-      </c>
-      <c r="V27">
-        <v>3.22</v>
-      </c>
-      <c r="W27">
-        <v>1.35</v>
-      </c>
-      <c r="X27">
-        <v>7.5</v>
-      </c>
-      <c r="Y27">
-        <v>1.06</v>
-      </c>
-      <c r="Z27">
-        <v>3.08</v>
-      </c>
-      <c r="AA27">
-        <v>3.2</v>
-      </c>
-      <c r="AB27">
-        <v>2.31</v>
-      </c>
-      <c r="AC27">
-        <v>1.07</v>
-      </c>
-      <c r="AD27">
-        <v>8.6</v>
-      </c>
-      <c r="AE27">
-        <v>1.36</v>
-      </c>
       <c r="AF27">
-        <v>3</v>
+        <v>2.36</v>
       </c>
       <c r="AG27">
         <v>2.1</v>
       </c>
       <c r="AH27">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AI27">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="AJ27">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AK27">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AL27">
         <v>1.3</v>
       </c>
       <c r="AM27">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="AS27">
-        <v>1.97</v>
+        <v>0.74</v>
       </c>
       <c r="AT27">
-        <v>3.44</v>
+        <v>2.31</v>
       </c>
       <c r="AU27">
         <v>3</v>
       </c>
       <c r="AV27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX27">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AY27">
         <v>14</v>
       </c>
       <c r="AZ27">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="BA27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC27">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD27">
-        <v>2.15</v>
+        <v>1.59</v>
       </c>
       <c r="BE27">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="BF27">
-        <v>1.93</v>
+        <v>2.89</v>
       </c>
       <c r="BG27">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="BH27">
-        <v>3.88</v>
+        <v>3.3</v>
       </c>
       <c r="BI27">
-        <v>1.3</v>
+        <v>1.48</v>
       </c>
       <c r="BJ27">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="BK27">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="BL27">
-        <v>2.13</v>
+        <v>1.95</v>
       </c>
       <c r="BM27">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="BN27">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="BO27">
-        <v>2.62</v>
+        <v>2.8</v>
       </c>
       <c r="BP27">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6386,7 +6401,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7834334</v>
+        <v>7834337</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6401,190 +6416,190 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28">
         <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q28">
-        <v>2.69</v>
+        <v>4.1</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="S28">
-        <v>5.55</v>
+        <v>2.7</v>
       </c>
       <c r="T28">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="U28">
-        <v>2.36</v>
+        <v>2.75</v>
       </c>
       <c r="V28">
-        <v>3.85</v>
+        <v>3.22</v>
       </c>
       <c r="W28">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
       <c r="X28">
-        <v>10.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y28">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="Z28">
-        <v>2.01</v>
+        <v>3.08</v>
       </c>
       <c r="AA28">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AB28">
-        <v>3.91</v>
+        <v>2.31</v>
       </c>
       <c r="AC28">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD28">
-        <v>6.2</v>
+        <v>8.6</v>
       </c>
       <c r="AE28">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="AF28">
-        <v>2.36</v>
+        <v>3</v>
       </c>
       <c r="AG28">
         <v>2.1</v>
       </c>
       <c r="AH28">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AI28">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="AJ28">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AK28">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AL28">
         <v>1.3</v>
       </c>
       <c r="AM28">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AR28">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="AS28">
-        <v>0.74</v>
+        <v>1.97</v>
       </c>
       <c r="AT28">
-        <v>2.31</v>
+        <v>3.44</v>
       </c>
       <c r="AU28">
         <v>3</v>
       </c>
       <c r="AV28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX28">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AY28">
         <v>14</v>
       </c>
       <c r="AZ28">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="BA28">
+        <v>3</v>
+      </c>
+      <c r="BB28">
         <v>4</v>
       </c>
-      <c r="BB28">
-        <v>6</v>
-      </c>
       <c r="BC28">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD28">
-        <v>1.59</v>
+        <v>2.15</v>
       </c>
       <c r="BE28">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF28">
-        <v>2.89</v>
+        <v>1.93</v>
       </c>
       <c r="BG28">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="BH28">
-        <v>3.3</v>
+        <v>3.88</v>
       </c>
       <c r="BI28">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="BJ28">
-        <v>2.5</v>
+        <v>3.05</v>
       </c>
       <c r="BK28">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="BL28">
-        <v>1.95</v>
+        <v>2.13</v>
       </c>
       <c r="BM28">
-        <v>2.2</v>
+        <v>1.98</v>
       </c>
       <c r="BN28">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="BO28">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="BP28">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6634,7 +6649,7 @@
         <v>114</v>
       </c>
       <c r="P29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q29">
         <v>2.5</v>
@@ -6813,10 +6828,10 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -6837,10 +6852,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q30">
         <v>3.8</v>
@@ -7022,7 +7037,7 @@
         <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -7046,7 +7061,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7225,7 +7240,7 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s">
         <v>77</v>
@@ -7252,7 +7267,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7434,7 +7449,7 @@
         <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -7458,7 +7473,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7622,7 +7637,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7834345</v>
+        <v>7834350</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -7640,187 +7655,187 @@
         <v>85</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O34" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q34">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="R34">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="S34">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="T34">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="U34">
-        <v>2.53</v>
+        <v>2.87</v>
       </c>
       <c r="V34">
-        <v>3.45</v>
+        <v>3.19</v>
       </c>
       <c r="W34">
+        <v>1.35</v>
+      </c>
+      <c r="X34">
+        <v>7.6</v>
+      </c>
+      <c r="Y34">
+        <v>1.07</v>
+      </c>
+      <c r="Z34">
+        <v>2.13</v>
+      </c>
+      <c r="AA34">
+        <v>3.3</v>
+      </c>
+      <c r="AB34">
+        <v>3.72</v>
+      </c>
+      <c r="AC34">
+        <v>1.05</v>
+      </c>
+      <c r="AD34">
+        <v>7.8</v>
+      </c>
+      <c r="AE34">
+        <v>1.36</v>
+      </c>
+      <c r="AF34">
+        <v>3.17</v>
+      </c>
+      <c r="AG34">
+        <v>2.23</v>
+      </c>
+      <c r="AH34">
+        <v>1.67</v>
+      </c>
+      <c r="AI34">
+        <v>1.85</v>
+      </c>
+      <c r="AJ34">
+        <v>1.85</v>
+      </c>
+      <c r="AK34">
+        <v>1.28</v>
+      </c>
+      <c r="AL34">
         <v>1.34</v>
       </c>
-      <c r="X34">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y34">
-        <v>1.03</v>
-      </c>
-      <c r="Z34">
-        <v>2.43</v>
-      </c>
-      <c r="AA34">
-        <v>3</v>
-      </c>
-      <c r="AB34">
-        <v>3</v>
-      </c>
-      <c r="AC34">
-        <v>1.1</v>
-      </c>
-      <c r="AD34">
-        <v>6.2</v>
-      </c>
-      <c r="AE34">
-        <v>1.49</v>
-      </c>
-      <c r="AF34">
-        <v>2.5</v>
-      </c>
-      <c r="AG34">
-        <v>2.6</v>
-      </c>
-      <c r="AH34">
-        <v>1.47</v>
-      </c>
-      <c r="AI34">
-        <v>2.05</v>
-      </c>
-      <c r="AJ34">
+      <c r="AM34">
         <v>1.73</v>
       </c>
-      <c r="AK34">
-        <v>1.4</v>
-      </c>
-      <c r="AL34">
-        <v>1.35</v>
-      </c>
-      <c r="AM34">
-        <v>1.53</v>
-      </c>
       <c r="AN34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO34">
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
-        <v>2.31</v>
+        <v>1.15</v>
       </c>
       <c r="AS34">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="AT34">
-        <v>3.79</v>
+        <v>3.04</v>
       </c>
       <c r="AU34">
         <v>7</v>
       </c>
       <c r="AV34">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW34">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AX34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY34">
+        <v>29</v>
+      </c>
+      <c r="AZ34">
+        <v>20</v>
+      </c>
+      <c r="BA34">
+        <v>9</v>
+      </c>
+      <c r="BB34">
+        <v>3</v>
+      </c>
+      <c r="BC34">
         <v>12</v>
       </c>
-      <c r="AZ34">
-        <v>19</v>
-      </c>
-      <c r="BA34">
-        <v>2</v>
-      </c>
-      <c r="BB34">
-        <v>7</v>
-      </c>
-      <c r="BC34">
-        <v>9</v>
-      </c>
       <c r="BD34">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="BE34">
-        <v>8.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="BF34">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="BG34">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="BH34">
-        <v>3.45</v>
+        <v>4.75</v>
       </c>
       <c r="BI34">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="BJ34">
-        <v>2.62</v>
+        <v>3.35</v>
       </c>
       <c r="BK34">
-        <v>1.7</v>
+        <v>1.58</v>
       </c>
       <c r="BL34">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="BM34">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BN34">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="BO34">
-        <v>2.62</v>
+        <v>2.2</v>
       </c>
       <c r="BP34">
-        <v>1.42</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -7828,7 +7843,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7834350</v>
+        <v>7834345</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7843,190 +7858,190 @@
         <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O35" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q35">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="R35">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="S35">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="T35">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="U35">
-        <v>2.87</v>
+        <v>2.53</v>
       </c>
       <c r="V35">
-        <v>3.19</v>
+        <v>3.45</v>
       </c>
       <c r="W35">
+        <v>1.34</v>
+      </c>
+      <c r="X35">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y35">
+        <v>1.03</v>
+      </c>
+      <c r="Z35">
+        <v>2.43</v>
+      </c>
+      <c r="AA35">
+        <v>3</v>
+      </c>
+      <c r="AB35">
+        <v>3</v>
+      </c>
+      <c r="AC35">
+        <v>1.1</v>
+      </c>
+      <c r="AD35">
+        <v>6.2</v>
+      </c>
+      <c r="AE35">
+        <v>1.49</v>
+      </c>
+      <c r="AF35">
+        <v>2.5</v>
+      </c>
+      <c r="AG35">
+        <v>2.6</v>
+      </c>
+      <c r="AH35">
+        <v>1.47</v>
+      </c>
+      <c r="AI35">
+        <v>2.05</v>
+      </c>
+      <c r="AJ35">
+        <v>1.73</v>
+      </c>
+      <c r="AK35">
+        <v>1.4</v>
+      </c>
+      <c r="AL35">
         <v>1.35</v>
       </c>
-      <c r="X35">
-        <v>7.6</v>
-      </c>
-      <c r="Y35">
-        <v>1.07</v>
-      </c>
-      <c r="Z35">
-        <v>2.13</v>
-      </c>
-      <c r="AA35">
-        <v>3.3</v>
-      </c>
-      <c r="AB35">
-        <v>3.72</v>
-      </c>
-      <c r="AC35">
-        <v>1.05</v>
-      </c>
-      <c r="AD35">
-        <v>7.8</v>
-      </c>
-      <c r="AE35">
-        <v>1.36</v>
-      </c>
-      <c r="AF35">
-        <v>3.17</v>
-      </c>
-      <c r="AG35">
-        <v>2.23</v>
-      </c>
-      <c r="AH35">
-        <v>1.67</v>
-      </c>
-      <c r="AI35">
-        <v>1.85</v>
-      </c>
-      <c r="AJ35">
-        <v>1.85</v>
-      </c>
-      <c r="AK35">
-        <v>1.28</v>
-      </c>
-      <c r="AL35">
-        <v>1.34</v>
-      </c>
       <c r="AM35">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO35">
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR35">
-        <v>1.15</v>
+        <v>2.31</v>
       </c>
       <c r="AS35">
-        <v>1.89</v>
+        <v>1.48</v>
       </c>
       <c r="AT35">
-        <v>3.04</v>
+        <v>3.79</v>
       </c>
       <c r="AU35">
         <v>7</v>
       </c>
       <c r="AV35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW35">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AX35">
+        <v>10</v>
+      </c>
+      <c r="AY35">
+        <v>12</v>
+      </c>
+      <c r="AZ35">
+        <v>19</v>
+      </c>
+      <c r="BA35">
+        <v>2</v>
+      </c>
+      <c r="BB35">
+        <v>7</v>
+      </c>
+      <c r="BC35">
         <v>9</v>
       </c>
-      <c r="AY35">
-        <v>29</v>
-      </c>
-      <c r="AZ35">
-        <v>20</v>
-      </c>
-      <c r="BA35">
-        <v>9</v>
-      </c>
-      <c r="BB35">
-        <v>3</v>
-      </c>
-      <c r="BC35">
-        <v>12</v>
-      </c>
       <c r="BD35">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="BE35">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="BF35">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="BG35">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="BH35">
-        <v>4.75</v>
+        <v>3.45</v>
       </c>
       <c r="BI35">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="BJ35">
-        <v>3.35</v>
+        <v>2.62</v>
       </c>
       <c r="BK35">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="BL35">
-        <v>2.4</v>
+        <v>1.98</v>
       </c>
       <c r="BM35">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="BN35">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="BO35">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
       <c r="BP35">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8049,7 +8064,7 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s">
         <v>84</v>
@@ -8073,10 +8088,10 @@
         <v>2</v>
       </c>
       <c r="O36" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8154,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8255,7 +8270,7 @@
         <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s">
         <v>76</v>
@@ -8279,10 +8294,10 @@
         <v>1</v>
       </c>
       <c r="O37" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8461,10 +8476,10 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -8488,7 +8503,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -8670,7 +8685,7 @@
         <v>75</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -8694,7 +8709,7 @@
         <v>120</v>
       </c>
       <c r="P39" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q39">
         <v>1.57</v>
@@ -8900,7 +8915,7 @@
         <v>121</v>
       </c>
       <c r="P40" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q40">
         <v>3.22</v>
@@ -9079,7 +9094,7 @@
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H41" t="s">
         <v>78</v>
@@ -9106,7 +9121,7 @@
         <v>122</v>
       </c>
       <c r="P41" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Q41">
         <v>3.1</v>
@@ -9263,6 +9278,830 @@
       </c>
       <c r="BP41">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7834353</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45766.66666666666</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>123</v>
+      </c>
+      <c r="P42" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q42">
+        <v>2.25</v>
+      </c>
+      <c r="R42">
+        <v>2.14</v>
+      </c>
+      <c r="S42">
+        <v>5.75</v>
+      </c>
+      <c r="T42">
+        <v>1.46</v>
+      </c>
+      <c r="U42">
+        <v>2.7</v>
+      </c>
+      <c r="V42">
+        <v>2.95</v>
+      </c>
+      <c r="W42">
+        <v>1.37</v>
+      </c>
+      <c r="X42">
+        <v>7</v>
+      </c>
+      <c r="Y42">
+        <v>1.06</v>
+      </c>
+      <c r="Z42">
+        <v>1.66</v>
+      </c>
+      <c r="AA42">
+        <v>3.78</v>
+      </c>
+      <c r="AB42">
+        <v>6.24</v>
+      </c>
+      <c r="AC42">
+        <v>1.03</v>
+      </c>
+      <c r="AD42">
+        <v>8.75</v>
+      </c>
+      <c r="AE42">
+        <v>1.32</v>
+      </c>
+      <c r="AF42">
+        <v>2.97</v>
+      </c>
+      <c r="AG42">
+        <v>2.09</v>
+      </c>
+      <c r="AH42">
+        <v>1.74</v>
+      </c>
+      <c r="AI42">
+        <v>2</v>
+      </c>
+      <c r="AJ42">
+        <v>1.75</v>
+      </c>
+      <c r="AK42">
+        <v>1.29</v>
+      </c>
+      <c r="AL42">
+        <v>1.19</v>
+      </c>
+      <c r="AM42">
+        <v>2.2</v>
+      </c>
+      <c r="AN42">
+        <v>1.5</v>
+      </c>
+      <c r="AO42">
+        <v>0.5</v>
+      </c>
+      <c r="AP42">
+        <v>2</v>
+      </c>
+      <c r="AQ42">
+        <v>0.33</v>
+      </c>
+      <c r="AR42">
+        <v>1.15</v>
+      </c>
+      <c r="AS42">
+        <v>1.34</v>
+      </c>
+      <c r="AT42">
+        <v>2.49</v>
+      </c>
+      <c r="AU42">
+        <v>5</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>13</v>
+      </c>
+      <c r="AX42">
+        <v>8</v>
+      </c>
+      <c r="AY42">
+        <v>21</v>
+      </c>
+      <c r="AZ42">
+        <v>11</v>
+      </c>
+      <c r="BA42">
+        <v>5</v>
+      </c>
+      <c r="BB42">
+        <v>4</v>
+      </c>
+      <c r="BC42">
+        <v>9</v>
+      </c>
+      <c r="BD42">
+        <v>1.47</v>
+      </c>
+      <c r="BE42">
+        <v>7.75</v>
+      </c>
+      <c r="BF42">
+        <v>4</v>
+      </c>
+      <c r="BG42">
+        <v>1.12</v>
+      </c>
+      <c r="BH42">
+        <v>3.8</v>
+      </c>
+      <c r="BI42">
+        <v>1.37</v>
+      </c>
+      <c r="BJ42">
+        <v>3</v>
+      </c>
+      <c r="BK42">
+        <v>1.61</v>
+      </c>
+      <c r="BL42">
+        <v>2.3</v>
+      </c>
+      <c r="BM42">
+        <v>1.86</v>
+      </c>
+      <c r="BN42">
+        <v>1.84</v>
+      </c>
+      <c r="BO42">
+        <v>2.31</v>
+      </c>
+      <c r="BP42">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7834352</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45766.77083333334</v>
+      </c>
+      <c r="F43">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>93</v>
+      </c>
+      <c r="P43" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q43">
+        <v>6.5</v>
+      </c>
+      <c r="R43">
+        <v>2.23</v>
+      </c>
+      <c r="S43">
+        <v>2.06</v>
+      </c>
+      <c r="T43">
+        <v>1.38</v>
+      </c>
+      <c r="U43">
+        <v>2.92</v>
+      </c>
+      <c r="V43">
+        <v>2.96</v>
+      </c>
+      <c r="W43">
+        <v>1.41</v>
+      </c>
+      <c r="X43">
+        <v>6.5</v>
+      </c>
+      <c r="Y43">
+        <v>1.07</v>
+      </c>
+      <c r="Z43">
+        <v>7</v>
+      </c>
+      <c r="AA43">
+        <v>4</v>
+      </c>
+      <c r="AB43">
+        <v>1.5</v>
+      </c>
+      <c r="AC43">
+        <v>1.05</v>
+      </c>
+      <c r="AD43">
+        <v>9.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.28</v>
+      </c>
+      <c r="AF43">
+        <v>3.32</v>
+      </c>
+      <c r="AG43">
+        <v>1.95</v>
+      </c>
+      <c r="AH43">
+        <v>1.83</v>
+      </c>
+      <c r="AI43">
+        <v>2.17</v>
+      </c>
+      <c r="AJ43">
+        <v>1.7</v>
+      </c>
+      <c r="AK43">
+        <v>1.2</v>
+      </c>
+      <c r="AL43">
+        <v>1.28</v>
+      </c>
+      <c r="AM43">
+        <v>1.06</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <v>2.33</v>
+      </c>
+      <c r="AQ43">
+        <v>2.33</v>
+      </c>
+      <c r="AR43">
+        <v>1.55</v>
+      </c>
+      <c r="AS43">
+        <v>1.62</v>
+      </c>
+      <c r="AT43">
+        <v>3.17</v>
+      </c>
+      <c r="AU43">
+        <v>2</v>
+      </c>
+      <c r="AV43">
+        <v>8</v>
+      </c>
+      <c r="AW43">
+        <v>5</v>
+      </c>
+      <c r="AX43">
+        <v>10</v>
+      </c>
+      <c r="AY43">
+        <v>8</v>
+      </c>
+      <c r="AZ43">
+        <v>18</v>
+      </c>
+      <c r="BA43">
+        <v>2</v>
+      </c>
+      <c r="BB43">
+        <v>11</v>
+      </c>
+      <c r="BC43">
+        <v>13</v>
+      </c>
+      <c r="BD43">
+        <v>2.97</v>
+      </c>
+      <c r="BE43">
+        <v>8.5</v>
+      </c>
+      <c r="BF43">
+        <v>1.55</v>
+      </c>
+      <c r="BG43">
+        <v>1.21</v>
+      </c>
+      <c r="BH43">
+        <v>3.58</v>
+      </c>
+      <c r="BI43">
+        <v>1.42</v>
+      </c>
+      <c r="BJ43">
+        <v>2.5</v>
+      </c>
+      <c r="BK43">
+        <v>1.75</v>
+      </c>
+      <c r="BL43">
+        <v>1.97</v>
+      </c>
+      <c r="BM43">
+        <v>2.26</v>
+      </c>
+      <c r="BN43">
+        <v>1.56</v>
+      </c>
+      <c r="BO43">
+        <v>3.3</v>
+      </c>
+      <c r="BP43">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7834357</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45766.875</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>103</v>
+      </c>
+      <c r="P44" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q44">
+        <v>3.6</v>
+      </c>
+      <c r="R44">
+        <v>1.97</v>
+      </c>
+      <c r="S44">
+        <v>3.1</v>
+      </c>
+      <c r="T44">
+        <v>1.51</v>
+      </c>
+      <c r="U44">
+        <v>2.63</v>
+      </c>
+      <c r="V44">
+        <v>3.32</v>
+      </c>
+      <c r="W44">
+        <v>1.33</v>
+      </c>
+      <c r="X44">
+        <v>8.6</v>
+      </c>
+      <c r="Y44">
+        <v>1.01</v>
+      </c>
+      <c r="Z44">
+        <v>3.25</v>
+      </c>
+      <c r="AA44">
+        <v>2.95</v>
+      </c>
+      <c r="AB44">
+        <v>2.45</v>
+      </c>
+      <c r="AC44">
+        <v>1.05</v>
+      </c>
+      <c r="AD44">
+        <v>6.75</v>
+      </c>
+      <c r="AE44">
+        <v>1.46</v>
+      </c>
+      <c r="AF44">
+        <v>2.78</v>
+      </c>
+      <c r="AG44">
+        <v>2.38</v>
+      </c>
+      <c r="AH44">
+        <v>1.62</v>
+      </c>
+      <c r="AI44">
+        <v>1.83</v>
+      </c>
+      <c r="AJ44">
+        <v>1.88</v>
+      </c>
+      <c r="AK44">
+        <v>1.4</v>
+      </c>
+      <c r="AL44">
+        <v>1.34</v>
+      </c>
+      <c r="AM44">
+        <v>1.36</v>
+      </c>
+      <c r="AN44">
+        <v>1.5</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>1.33</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1.34</v>
+      </c>
+      <c r="AS44">
+        <v>0.7</v>
+      </c>
+      <c r="AT44">
+        <v>2.04</v>
+      </c>
+      <c r="AU44">
+        <v>3</v>
+      </c>
+      <c r="AV44">
+        <v>6</v>
+      </c>
+      <c r="AW44">
+        <v>6</v>
+      </c>
+      <c r="AX44">
+        <v>9</v>
+      </c>
+      <c r="AY44">
+        <v>11</v>
+      </c>
+      <c r="AZ44">
+        <v>18</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>7</v>
+      </c>
+      <c r="BC44">
+        <v>10</v>
+      </c>
+      <c r="BD44">
+        <v>1.9</v>
+      </c>
+      <c r="BE44">
+        <v>6.5</v>
+      </c>
+      <c r="BF44">
+        <v>2.27</v>
+      </c>
+      <c r="BG44">
+        <v>1.25</v>
+      </c>
+      <c r="BH44">
+        <v>3.98</v>
+      </c>
+      <c r="BI44">
+        <v>1.41</v>
+      </c>
+      <c r="BJ44">
+        <v>2.7</v>
+      </c>
+      <c r="BK44">
+        <v>1.88</v>
+      </c>
+      <c r="BL44">
+        <v>2.12</v>
+      </c>
+      <c r="BM44">
+        <v>2.08</v>
+      </c>
+      <c r="BN44">
+        <v>1.71</v>
+      </c>
+      <c r="BO44">
+        <v>2.69</v>
+      </c>
+      <c r="BP44">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7834360</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45767.45833333334</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>71</v>
+      </c>
+      <c r="H45" t="s">
+        <v>87</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>2</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45" t="s">
+        <v>124</v>
+      </c>
+      <c r="P45" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q45">
+        <v>2.75</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>4.29</v>
+      </c>
+      <c r="T45">
+        <v>1.45</v>
+      </c>
+      <c r="U45">
+        <v>2.75</v>
+      </c>
+      <c r="V45">
+        <v>3.1</v>
+      </c>
+      <c r="W45">
+        <v>1.32</v>
+      </c>
+      <c r="X45">
+        <v>7.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.05</v>
+      </c>
+      <c r="Z45">
+        <v>2.05</v>
+      </c>
+      <c r="AA45">
+        <v>3.19</v>
+      </c>
+      <c r="AB45">
+        <v>3.74</v>
+      </c>
+      <c r="AC45">
+        <v>1.05</v>
+      </c>
+      <c r="AD45">
+        <v>7.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.35</v>
+      </c>
+      <c r="AF45">
+        <v>2.9</v>
+      </c>
+      <c r="AG45">
+        <v>2.2</v>
+      </c>
+      <c r="AH45">
+        <v>1.61</v>
+      </c>
+      <c r="AI45">
+        <v>1.95</v>
+      </c>
+      <c r="AJ45">
+        <v>1.85</v>
+      </c>
+      <c r="AK45">
+        <v>1.34</v>
+      </c>
+      <c r="AL45">
+        <v>1.3</v>
+      </c>
+      <c r="AM45">
+        <v>1.67</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>0.5</v>
+      </c>
+      <c r="AP45">
+        <v>2.33</v>
+      </c>
+      <c r="AQ45">
+        <v>0.67</v>
+      </c>
+      <c r="AR45">
+        <v>1.45</v>
+      </c>
+      <c r="AS45">
+        <v>1.33</v>
+      </c>
+      <c r="AT45">
+        <v>2.78</v>
+      </c>
+      <c r="AU45">
+        <v>9</v>
+      </c>
+      <c r="AV45">
+        <v>7</v>
+      </c>
+      <c r="AW45">
+        <v>15</v>
+      </c>
+      <c r="AX45">
+        <v>19</v>
+      </c>
+      <c r="AY45">
+        <v>29</v>
+      </c>
+      <c r="AZ45">
+        <v>36</v>
+      </c>
+      <c r="BA45">
+        <v>5</v>
+      </c>
+      <c r="BB45">
+        <v>3</v>
+      </c>
+      <c r="BC45">
+        <v>8</v>
+      </c>
+      <c r="BD45">
+        <v>1.57</v>
+      </c>
+      <c r="BE45">
+        <v>9</v>
+      </c>
+      <c r="BF45">
+        <v>2.8</v>
+      </c>
+      <c r="BG45">
+        <v>1.2</v>
+      </c>
+      <c r="BH45">
+        <v>4.45</v>
+      </c>
+      <c r="BI45">
+        <v>1.29</v>
+      </c>
+      <c r="BJ45">
+        <v>3.04</v>
+      </c>
+      <c r="BK45">
+        <v>1.55</v>
+      </c>
+      <c r="BL45">
+        <v>2.23</v>
+      </c>
+      <c r="BM45">
+        <v>1.93</v>
+      </c>
+      <c r="BN45">
+        <v>1.78</v>
+      </c>
+      <c r="BO45">
+        <v>2.49</v>
+      </c>
+      <c r="BP45">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,21 @@
     <t>['24', '45+2']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['10', '23']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -418,9 +433,6 @@
     <t>['62', '87']</t>
   </si>
   <si>
-    <t>['15']</t>
-  </si>
-  <si>
     <t>['17', '90']</t>
   </si>
   <si>
@@ -457,9 +469,6 @@
     <t>['64']</t>
   </si>
   <si>
-    <t>['48']</t>
-  </si>
-  <si>
     <t>['45']</t>
   </si>
   <si>
@@ -467,6 +476,9 @@
   </si>
   <si>
     <t>['34', '72']</t>
+  </si>
+  <si>
+    <t>['45+4', '58']</t>
   </si>
 </sst>
 </file>
@@ -828,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP45"/>
+  <dimension ref="A1:BP50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1165,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1374,7 +1386,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1499,7 +1511,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1783,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5">
         <v>0.33</v>
@@ -1911,7 +1923,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2117,7 +2129,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2404,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2529,7 +2541,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2735,7 +2747,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2941,7 +2953,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3019,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3843,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -3971,7 +3983,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4049,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4177,7 +4189,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4383,7 +4395,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4589,7 +4601,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>3.3</v>
@@ -4876,7 +4888,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5001,7 +5013,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5285,10 +5297,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR22">
         <v>2.29</v>
@@ -5413,7 +5425,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5825,7 +5837,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6237,7 +6249,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6315,10 +6327,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6443,7 +6455,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -6727,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6933,7 +6945,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7061,7 +7073,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7139,10 +7151,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>2.54</v>
@@ -7267,7 +7279,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7473,7 +7485,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7679,7 +7691,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7885,7 +7897,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8091,7 +8103,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8297,7 +8309,7 @@
         <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8503,7 +8515,7 @@
         <v>119</v>
       </c>
       <c r="P38" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="Q38">
         <v>3.2</v>
@@ -9327,7 +9339,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9739,7 +9751,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -9945,7 +9957,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10102,6 +10114,1036 @@
       </c>
       <c r="BP45">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7834356</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45767.66666666666</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" t="s">
+        <v>82</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>125</v>
+      </c>
+      <c r="P46" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q46">
+        <v>2.8</v>
+      </c>
+      <c r="R46">
+        <v>2.04</v>
+      </c>
+      <c r="S46">
+        <v>3.7</v>
+      </c>
+      <c r="T46">
+        <v>1.48</v>
+      </c>
+      <c r="U46">
+        <v>2.72</v>
+      </c>
+      <c r="V46">
+        <v>3.22</v>
+      </c>
+      <c r="W46">
+        <v>1.35</v>
+      </c>
+      <c r="X46">
+        <v>7.8</v>
+      </c>
+      <c r="Y46">
+        <v>1.04</v>
+      </c>
+      <c r="Z46">
+        <v>2.18</v>
+      </c>
+      <c r="AA46">
+        <v>3.2</v>
+      </c>
+      <c r="AB46">
+        <v>3.35</v>
+      </c>
+      <c r="AC46">
+        <v>1.08</v>
+      </c>
+      <c r="AD46">
+        <v>8</v>
+      </c>
+      <c r="AE46">
+        <v>1.38</v>
+      </c>
+      <c r="AF46">
+        <v>3.08</v>
+      </c>
+      <c r="AG46">
+        <v>2.25</v>
+      </c>
+      <c r="AH46">
+        <v>1.6</v>
+      </c>
+      <c r="AI46">
+        <v>1.77</v>
+      </c>
+      <c r="AJ46">
+        <v>1.93</v>
+      </c>
+      <c r="AK46">
+        <v>1.36</v>
+      </c>
+      <c r="AL46">
+        <v>1.3</v>
+      </c>
+      <c r="AM46">
+        <v>1.62</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
+        <v>0.5</v>
+      </c>
+      <c r="AP46">
+        <v>1.67</v>
+      </c>
+      <c r="AQ46">
+        <v>0.33</v>
+      </c>
+      <c r="AR46">
+        <v>2.97</v>
+      </c>
+      <c r="AS46">
+        <v>1.46</v>
+      </c>
+      <c r="AT46">
+        <v>4.43</v>
+      </c>
+      <c r="AU46">
+        <v>7</v>
+      </c>
+      <c r="AV46">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>7</v>
+      </c>
+      <c r="AX46">
+        <v>5</v>
+      </c>
+      <c r="AY46">
+        <v>15</v>
+      </c>
+      <c r="AZ46">
+        <v>9</v>
+      </c>
+      <c r="BA46">
+        <v>8</v>
+      </c>
+      <c r="BB46">
+        <v>4</v>
+      </c>
+      <c r="BC46">
+        <v>12</v>
+      </c>
+      <c r="BD46">
+        <v>1.73</v>
+      </c>
+      <c r="BE46">
+        <v>6.75</v>
+      </c>
+      <c r="BF46">
+        <v>2.38</v>
+      </c>
+      <c r="BG46">
+        <v>1.26</v>
+      </c>
+      <c r="BH46">
+        <v>3.38</v>
+      </c>
+      <c r="BI46">
+        <v>1.48</v>
+      </c>
+      <c r="BJ46">
+        <v>2.47</v>
+      </c>
+      <c r="BK46">
+        <v>2.01</v>
+      </c>
+      <c r="BL46">
+        <v>2</v>
+      </c>
+      <c r="BM46">
+        <v>2.23</v>
+      </c>
+      <c r="BN46">
+        <v>1.6</v>
+      </c>
+      <c r="BO46">
+        <v>2.85</v>
+      </c>
+      <c r="BP46">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7834354</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45767.66666666666</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H47" t="s">
+        <v>89</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q47">
+        <v>2.81</v>
+      </c>
+      <c r="R47">
+        <v>1.86</v>
+      </c>
+      <c r="S47">
+        <v>4.85</v>
+      </c>
+      <c r="T47">
+        <v>1.62</v>
+      </c>
+      <c r="U47">
+        <v>2.38</v>
+      </c>
+      <c r="V47">
+        <v>3.94</v>
+      </c>
+      <c r="W47">
+        <v>1.24</v>
+      </c>
+      <c r="X47">
+        <v>10.5</v>
+      </c>
+      <c r="Y47">
+        <v>1.04</v>
+      </c>
+      <c r="Z47">
+        <v>2.01</v>
+      </c>
+      <c r="AA47">
+        <v>3.23</v>
+      </c>
+      <c r="AB47">
+        <v>3.79</v>
+      </c>
+      <c r="AC47">
+        <v>1.08</v>
+      </c>
+      <c r="AD47">
+        <v>6.2</v>
+      </c>
+      <c r="AE47">
+        <v>1.5</v>
+      </c>
+      <c r="AF47">
+        <v>2.4</v>
+      </c>
+      <c r="AG47">
+        <v>2.2</v>
+      </c>
+      <c r="AH47">
+        <v>1.6</v>
+      </c>
+      <c r="AI47">
+        <v>2.25</v>
+      </c>
+      <c r="AJ47">
+        <v>1.6</v>
+      </c>
+      <c r="AK47">
+        <v>1.36</v>
+      </c>
+      <c r="AL47">
+        <v>1.3</v>
+      </c>
+      <c r="AM47">
+        <v>1.75</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>1.67</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1.4</v>
+      </c>
+      <c r="AS47">
+        <v>0.96</v>
+      </c>
+      <c r="AT47">
+        <v>2.36</v>
+      </c>
+      <c r="AU47">
+        <v>4</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>3</v>
+      </c>
+      <c r="AX47">
+        <v>12</v>
+      </c>
+      <c r="AY47">
+        <v>8</v>
+      </c>
+      <c r="AZ47">
+        <v>16</v>
+      </c>
+      <c r="BA47">
+        <v>5</v>
+      </c>
+      <c r="BB47">
+        <v>5</v>
+      </c>
+      <c r="BC47">
+        <v>10</v>
+      </c>
+      <c r="BD47">
+        <v>1.6</v>
+      </c>
+      <c r="BE47">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF47">
+        <v>2.8</v>
+      </c>
+      <c r="BG47">
+        <v>1.28</v>
+      </c>
+      <c r="BH47">
+        <v>3.42</v>
+      </c>
+      <c r="BI47">
+        <v>1.51</v>
+      </c>
+      <c r="BJ47">
+        <v>2.45</v>
+      </c>
+      <c r="BK47">
+        <v>2.1</v>
+      </c>
+      <c r="BL47">
+        <v>1.89</v>
+      </c>
+      <c r="BM47">
+        <v>2.34</v>
+      </c>
+      <c r="BN47">
+        <v>1.56</v>
+      </c>
+      <c r="BO47">
+        <v>3.05</v>
+      </c>
+      <c r="BP47">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7834359</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45767.77083333334</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>70</v>
+      </c>
+      <c r="H48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>127</v>
+      </c>
+      <c r="P48" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q48">
+        <v>4.9</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>3</v>
+      </c>
+      <c r="T48">
+        <v>1.5</v>
+      </c>
+      <c r="U48">
+        <v>2.61</v>
+      </c>
+      <c r="V48">
+        <v>3.3</v>
+      </c>
+      <c r="W48">
+        <v>1.3</v>
+      </c>
+      <c r="X48">
+        <v>8</v>
+      </c>
+      <c r="Y48">
+        <v>1.05</v>
+      </c>
+      <c r="Z48">
+        <v>3.95</v>
+      </c>
+      <c r="AA48">
+        <v>3.1</v>
+      </c>
+      <c r="AB48">
+        <v>2.05</v>
+      </c>
+      <c r="AC48">
+        <v>1.1</v>
+      </c>
+      <c r="AD48">
+        <v>6.5</v>
+      </c>
+      <c r="AE48">
+        <v>1.45</v>
+      </c>
+      <c r="AF48">
+        <v>2.5</v>
+      </c>
+      <c r="AG48">
+        <v>2.35</v>
+      </c>
+      <c r="AH48">
+        <v>1.53</v>
+      </c>
+      <c r="AI48">
+        <v>2</v>
+      </c>
+      <c r="AJ48">
+        <v>1.68</v>
+      </c>
+      <c r="AK48">
+        <v>1.35</v>
+      </c>
+      <c r="AL48">
+        <v>1.33</v>
+      </c>
+      <c r="AM48">
+        <v>1.32</v>
+      </c>
+      <c r="AN48">
+        <v>2</v>
+      </c>
+      <c r="AO48">
+        <v>3</v>
+      </c>
+      <c r="AP48">
+        <v>1.33</v>
+      </c>
+      <c r="AQ48">
+        <v>3</v>
+      </c>
+      <c r="AR48">
+        <v>0.99</v>
+      </c>
+      <c r="AS48">
+        <v>1.21</v>
+      </c>
+      <c r="AT48">
+        <v>2.2</v>
+      </c>
+      <c r="AU48">
+        <v>6</v>
+      </c>
+      <c r="AV48">
+        <v>5</v>
+      </c>
+      <c r="AW48">
+        <v>7</v>
+      </c>
+      <c r="AX48">
+        <v>2</v>
+      </c>
+      <c r="AY48">
+        <v>13</v>
+      </c>
+      <c r="AZ48">
+        <v>9</v>
+      </c>
+      <c r="BA48">
+        <v>8</v>
+      </c>
+      <c r="BB48">
+        <v>2</v>
+      </c>
+      <c r="BC48">
+        <v>10</v>
+      </c>
+      <c r="BD48">
+        <v>2.33</v>
+      </c>
+      <c r="BE48">
+        <v>6.65</v>
+      </c>
+      <c r="BF48">
+        <v>1.75</v>
+      </c>
+      <c r="BG48">
+        <v>1.22</v>
+      </c>
+      <c r="BH48">
+        <v>3.5</v>
+      </c>
+      <c r="BI48">
+        <v>1.46</v>
+      </c>
+      <c r="BJ48">
+        <v>2.62</v>
+      </c>
+      <c r="BK48">
+        <v>1.8</v>
+      </c>
+      <c r="BL48">
+        <v>2</v>
+      </c>
+      <c r="BM48">
+        <v>2.37</v>
+      </c>
+      <c r="BN48">
+        <v>1.65</v>
+      </c>
+      <c r="BO48">
+        <v>3.25</v>
+      </c>
+      <c r="BP48">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7834351</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45767.77083333334</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>128</v>
+      </c>
+      <c r="P49" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q49">
+        <v>2.37</v>
+      </c>
+      <c r="R49">
+        <v>1.98</v>
+      </c>
+      <c r="S49">
+        <v>5.5</v>
+      </c>
+      <c r="T49">
+        <v>1.54</v>
+      </c>
+      <c r="U49">
+        <v>2.65</v>
+      </c>
+      <c r="V49">
+        <v>3</v>
+      </c>
+      <c r="W49">
+        <v>1.32</v>
+      </c>
+      <c r="X49">
+        <v>11</v>
+      </c>
+      <c r="Y49">
+        <v>1.05</v>
+      </c>
+      <c r="Z49">
+        <v>1.7</v>
+      </c>
+      <c r="AA49">
+        <v>3.38</v>
+      </c>
+      <c r="AB49">
+        <v>6.2</v>
+      </c>
+      <c r="AC49">
+        <v>1.1</v>
+      </c>
+      <c r="AD49">
+        <v>8</v>
+      </c>
+      <c r="AE49">
+        <v>1.36</v>
+      </c>
+      <c r="AF49">
+        <v>2.9</v>
+      </c>
+      <c r="AG49">
+        <v>2.4</v>
+      </c>
+      <c r="AH49">
+        <v>1.67</v>
+      </c>
+      <c r="AI49">
+        <v>2.37</v>
+      </c>
+      <c r="AJ49">
+        <v>1.56</v>
+      </c>
+      <c r="AK49">
+        <v>1.27</v>
+      </c>
+      <c r="AL49">
+        <v>1.2</v>
+      </c>
+      <c r="AM49">
+        <v>1.98</v>
+      </c>
+      <c r="AN49">
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <v>0.5</v>
+      </c>
+      <c r="AP49">
+        <v>2.33</v>
+      </c>
+      <c r="AQ49">
+        <v>0.67</v>
+      </c>
+      <c r="AR49">
+        <v>1.66</v>
+      </c>
+      <c r="AS49">
+        <v>1.39</v>
+      </c>
+      <c r="AT49">
+        <v>3.05</v>
+      </c>
+      <c r="AU49">
+        <v>6</v>
+      </c>
+      <c r="AV49">
+        <v>4</v>
+      </c>
+      <c r="AW49">
+        <v>6</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>13</v>
+      </c>
+      <c r="AZ49">
+        <v>12</v>
+      </c>
+      <c r="BA49">
+        <v>6</v>
+      </c>
+      <c r="BB49">
+        <v>4</v>
+      </c>
+      <c r="BC49">
+        <v>10</v>
+      </c>
+      <c r="BD49">
+        <v>1.45</v>
+      </c>
+      <c r="BE49">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF49">
+        <v>2.88</v>
+      </c>
+      <c r="BG49">
+        <v>1.2</v>
+      </c>
+      <c r="BH49">
+        <v>3.5</v>
+      </c>
+      <c r="BI49">
+        <v>1.46</v>
+      </c>
+      <c r="BJ49">
+        <v>2.45</v>
+      </c>
+      <c r="BK49">
+        <v>1.82</v>
+      </c>
+      <c r="BL49">
+        <v>1.82</v>
+      </c>
+      <c r="BM49">
+        <v>2.37</v>
+      </c>
+      <c r="BN49">
+        <v>1.47</v>
+      </c>
+      <c r="BO49">
+        <v>3.3</v>
+      </c>
+      <c r="BP49">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7834355</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45767.85416666666</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>79</v>
+      </c>
+      <c r="H50" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50" t="s">
+        <v>129</v>
+      </c>
+      <c r="P50" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q50">
+        <v>2.8</v>
+      </c>
+      <c r="R50">
+        <v>2.05</v>
+      </c>
+      <c r="S50">
+        <v>4</v>
+      </c>
+      <c r="T50">
+        <v>1.38</v>
+      </c>
+      <c r="U50">
+        <v>2.65</v>
+      </c>
+      <c r="V50">
+        <v>2.87</v>
+      </c>
+      <c r="W50">
+        <v>1.36</v>
+      </c>
+      <c r="X50">
+        <v>7.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.08</v>
+      </c>
+      <c r="Z50">
+        <v>2.1</v>
+      </c>
+      <c r="AA50">
+        <v>3</v>
+      </c>
+      <c r="AB50">
+        <v>3.25</v>
+      </c>
+      <c r="AC50">
+        <v>1.01</v>
+      </c>
+      <c r="AD50">
+        <v>8.5</v>
+      </c>
+      <c r="AE50">
+        <v>1.4</v>
+      </c>
+      <c r="AF50">
+        <v>2.9</v>
+      </c>
+      <c r="AG50">
+        <v>2.25</v>
+      </c>
+      <c r="AH50">
+        <v>1.8</v>
+      </c>
+      <c r="AI50">
+        <v>1.67</v>
+      </c>
+      <c r="AJ50">
+        <v>2.1</v>
+      </c>
+      <c r="AK50">
+        <v>1.3</v>
+      </c>
+      <c r="AL50">
+        <v>1.25</v>
+      </c>
+      <c r="AM50">
+        <v>1.68</v>
+      </c>
+      <c r="AN50">
+        <v>2</v>
+      </c>
+      <c r="AO50">
+        <v>0.5</v>
+      </c>
+      <c r="AP50">
+        <v>2.33</v>
+      </c>
+      <c r="AQ50">
+        <v>0.33</v>
+      </c>
+      <c r="AR50">
+        <v>1.82</v>
+      </c>
+      <c r="AS50">
+        <v>1.07</v>
+      </c>
+      <c r="AT50">
+        <v>2.89</v>
+      </c>
+      <c r="AU50">
+        <v>7</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>13</v>
+      </c>
+      <c r="AX50">
+        <v>8</v>
+      </c>
+      <c r="AY50">
+        <v>24</v>
+      </c>
+      <c r="AZ50">
+        <v>16</v>
+      </c>
+      <c r="BA50">
+        <v>4</v>
+      </c>
+      <c r="BB50">
+        <v>9</v>
+      </c>
+      <c r="BC50">
+        <v>13</v>
+      </c>
+      <c r="BD50">
+        <v>1.73</v>
+      </c>
+      <c r="BE50">
+        <v>6.75</v>
+      </c>
+      <c r="BF50">
+        <v>2.3</v>
+      </c>
+      <c r="BG50">
+        <v>1.2</v>
+      </c>
+      <c r="BH50">
+        <v>4.05</v>
+      </c>
+      <c r="BI50">
+        <v>1.32</v>
+      </c>
+      <c r="BJ50">
+        <v>3</v>
+      </c>
+      <c r="BK50">
+        <v>1.61</v>
+      </c>
+      <c r="BL50">
+        <v>2.15</v>
+      </c>
+      <c r="BM50">
+        <v>2</v>
+      </c>
+      <c r="BN50">
+        <v>1.68</v>
+      </c>
+      <c r="BO50">
+        <v>2.43</v>
+      </c>
+      <c r="BP50">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['90+14']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -840,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP50"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1511,7 +1514,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1923,7 +1926,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2129,7 +2132,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2541,7 +2544,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2747,7 +2750,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2825,7 +2828,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
         <v>0.5</v>
@@ -2953,7 +2956,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3034,7 +3037,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3983,7 +3986,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4189,7 +4192,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4395,7 +4398,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5013,7 +5016,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5425,7 +5428,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5506,7 +5509,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
         <v>1.18</v>
@@ -5837,7 +5840,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6121,7 +6124,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6249,7 +6252,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6455,7 +6458,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7073,7 +7076,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7279,7 +7282,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7485,7 +7488,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7691,7 +7694,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7897,7 +7900,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8103,7 +8106,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8309,7 +8312,7 @@
         <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9339,7 +9342,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9751,7 +9754,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -9957,7 +9960,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10369,7 +10372,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10575,7 +10578,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10781,7 +10784,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11144,6 +11147,212 @@
       </c>
       <c r="BP50">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7834358</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45768.83333333334</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s">
+        <v>81</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51" t="s">
+        <v>130</v>
+      </c>
+      <c r="P51" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q51">
+        <v>2.3</v>
+      </c>
+      <c r="R51">
+        <v>2.14</v>
+      </c>
+      <c r="S51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>1.39</v>
+      </c>
+      <c r="U51">
+        <v>2.7</v>
+      </c>
+      <c r="V51">
+        <v>2.8</v>
+      </c>
+      <c r="W51">
+        <v>1.43</v>
+      </c>
+      <c r="X51">
+        <v>7</v>
+      </c>
+      <c r="Y51">
+        <v>1.03</v>
+      </c>
+      <c r="Z51">
+        <v>1.68</v>
+      </c>
+      <c r="AA51">
+        <v>3.55</v>
+      </c>
+      <c r="AB51">
+        <v>4.75</v>
+      </c>
+      <c r="AC51">
+        <v>1</v>
+      </c>
+      <c r="AD51">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE51">
+        <v>1.27</v>
+      </c>
+      <c r="AF51">
+        <v>3.43</v>
+      </c>
+      <c r="AG51">
+        <v>2</v>
+      </c>
+      <c r="AH51">
+        <v>1.85</v>
+      </c>
+      <c r="AI51">
+        <v>1.8</v>
+      </c>
+      <c r="AJ51">
+        <v>1.9</v>
+      </c>
+      <c r="AK51">
+        <v>1.17</v>
+      </c>
+      <c r="AL51">
+        <v>1.25</v>
+      </c>
+      <c r="AM51">
+        <v>2.05</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
+        <v>0.5</v>
+      </c>
+      <c r="AP51">
+        <v>1.67</v>
+      </c>
+      <c r="AQ51">
+        <v>0.33</v>
+      </c>
+      <c r="AR51">
+        <v>1.79</v>
+      </c>
+      <c r="AS51">
+        <v>1.3</v>
+      </c>
+      <c r="AT51">
+        <v>3.09</v>
+      </c>
+      <c r="AU51">
+        <v>5</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>9</v>
+      </c>
+      <c r="AX51">
+        <v>8</v>
+      </c>
+      <c r="AY51">
+        <v>15</v>
+      </c>
+      <c r="AZ51">
+        <v>14</v>
+      </c>
+      <c r="BA51">
+        <v>3</v>
+      </c>
+      <c r="BB51">
+        <v>4</v>
+      </c>
+      <c r="BC51">
+        <v>7</v>
+      </c>
+      <c r="BD51">
+        <v>1.57</v>
+      </c>
+      <c r="BE51">
+        <v>7</v>
+      </c>
+      <c r="BF51">
+        <v>2.88</v>
+      </c>
+      <c r="BG51">
+        <v>1.22</v>
+      </c>
+      <c r="BH51">
+        <v>3.75</v>
+      </c>
+      <c r="BI51">
+        <v>1.34</v>
+      </c>
+      <c r="BJ51">
+        <v>2.7</v>
+      </c>
+      <c r="BK51">
+        <v>1.85</v>
+      </c>
+      <c r="BL51">
+        <v>2.1</v>
+      </c>
+      <c r="BM51">
+        <v>2.05</v>
+      </c>
+      <c r="BN51">
+        <v>1.7</v>
+      </c>
+      <c r="BO51">
+        <v>2.5</v>
+      </c>
+      <c r="BP51">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -409,6 +409,15 @@
     <t>['90+14']</t>
   </si>
   <si>
+    <t>['18', '39', '61']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['12', '90+2']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -482,6 +491,12 @@
   </si>
   <si>
     <t>['45+4', '58']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['70', '80']</t>
   </si>
 </sst>
 </file>
@@ -843,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1514,7 +1529,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1595,7 +1610,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1926,7 +1941,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2132,7 +2147,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2544,7 +2559,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2750,7 +2765,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2956,7 +2971,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3446,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3986,7 +4001,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4192,7 +4207,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4270,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4398,7 +4413,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4682,10 +4697,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4888,7 +4903,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.33</v>
@@ -5016,7 +5031,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5428,7 +5443,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5840,7 +5855,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6252,7 +6267,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6458,7 +6473,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7076,7 +7091,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7282,7 +7297,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7360,7 +7375,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7488,7 +7503,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7694,7 +7709,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7772,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -7900,7 +7915,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -7978,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ35">
         <v>0</v>
@@ -8106,7 +8121,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8312,7 +8327,7 @@
         <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8390,7 +8405,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>3</v>
@@ -8599,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
         <v>0.79</v>
@@ -9011,7 +9026,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR40">
         <v>2.4</v>
@@ -9342,7 +9357,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9754,7 +9769,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -9960,7 +9975,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10372,7 +10387,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10578,7 +10593,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10784,7 +10799,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11353,6 +11368,830 @@
       </c>
       <c r="BP51">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7834367</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45773.66666666666</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" t="s">
+        <v>88</v>
+      </c>
+      <c r="H52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>131</v>
+      </c>
+      <c r="P52" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q52">
+        <v>1.91</v>
+      </c>
+      <c r="R52">
+        <v>2.38</v>
+      </c>
+      <c r="S52">
+        <v>7</v>
+      </c>
+      <c r="T52">
+        <v>1.36</v>
+      </c>
+      <c r="U52">
+        <v>3.08</v>
+      </c>
+      <c r="V52">
+        <v>2.67</v>
+      </c>
+      <c r="W52">
+        <v>1.49</v>
+      </c>
+      <c r="X52">
+        <v>6.25</v>
+      </c>
+      <c r="Y52">
+        <v>1.1</v>
+      </c>
+      <c r="Z52">
+        <v>1.37</v>
+      </c>
+      <c r="AA52">
+        <v>5.01</v>
+      </c>
+      <c r="AB52">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AC52">
+        <v>1.04</v>
+      </c>
+      <c r="AD52">
+        <v>10</v>
+      </c>
+      <c r="AE52">
+        <v>1.27</v>
+      </c>
+      <c r="AF52">
+        <v>3.4</v>
+      </c>
+      <c r="AG52">
+        <v>1.8</v>
+      </c>
+      <c r="AH52">
+        <v>2.1</v>
+      </c>
+      <c r="AI52">
+        <v>1.98</v>
+      </c>
+      <c r="AJ52">
+        <v>1.67</v>
+      </c>
+      <c r="AK52">
+        <v>1.19</v>
+      </c>
+      <c r="AL52">
+        <v>1.15</v>
+      </c>
+      <c r="AM52">
+        <v>2.94</v>
+      </c>
+      <c r="AN52">
+        <v>1.5</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>2</v>
+      </c>
+      <c r="AQ52">
+        <v>0</v>
+      </c>
+      <c r="AR52">
+        <v>2.21</v>
+      </c>
+      <c r="AS52">
+        <v>1.04</v>
+      </c>
+      <c r="AT52">
+        <v>3.25</v>
+      </c>
+      <c r="AU52">
+        <v>8</v>
+      </c>
+      <c r="AV52">
+        <v>2</v>
+      </c>
+      <c r="AW52">
+        <v>6</v>
+      </c>
+      <c r="AX52">
+        <v>3</v>
+      </c>
+      <c r="AY52">
+        <v>14</v>
+      </c>
+      <c r="AZ52">
+        <v>5</v>
+      </c>
+      <c r="BA52">
+        <v>9</v>
+      </c>
+      <c r="BB52">
+        <v>2</v>
+      </c>
+      <c r="BC52">
+        <v>11</v>
+      </c>
+      <c r="BD52">
+        <v>1.2</v>
+      </c>
+      <c r="BE52">
+        <v>10.5</v>
+      </c>
+      <c r="BF52">
+        <v>6</v>
+      </c>
+      <c r="BG52">
+        <v>1.22</v>
+      </c>
+      <c r="BH52">
+        <v>3.7</v>
+      </c>
+      <c r="BI52">
+        <v>1.5</v>
+      </c>
+      <c r="BJ52">
+        <v>2.4</v>
+      </c>
+      <c r="BK52">
+        <v>1.87</v>
+      </c>
+      <c r="BL52">
+        <v>1.83</v>
+      </c>
+      <c r="BM52">
+        <v>2.46</v>
+      </c>
+      <c r="BN52">
+        <v>1.5</v>
+      </c>
+      <c r="BO52">
+        <v>3.12</v>
+      </c>
+      <c r="BP52">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7834369</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45773.77083333334</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>81</v>
+      </c>
+      <c r="H53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>132</v>
+      </c>
+      <c r="P53" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q53">
+        <v>3.1</v>
+      </c>
+      <c r="R53">
+        <v>1.84</v>
+      </c>
+      <c r="S53">
+        <v>4.88</v>
+      </c>
+      <c r="T53">
+        <v>1.53</v>
+      </c>
+      <c r="U53">
+        <v>2.3</v>
+      </c>
+      <c r="V53">
+        <v>3.4</v>
+      </c>
+      <c r="W53">
+        <v>1.28</v>
+      </c>
+      <c r="X53">
+        <v>9.75</v>
+      </c>
+      <c r="Y53">
+        <v>1.04</v>
+      </c>
+      <c r="Z53">
+        <v>2.25</v>
+      </c>
+      <c r="AA53">
+        <v>2.7</v>
+      </c>
+      <c r="AB53">
+        <v>3.5</v>
+      </c>
+      <c r="AC53">
+        <v>1.11</v>
+      </c>
+      <c r="AD53">
+        <v>6</v>
+      </c>
+      <c r="AE53">
+        <v>1.68</v>
+      </c>
+      <c r="AF53">
+        <v>2.28</v>
+      </c>
+      <c r="AG53">
+        <v>2.45</v>
+      </c>
+      <c r="AH53">
+        <v>1.47</v>
+      </c>
+      <c r="AI53">
+        <v>2.1</v>
+      </c>
+      <c r="AJ53">
+        <v>1.63</v>
+      </c>
+      <c r="AK53">
+        <v>1.44</v>
+      </c>
+      <c r="AL53">
+        <v>1.28</v>
+      </c>
+      <c r="AM53">
+        <v>1.57</v>
+      </c>
+      <c r="AN53">
+        <v>3</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>2.33</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1.35</v>
+      </c>
+      <c r="AS53">
+        <v>1.32</v>
+      </c>
+      <c r="AT53">
+        <v>2.67</v>
+      </c>
+      <c r="AU53">
+        <v>3</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>5</v>
+      </c>
+      <c r="AX53">
+        <v>10</v>
+      </c>
+      <c r="AY53">
+        <v>8</v>
+      </c>
+      <c r="AZ53">
+        <v>18</v>
+      </c>
+      <c r="BA53">
+        <v>3</v>
+      </c>
+      <c r="BB53">
+        <v>2</v>
+      </c>
+      <c r="BC53">
+        <v>5</v>
+      </c>
+      <c r="BD53">
+        <v>1.63</v>
+      </c>
+      <c r="BE53">
+        <v>6.85</v>
+      </c>
+      <c r="BF53">
+        <v>2.55</v>
+      </c>
+      <c r="BG53">
+        <v>1.3</v>
+      </c>
+      <c r="BH53">
+        <v>3.45</v>
+      </c>
+      <c r="BI53">
+        <v>1.47</v>
+      </c>
+      <c r="BJ53">
+        <v>2.5</v>
+      </c>
+      <c r="BK53">
+        <v>1.77</v>
+      </c>
+      <c r="BL53">
+        <v>1.95</v>
+      </c>
+      <c r="BM53">
+        <v>2.3</v>
+      </c>
+      <c r="BN53">
+        <v>1.55</v>
+      </c>
+      <c r="BO53">
+        <v>2.8</v>
+      </c>
+      <c r="BP53">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7834365</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45773.77083333334</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>87</v>
+      </c>
+      <c r="H54" t="s">
+        <v>83</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q54">
+        <v>3.8</v>
+      </c>
+      <c r="R54">
+        <v>1.9</v>
+      </c>
+      <c r="S54">
+        <v>3.2</v>
+      </c>
+      <c r="T54">
+        <v>1.46</v>
+      </c>
+      <c r="U54">
+        <v>2.43</v>
+      </c>
+      <c r="V54">
+        <v>3.45</v>
+      </c>
+      <c r="W54">
+        <v>1.32</v>
+      </c>
+      <c r="X54">
+        <v>8.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.06</v>
+      </c>
+      <c r="Z54">
+        <v>2.99</v>
+      </c>
+      <c r="AA54">
+        <v>3.13</v>
+      </c>
+      <c r="AB54">
+        <v>2.48</v>
+      </c>
+      <c r="AC54">
+        <v>1.08</v>
+      </c>
+      <c r="AD54">
+        <v>7</v>
+      </c>
+      <c r="AE54">
+        <v>1.4</v>
+      </c>
+      <c r="AF54">
+        <v>2.7</v>
+      </c>
+      <c r="AG54">
+        <v>2.45</v>
+      </c>
+      <c r="AH54">
+        <v>1.58</v>
+      </c>
+      <c r="AI54">
+        <v>1.93</v>
+      </c>
+      <c r="AJ54">
+        <v>1.75</v>
+      </c>
+      <c r="AK54">
+        <v>1.35</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.4</v>
+      </c>
+      <c r="AN54">
+        <v>2</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1.67</v>
+      </c>
+      <c r="AQ54">
+        <v>0.33</v>
+      </c>
+      <c r="AR54">
+        <v>1.85</v>
+      </c>
+      <c r="AS54">
+        <v>2.15</v>
+      </c>
+      <c r="AT54">
+        <v>4</v>
+      </c>
+      <c r="AU54">
+        <v>7</v>
+      </c>
+      <c r="AV54">
+        <v>7</v>
+      </c>
+      <c r="AW54">
+        <v>14</v>
+      </c>
+      <c r="AX54">
+        <v>11</v>
+      </c>
+      <c r="AY54">
+        <v>27</v>
+      </c>
+      <c r="AZ54">
+        <v>19</v>
+      </c>
+      <c r="BA54">
+        <v>9</v>
+      </c>
+      <c r="BB54">
+        <v>7</v>
+      </c>
+      <c r="BC54">
+        <v>16</v>
+      </c>
+      <c r="BD54">
+        <v>2.3</v>
+      </c>
+      <c r="BE54">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF54">
+        <v>1.8</v>
+      </c>
+      <c r="BG54">
+        <v>1.29</v>
+      </c>
+      <c r="BH54">
+        <v>3.05</v>
+      </c>
+      <c r="BI54">
+        <v>1.48</v>
+      </c>
+      <c r="BJ54">
+        <v>2.5</v>
+      </c>
+      <c r="BK54">
+        <v>1.75</v>
+      </c>
+      <c r="BL54">
+        <v>1.95</v>
+      </c>
+      <c r="BM54">
+        <v>2.2</v>
+      </c>
+      <c r="BN54">
+        <v>1.6</v>
+      </c>
+      <c r="BO54">
+        <v>2.8</v>
+      </c>
+      <c r="BP54">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7834370</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45773.83333333334</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>85</v>
+      </c>
+      <c r="H55" t="s">
+        <v>70</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55" t="s">
+        <v>93</v>
+      </c>
+      <c r="P55" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q55">
+        <v>2.75</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>3.8</v>
+      </c>
+      <c r="T55">
+        <v>1.48</v>
+      </c>
+      <c r="U55">
+        <v>2.48</v>
+      </c>
+      <c r="V55">
+        <v>3.27</v>
+      </c>
+      <c r="W55">
+        <v>1.32</v>
+      </c>
+      <c r="X55">
+        <v>9</v>
+      </c>
+      <c r="Y55">
+        <v>1.04</v>
+      </c>
+      <c r="Z55">
+        <v>2.27</v>
+      </c>
+      <c r="AA55">
+        <v>3.15</v>
+      </c>
+      <c r="AB55">
+        <v>3.25</v>
+      </c>
+      <c r="AC55">
+        <v>1.07</v>
+      </c>
+      <c r="AD55">
+        <v>7</v>
+      </c>
+      <c r="AE55">
+        <v>1.44</v>
+      </c>
+      <c r="AF55">
+        <v>2.85</v>
+      </c>
+      <c r="AG55">
+        <v>2.38</v>
+      </c>
+      <c r="AH55">
+        <v>1.57</v>
+      </c>
+      <c r="AI55">
+        <v>1.95</v>
+      </c>
+      <c r="AJ55">
+        <v>1.75</v>
+      </c>
+      <c r="AK55">
+        <v>1.33</v>
+      </c>
+      <c r="AL55">
+        <v>1.28</v>
+      </c>
+      <c r="AM55">
+        <v>1.52</v>
+      </c>
+      <c r="AN55">
+        <v>0</v>
+      </c>
+      <c r="AO55">
+        <v>0.5</v>
+      </c>
+      <c r="AP55">
+        <v>0.33</v>
+      </c>
+      <c r="AQ55">
+        <v>0.67</v>
+      </c>
+      <c r="AR55">
+        <v>1.78</v>
+      </c>
+      <c r="AS55">
+        <v>1.16</v>
+      </c>
+      <c r="AT55">
+        <v>2.94</v>
+      </c>
+      <c r="AU55">
+        <v>9</v>
+      </c>
+      <c r="AV55">
+        <v>2</v>
+      </c>
+      <c r="AW55">
+        <v>8</v>
+      </c>
+      <c r="AX55">
+        <v>9</v>
+      </c>
+      <c r="AY55">
+        <v>17</v>
+      </c>
+      <c r="AZ55">
+        <v>14</v>
+      </c>
+      <c r="BA55">
+        <v>6</v>
+      </c>
+      <c r="BB55">
+        <v>6</v>
+      </c>
+      <c r="BC55">
+        <v>12</v>
+      </c>
+      <c r="BD55">
+        <v>1.66</v>
+      </c>
+      <c r="BE55">
+        <v>10.5</v>
+      </c>
+      <c r="BF55">
+        <v>2.64</v>
+      </c>
+      <c r="BG55">
+        <v>1.2</v>
+      </c>
+      <c r="BH55">
+        <v>4</v>
+      </c>
+      <c r="BI55">
+        <v>1.36</v>
+      </c>
+      <c r="BJ55">
+        <v>2.9</v>
+      </c>
+      <c r="BK55">
+        <v>1.57</v>
+      </c>
+      <c r="BL55">
+        <v>2.25</v>
+      </c>
+      <c r="BM55">
+        <v>1.91</v>
+      </c>
+      <c r="BN55">
+        <v>1.8</v>
+      </c>
+      <c r="BO55">
+        <v>2.4</v>
+      </c>
+      <c r="BP55">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="162">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -416,6 +416,9 @@
   </si>
   <si>
     <t>['12', '90+2']</t>
+  </si>
+  <si>
+    <t>['37', '90+5']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -858,7 +861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1198,7 +1201,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1529,7 +1532,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1941,7 +1944,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2147,7 +2150,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2559,7 +2562,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2765,7 +2768,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2971,7 +2974,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3667,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -4001,7 +4004,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4207,7 +4210,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4413,7 +4416,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5031,7 +5034,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5443,7 +5446,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5855,7 +5858,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6267,7 +6270,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6473,7 +6476,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7091,7 +7094,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7297,7 +7300,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7503,7 +7506,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7581,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7709,7 +7712,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7915,7 +7918,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8121,7 +8124,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8202,7 +8205,7 @@
         <v>2</v>
       </c>
       <c r="AQ36">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>0.99</v>
@@ -8327,7 +8330,7 @@
         <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9357,7 +9360,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9769,7 +9772,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -9975,7 +9978,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10387,7 +10390,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10593,7 +10596,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10799,7 +10802,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11623,7 +11626,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11731,7 +11734,7 @@
         <v>8</v>
       </c>
       <c r="AZ53">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA53">
         <v>3</v>
@@ -11829,7 +11832,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -12140,10 +12143,10 @@
         <v>9</v>
       </c>
       <c r="AY55">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ55">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA55">
         <v>6</v>
@@ -12192,6 +12195,212 @@
       </c>
       <c r="BP55">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7834362</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45773.875</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>134</v>
+      </c>
+      <c r="P56" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q56">
+        <v>2.85</v>
+      </c>
+      <c r="R56">
+        <v>1.92</v>
+      </c>
+      <c r="S56">
+        <v>4.4</v>
+      </c>
+      <c r="T56">
+        <v>1.54</v>
+      </c>
+      <c r="U56">
+        <v>2.56</v>
+      </c>
+      <c r="V56">
+        <v>3.5</v>
+      </c>
+      <c r="W56">
+        <v>1.3</v>
+      </c>
+      <c r="X56">
+        <v>7.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.05</v>
+      </c>
+      <c r="Z56">
+        <v>2.16</v>
+      </c>
+      <c r="AA56">
+        <v>3.04</v>
+      </c>
+      <c r="AB56">
+        <v>3.99</v>
+      </c>
+      <c r="AC56">
+        <v>1.1</v>
+      </c>
+      <c r="AD56">
+        <v>7.52</v>
+      </c>
+      <c r="AE56">
+        <v>1.4</v>
+      </c>
+      <c r="AF56">
+        <v>2.63</v>
+      </c>
+      <c r="AG56">
+        <v>2.4</v>
+      </c>
+      <c r="AH56">
+        <v>1.6</v>
+      </c>
+      <c r="AI56">
+        <v>2.05</v>
+      </c>
+      <c r="AJ56">
+        <v>1.73</v>
+      </c>
+      <c r="AK56">
+        <v>1.36</v>
+      </c>
+      <c r="AL56">
+        <v>1.3</v>
+      </c>
+      <c r="AM56">
+        <v>1.7</v>
+      </c>
+      <c r="AN56">
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <v>1.5</v>
+      </c>
+      <c r="AP56">
+        <v>2.33</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>2.27</v>
+      </c>
+      <c r="AS56">
+        <v>1.36</v>
+      </c>
+      <c r="AT56">
+        <v>3.63</v>
+      </c>
+      <c r="AU56">
+        <v>8</v>
+      </c>
+      <c r="AV56">
+        <v>2</v>
+      </c>
+      <c r="AW56">
+        <v>8</v>
+      </c>
+      <c r="AX56">
+        <v>7</v>
+      </c>
+      <c r="AY56">
+        <v>16</v>
+      </c>
+      <c r="AZ56">
+        <v>11</v>
+      </c>
+      <c r="BA56">
+        <v>6</v>
+      </c>
+      <c r="BB56">
+        <v>3</v>
+      </c>
+      <c r="BC56">
+        <v>9</v>
+      </c>
+      <c r="BD56">
+        <v>1.59</v>
+      </c>
+      <c r="BE56">
+        <v>6.75</v>
+      </c>
+      <c r="BF56">
+        <v>3.1</v>
+      </c>
+      <c r="BG56">
+        <v>1.3</v>
+      </c>
+      <c r="BH56">
+        <v>3.05</v>
+      </c>
+      <c r="BI56">
+        <v>1.52</v>
+      </c>
+      <c r="BJ56">
+        <v>2.36</v>
+      </c>
+      <c r="BK56">
+        <v>1.86</v>
+      </c>
+      <c r="BL56">
+        <v>1.82</v>
+      </c>
+      <c r="BM56">
+        <v>2.38</v>
+      </c>
+      <c r="BN56">
+        <v>1.53</v>
+      </c>
+      <c r="BO56">
+        <v>3.05</v>
+      </c>
+      <c r="BP56">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -421,6 +421,18 @@
     <t>['37', '90+5']</t>
   </si>
   <si>
+    <t>['5', '34', '37', '78']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -481,15 +493,9 @@
     <t>['63', '82']</t>
   </si>
   <si>
-    <t>['64']</t>
-  </si>
-  <si>
     <t>['45']</t>
   </si>
   <si>
-    <t>['66']</t>
-  </si>
-  <si>
     <t>['34', '72']</t>
   </si>
   <si>
@@ -500,6 +506,12 @@
   </si>
   <si>
     <t>['70', '80']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['63', '83']</t>
   </si>
 </sst>
 </file>
@@ -861,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1532,7 +1544,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1944,7 +1956,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2150,7 +2162,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2228,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2434,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>0.33</v>
@@ -2562,7 +2574,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2768,7 +2780,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2849,7 +2861,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2974,7 +2986,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3467,7 +3479,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4004,7 +4016,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4085,7 +4097,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4210,7 +4222,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4416,7 +4428,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4494,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ18">
         <v>2.33</v>
@@ -5034,7 +5046,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5112,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5446,7 +5458,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5730,10 +5742,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -5858,7 +5870,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6270,7 +6282,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6476,7 +6488,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7094,7 +7106,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7300,7 +7312,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7506,7 +7518,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7712,7 +7724,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7793,7 +7805,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.15</v>
@@ -7918,7 +7930,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -7999,7 +8011,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ35">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR35">
         <v>2.31</v>
@@ -8124,7 +8136,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8330,7 +8342,7 @@
         <v>93</v>
       </c>
       <c r="P37" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8614,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
         <v>0.67</v>
@@ -8820,7 +8832,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9026,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ40">
         <v>0.33</v>
@@ -9235,7 +9247,7 @@
         <v>3</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR41">
         <v>0.97</v>
@@ -9360,7 +9372,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9772,7 +9784,7 @@
         <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="Q44">
         <v>3.6</v>
@@ -9978,7 +9990,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10390,7 +10402,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10596,7 +10608,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10802,7 +10814,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11626,7 +11638,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11832,7 +11844,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -12401,6 +12413,1036 @@
       </c>
       <c r="BP56">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7834361</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45774.66666666666</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>135</v>
+      </c>
+      <c r="P57" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q57">
+        <v>2.04</v>
+      </c>
+      <c r="R57">
+        <v>2.2</v>
+      </c>
+      <c r="S57">
+        <v>7.76</v>
+      </c>
+      <c r="T57">
+        <v>1.4</v>
+      </c>
+      <c r="U57">
+        <v>2.9</v>
+      </c>
+      <c r="V57">
+        <v>2.92</v>
+      </c>
+      <c r="W57">
+        <v>1.42</v>
+      </c>
+      <c r="X57">
+        <v>7.3</v>
+      </c>
+      <c r="Y57">
+        <v>1.06</v>
+      </c>
+      <c r="Z57">
+        <v>1.45</v>
+      </c>
+      <c r="AA57">
+        <v>4.2</v>
+      </c>
+      <c r="AB57">
+        <v>7</v>
+      </c>
+      <c r="AC57">
+        <v>1</v>
+      </c>
+      <c r="AD57">
+        <v>9.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.3</v>
+      </c>
+      <c r="AF57">
+        <v>3.3</v>
+      </c>
+      <c r="AG57">
+        <v>1.91</v>
+      </c>
+      <c r="AH57">
+        <v>1.83</v>
+      </c>
+      <c r="AI57">
+        <v>2.1</v>
+      </c>
+      <c r="AJ57">
+        <v>1.72</v>
+      </c>
+      <c r="AK57">
+        <v>1.25</v>
+      </c>
+      <c r="AL57">
+        <v>1.18</v>
+      </c>
+      <c r="AM57">
+        <v>2.6</v>
+      </c>
+      <c r="AN57">
+        <v>2</v>
+      </c>
+      <c r="AO57">
+        <v>0.5</v>
+      </c>
+      <c r="AP57">
+        <v>2.33</v>
+      </c>
+      <c r="AQ57">
+        <v>0.33</v>
+      </c>
+      <c r="AR57">
+        <v>2.08</v>
+      </c>
+      <c r="AS57">
+        <v>1.19</v>
+      </c>
+      <c r="AT57">
+        <v>3.27</v>
+      </c>
+      <c r="AU57">
+        <v>7</v>
+      </c>
+      <c r="AV57">
+        <v>3</v>
+      </c>
+      <c r="AW57">
+        <v>11</v>
+      </c>
+      <c r="AX57">
+        <v>6</v>
+      </c>
+      <c r="AY57">
+        <v>20</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>10</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>13</v>
+      </c>
+      <c r="BD57">
+        <v>1.19</v>
+      </c>
+      <c r="BE57">
+        <v>16</v>
+      </c>
+      <c r="BF57">
+        <v>5.95</v>
+      </c>
+      <c r="BG57">
+        <v>1.21</v>
+      </c>
+      <c r="BH57">
+        <v>3.72</v>
+      </c>
+      <c r="BI57">
+        <v>1.41</v>
+      </c>
+      <c r="BJ57">
+        <v>2.68</v>
+      </c>
+      <c r="BK57">
+        <v>1.69</v>
+      </c>
+      <c r="BL57">
+        <v>2.1</v>
+      </c>
+      <c r="BM57">
+        <v>2.1</v>
+      </c>
+      <c r="BN57">
+        <v>1.65</v>
+      </c>
+      <c r="BO57">
+        <v>2.6</v>
+      </c>
+      <c r="BP57">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7834363</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45774.77083333334</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
+        <v>93</v>
+      </c>
+      <c r="P58" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q58">
+        <v>2.09</v>
+      </c>
+      <c r="R58">
+        <v>2.25</v>
+      </c>
+      <c r="S58">
+        <v>6</v>
+      </c>
+      <c r="T58">
+        <v>1.38</v>
+      </c>
+      <c r="U58">
+        <v>2.8</v>
+      </c>
+      <c r="V58">
+        <v>2.88</v>
+      </c>
+      <c r="W58">
+        <v>1.34</v>
+      </c>
+      <c r="X58">
+        <v>7</v>
+      </c>
+      <c r="Y58">
+        <v>1.08</v>
+      </c>
+      <c r="Z58">
+        <v>1.56</v>
+      </c>
+      <c r="AA58">
+        <v>4.1</v>
+      </c>
+      <c r="AB58">
+        <v>6.31</v>
+      </c>
+      <c r="AC58">
+        <v>1.05</v>
+      </c>
+      <c r="AD58">
+        <v>9.5</v>
+      </c>
+      <c r="AE58">
+        <v>1.24</v>
+      </c>
+      <c r="AF58">
+        <v>3.5</v>
+      </c>
+      <c r="AG58">
+        <v>1.98</v>
+      </c>
+      <c r="AH58">
+        <v>1.8</v>
+      </c>
+      <c r="AI58">
+        <v>2.02</v>
+      </c>
+      <c r="AJ58">
+        <v>1.75</v>
+      </c>
+      <c r="AK58">
+        <v>1.24</v>
+      </c>
+      <c r="AL58">
+        <v>1.18</v>
+      </c>
+      <c r="AM58">
+        <v>2.3</v>
+      </c>
+      <c r="AN58">
+        <v>2</v>
+      </c>
+      <c r="AO58">
+        <v>0.5</v>
+      </c>
+      <c r="AP58">
+        <v>1.33</v>
+      </c>
+      <c r="AQ58">
+        <v>1.33</v>
+      </c>
+      <c r="AR58">
+        <v>1.54</v>
+      </c>
+      <c r="AS58">
+        <v>1.11</v>
+      </c>
+      <c r="AT58">
+        <v>2.65</v>
+      </c>
+      <c r="AU58">
+        <v>3</v>
+      </c>
+      <c r="AV58">
+        <v>6</v>
+      </c>
+      <c r="AW58">
+        <v>19</v>
+      </c>
+      <c r="AX58">
+        <v>6</v>
+      </c>
+      <c r="AY58">
+        <v>23</v>
+      </c>
+      <c r="AZ58">
+        <v>12</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>4</v>
+      </c>
+      <c r="BC58">
+        <v>10</v>
+      </c>
+      <c r="BD58">
+        <v>1.36</v>
+      </c>
+      <c r="BE58">
+        <v>10</v>
+      </c>
+      <c r="BF58">
+        <v>3.4</v>
+      </c>
+      <c r="BG58">
+        <v>1.18</v>
+      </c>
+      <c r="BH58">
+        <v>3.85</v>
+      </c>
+      <c r="BI58">
+        <v>1.42</v>
+      </c>
+      <c r="BJ58">
+        <v>2.65</v>
+      </c>
+      <c r="BK58">
+        <v>1.73</v>
+      </c>
+      <c r="BL58">
+        <v>2</v>
+      </c>
+      <c r="BM58">
+        <v>2.1</v>
+      </c>
+      <c r="BN58">
+        <v>1.65</v>
+      </c>
+      <c r="BO58">
+        <v>2.7</v>
+      </c>
+      <c r="BP58">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7834366</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45774.77083333334</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>136</v>
+      </c>
+      <c r="P59" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q59">
+        <v>2.9</v>
+      </c>
+      <c r="R59">
+        <v>1.95</v>
+      </c>
+      <c r="S59">
+        <v>3.95</v>
+      </c>
+      <c r="T59">
+        <v>1.44</v>
+      </c>
+      <c r="U59">
+        <v>2.5</v>
+      </c>
+      <c r="V59">
+        <v>3.28</v>
+      </c>
+      <c r="W59">
+        <v>1.33</v>
+      </c>
+      <c r="X59">
+        <v>8</v>
+      </c>
+      <c r="Y59">
+        <v>1.05</v>
+      </c>
+      <c r="Z59">
+        <v>2.1</v>
+      </c>
+      <c r="AA59">
+        <v>3.13</v>
+      </c>
+      <c r="AB59">
+        <v>3.6</v>
+      </c>
+      <c r="AC59">
+        <v>1.06</v>
+      </c>
+      <c r="AD59">
+        <v>7.49</v>
+      </c>
+      <c r="AE59">
+        <v>1.36</v>
+      </c>
+      <c r="AF59">
+        <v>2.95</v>
+      </c>
+      <c r="AG59">
+        <v>2.35</v>
+      </c>
+      <c r="AH59">
+        <v>1.58</v>
+      </c>
+      <c r="AI59">
+        <v>1.95</v>
+      </c>
+      <c r="AJ59">
+        <v>1.75</v>
+      </c>
+      <c r="AK59">
+        <v>1.3</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.65</v>
+      </c>
+      <c r="AN59">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>3</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>1.41</v>
+      </c>
+      <c r="AS59">
+        <v>1.29</v>
+      </c>
+      <c r="AT59">
+        <v>2.7</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>7</v>
+      </c>
+      <c r="AW59">
+        <v>8</v>
+      </c>
+      <c r="AX59">
+        <v>10</v>
+      </c>
+      <c r="AY59">
+        <v>15</v>
+      </c>
+      <c r="AZ59">
+        <v>20</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>8</v>
+      </c>
+      <c r="BC59">
+        <v>12</v>
+      </c>
+      <c r="BD59">
+        <v>1.54</v>
+      </c>
+      <c r="BE59">
+        <v>9</v>
+      </c>
+      <c r="BF59">
+        <v>3</v>
+      </c>
+      <c r="BG59">
+        <v>1.25</v>
+      </c>
+      <c r="BH59">
+        <v>3.4</v>
+      </c>
+      <c r="BI59">
+        <v>1.48</v>
+      </c>
+      <c r="BJ59">
+        <v>2.5</v>
+      </c>
+      <c r="BK59">
+        <v>1.94</v>
+      </c>
+      <c r="BL59">
+        <v>2</v>
+      </c>
+      <c r="BM59">
+        <v>2.2</v>
+      </c>
+      <c r="BN59">
+        <v>1.62</v>
+      </c>
+      <c r="BO59">
+        <v>2.8</v>
+      </c>
+      <c r="BP59">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7834368</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45774.77083333334</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s">
+        <v>72</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>137</v>
+      </c>
+      <c r="P60" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q60">
+        <v>3.1</v>
+      </c>
+      <c r="R60">
+        <v>1.96</v>
+      </c>
+      <c r="S60">
+        <v>3.85</v>
+      </c>
+      <c r="T60">
+        <v>1.5</v>
+      </c>
+      <c r="U60">
+        <v>2.4</v>
+      </c>
+      <c r="V60">
+        <v>3.63</v>
+      </c>
+      <c r="W60">
+        <v>1.32</v>
+      </c>
+      <c r="X60">
+        <v>8</v>
+      </c>
+      <c r="Y60">
+        <v>1.05</v>
+      </c>
+      <c r="Z60">
+        <v>2.29</v>
+      </c>
+      <c r="AA60">
+        <v>3.2</v>
+      </c>
+      <c r="AB60">
+        <v>3.1</v>
+      </c>
+      <c r="AC60">
+        <v>1.07</v>
+      </c>
+      <c r="AD60">
+        <v>7</v>
+      </c>
+      <c r="AE60">
+        <v>1.5</v>
+      </c>
+      <c r="AF60">
+        <v>2.47</v>
+      </c>
+      <c r="AG60">
+        <v>2.5</v>
+      </c>
+      <c r="AH60">
+        <v>1.58</v>
+      </c>
+      <c r="AI60">
+        <v>2</v>
+      </c>
+      <c r="AJ60">
+        <v>1.75</v>
+      </c>
+      <c r="AK60">
+        <v>1.38</v>
+      </c>
+      <c r="AL60">
+        <v>1.28</v>
+      </c>
+      <c r="AM60">
+        <v>1.57</v>
+      </c>
+      <c r="AN60">
+        <v>1.5</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>1.33</v>
+      </c>
+      <c r="AQ60">
+        <v>0.33</v>
+      </c>
+      <c r="AR60">
+        <v>1.37</v>
+      </c>
+      <c r="AS60">
+        <v>1.73</v>
+      </c>
+      <c r="AT60">
+        <v>3.1</v>
+      </c>
+      <c r="AU60">
+        <v>4</v>
+      </c>
+      <c r="AV60">
+        <v>9</v>
+      </c>
+      <c r="AW60">
+        <v>11</v>
+      </c>
+      <c r="AX60">
+        <v>4</v>
+      </c>
+      <c r="AY60">
+        <v>17</v>
+      </c>
+      <c r="AZ60">
+        <v>14</v>
+      </c>
+      <c r="BA60">
+        <v>6</v>
+      </c>
+      <c r="BB60">
+        <v>2</v>
+      </c>
+      <c r="BC60">
+        <v>8</v>
+      </c>
+      <c r="BD60">
+        <v>1.8</v>
+      </c>
+      <c r="BE60">
+        <v>6.8</v>
+      </c>
+      <c r="BF60">
+        <v>2.33</v>
+      </c>
+      <c r="BG60">
+        <v>1.15</v>
+      </c>
+      <c r="BH60">
+        <v>3.7</v>
+      </c>
+      <c r="BI60">
+        <v>1.42</v>
+      </c>
+      <c r="BJ60">
+        <v>2.55</v>
+      </c>
+      <c r="BK60">
+        <v>1.93</v>
+      </c>
+      <c r="BL60">
+        <v>2</v>
+      </c>
+      <c r="BM60">
+        <v>2.05</v>
+      </c>
+      <c r="BN60">
+        <v>1.7</v>
+      </c>
+      <c r="BO60">
+        <v>2.41</v>
+      </c>
+      <c r="BP60">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7834364</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45774.85416666666</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>89</v>
+      </c>
+      <c r="H61" t="s">
+        <v>79</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>138</v>
+      </c>
+      <c r="P61" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q61">
+        <v>2.6</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>4.4</v>
+      </c>
+      <c r="T61">
+        <v>1.48</v>
+      </c>
+      <c r="U61">
+        <v>2.45</v>
+      </c>
+      <c r="V61">
+        <v>3.1</v>
+      </c>
+      <c r="W61">
+        <v>1.35</v>
+      </c>
+      <c r="X61">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>1.03</v>
+      </c>
+      <c r="Z61">
+        <v>2.15</v>
+      </c>
+      <c r="AA61">
+        <v>3.25</v>
+      </c>
+      <c r="AB61">
+        <v>3.35</v>
+      </c>
+      <c r="AC61">
+        <v>1.09</v>
+      </c>
+      <c r="AD61">
+        <v>7</v>
+      </c>
+      <c r="AE61">
+        <v>1.37</v>
+      </c>
+      <c r="AF61">
+        <v>2.9</v>
+      </c>
+      <c r="AG61">
+        <v>2.3</v>
+      </c>
+      <c r="AH61">
+        <v>1.57</v>
+      </c>
+      <c r="AI61">
+        <v>2</v>
+      </c>
+      <c r="AJ61">
+        <v>1.67</v>
+      </c>
+      <c r="AK61">
+        <v>1.33</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.83</v>
+      </c>
+      <c r="AN61">
+        <v>2</v>
+      </c>
+      <c r="AO61">
+        <v>1.5</v>
+      </c>
+      <c r="AP61">
+        <v>1.33</v>
+      </c>
+      <c r="AQ61">
+        <v>2</v>
+      </c>
+      <c r="AR61">
+        <v>1.87</v>
+      </c>
+      <c r="AS61">
+        <v>1.86</v>
+      </c>
+      <c r="AT61">
+        <v>3.73</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>7</v>
+      </c>
+      <c r="AW61">
+        <v>16</v>
+      </c>
+      <c r="AX61">
+        <v>10</v>
+      </c>
+      <c r="AY61">
+        <v>26</v>
+      </c>
+      <c r="AZ61">
+        <v>20</v>
+      </c>
+      <c r="BA61">
+        <v>6</v>
+      </c>
+      <c r="BB61">
+        <v>10</v>
+      </c>
+      <c r="BC61">
+        <v>16</v>
+      </c>
+      <c r="BD61">
+        <v>1.52</v>
+      </c>
+      <c r="BE61">
+        <v>9</v>
+      </c>
+      <c r="BF61">
+        <v>3.16</v>
+      </c>
+      <c r="BG61">
+        <v>1.12</v>
+      </c>
+      <c r="BH61">
+        <v>4.7</v>
+      </c>
+      <c r="BI61">
+        <v>1.27</v>
+      </c>
+      <c r="BJ61">
+        <v>3.02</v>
+      </c>
+      <c r="BK61">
+        <v>1.5</v>
+      </c>
+      <c r="BL61">
+        <v>2.3</v>
+      </c>
+      <c r="BM61">
+        <v>1.87</v>
+      </c>
+      <c r="BN61">
+        <v>1.83</v>
+      </c>
+      <c r="BO61">
+        <v>2.4</v>
+      </c>
+      <c r="BP61">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -873,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP61"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1828,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0.33</v>
@@ -4715,7 +4715,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6360,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>0.33</v>
@@ -8629,7 +8629,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>0.79</v>
@@ -10480,7 +10480,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -12131,7 +12131,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ55">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -13443,6 +13443,212 @@
       </c>
       <c r="BP61">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7834374</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45779.89583333334</v>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>73</v>
+      </c>
+      <c r="H62" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62" t="s">
+        <v>93</v>
+      </c>
+      <c r="P62" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q62">
+        <v>2.47</v>
+      </c>
+      <c r="R62">
+        <v>1.92</v>
+      </c>
+      <c r="S62">
+        <v>5.5</v>
+      </c>
+      <c r="T62">
+        <v>1.51</v>
+      </c>
+      <c r="U62">
+        <v>2.5</v>
+      </c>
+      <c r="V62">
+        <v>3.56</v>
+      </c>
+      <c r="W62">
+        <v>1.29</v>
+      </c>
+      <c r="X62">
+        <v>9.6</v>
+      </c>
+      <c r="Y62">
+        <v>1.03</v>
+      </c>
+      <c r="Z62">
+        <v>1.83</v>
+      </c>
+      <c r="AA62">
+        <v>3.29</v>
+      </c>
+      <c r="AB62">
+        <v>5.24</v>
+      </c>
+      <c r="AC62">
+        <v>1.06</v>
+      </c>
+      <c r="AD62">
+        <v>7.45</v>
+      </c>
+      <c r="AE62">
+        <v>1.46</v>
+      </c>
+      <c r="AF62">
+        <v>2.5</v>
+      </c>
+      <c r="AG62">
+        <v>2.45</v>
+      </c>
+      <c r="AH62">
+        <v>1.52</v>
+      </c>
+      <c r="AI62">
+        <v>2.05</v>
+      </c>
+      <c r="AJ62">
+        <v>1.67</v>
+      </c>
+      <c r="AK62">
+        <v>1.3</v>
+      </c>
+      <c r="AL62">
+        <v>1.31</v>
+      </c>
+      <c r="AM62">
+        <v>2</v>
+      </c>
+      <c r="AN62">
+        <v>1.67</v>
+      </c>
+      <c r="AO62">
+        <v>0.67</v>
+      </c>
+      <c r="AP62">
+        <v>1.5</v>
+      </c>
+      <c r="AQ62">
+        <v>0.75</v>
+      </c>
+      <c r="AR62">
+        <v>1.28</v>
+      </c>
+      <c r="AS62">
+        <v>1.13</v>
+      </c>
+      <c r="AT62">
+        <v>2.41</v>
+      </c>
+      <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>2</v>
+      </c>
+      <c r="AW62">
+        <v>10</v>
+      </c>
+      <c r="AX62">
+        <v>16</v>
+      </c>
+      <c r="AY62">
+        <v>18</v>
+      </c>
+      <c r="AZ62">
+        <v>28</v>
+      </c>
+      <c r="BA62">
+        <v>5</v>
+      </c>
+      <c r="BB62">
+        <v>13</v>
+      </c>
+      <c r="BC62">
+        <v>18</v>
+      </c>
+      <c r="BD62">
+        <v>1.44</v>
+      </c>
+      <c r="BE62">
+        <v>9</v>
+      </c>
+      <c r="BF62">
+        <v>3.34</v>
+      </c>
+      <c r="BG62">
+        <v>1.24</v>
+      </c>
+      <c r="BH62">
+        <v>3.6</v>
+      </c>
+      <c r="BI62">
+        <v>1.52</v>
+      </c>
+      <c r="BJ62">
+        <v>2.6</v>
+      </c>
+      <c r="BK62">
+        <v>1.85</v>
+      </c>
+      <c r="BL62">
+        <v>2</v>
+      </c>
+      <c r="BM62">
+        <v>2.1</v>
+      </c>
+      <c r="BN62">
+        <v>1.65</v>
+      </c>
+      <c r="BO62">
+        <v>2.7</v>
+      </c>
+      <c r="BP62">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="171">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,15 @@
     <t>['90+4']</t>
   </si>
   <si>
+    <t>['60', '90+7']</t>
+  </si>
+  <si>
+    <t>['25', '64', '90+4', '90+13']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -512,6 +521,12 @@
   </si>
   <si>
     <t>['63', '83']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['38', '42']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +888,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1419,7 +1434,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1544,7 +1559,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1831,7 +1846,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1956,7 +1971,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2162,7 +2177,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2243,7 +2258,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2449,7 +2464,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2574,7 +2589,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2780,7 +2795,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2858,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ10">
         <v>0.33</v>
@@ -2986,7 +3001,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3270,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3476,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ13">
         <v>0.33</v>
@@ -4016,7 +4031,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4094,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4222,7 +4237,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4428,7 +4443,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5046,7 +5061,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5333,7 +5348,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ22">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR22">
         <v>2.29</v>
@@ -5458,7 +5473,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5870,7 +5885,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5951,7 +5966,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR25">
         <v>1.71</v>
@@ -6154,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6282,7 +6297,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6488,7 +6503,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -6772,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ29">
         <v>0</v>
@@ -6981,7 +6996,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR30">
         <v>0.8</v>
@@ -7106,7 +7121,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7187,7 +7202,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>2.54</v>
@@ -7312,7 +7327,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7390,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7518,7 +7533,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7724,7 +7739,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7930,7 +7945,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8136,7 +8151,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8214,7 +8229,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -9372,7 +9387,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9450,10 +9465,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ42">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -9865,7 +9880,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR44">
         <v>1.34</v>
@@ -9990,7 +10005,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10277,7 +10292,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR46">
         <v>2.97</v>
@@ -10402,7 +10417,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10608,7 +10623,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10814,7 +10829,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -10892,10 +10907,10 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR49">
         <v>1.66</v>
@@ -11304,7 +11319,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ51">
         <v>0.33</v>
@@ -11638,7 +11653,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11716,7 +11731,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -11844,7 +11859,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -13080,7 +13095,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13286,7 +13301,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13649,6 +13664,830 @@
       </c>
       <c r="BP62">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7834371</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45780.77083333334</v>
+      </c>
+      <c r="F63">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>84</v>
+      </c>
+      <c r="H63" t="s">
+        <v>85</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>2</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>139</v>
+      </c>
+      <c r="P63" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q63">
+        <v>2.25</v>
+      </c>
+      <c r="R63">
+        <v>2.05</v>
+      </c>
+      <c r="S63">
+        <v>5.7</v>
+      </c>
+      <c r="T63">
+        <v>1.5</v>
+      </c>
+      <c r="U63">
+        <v>2.5</v>
+      </c>
+      <c r="V63">
+        <v>3.28</v>
+      </c>
+      <c r="W63">
+        <v>1.3</v>
+      </c>
+      <c r="X63">
+        <v>8</v>
+      </c>
+      <c r="Y63">
+        <v>1.04</v>
+      </c>
+      <c r="Z63">
+        <v>1.77</v>
+      </c>
+      <c r="AA63">
+        <v>3.35</v>
+      </c>
+      <c r="AB63">
+        <v>5</v>
+      </c>
+      <c r="AC63">
+        <v>1.08</v>
+      </c>
+      <c r="AD63">
+        <v>7.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.44</v>
+      </c>
+      <c r="AF63">
+        <v>2.7</v>
+      </c>
+      <c r="AG63">
+        <v>2.32</v>
+      </c>
+      <c r="AH63">
+        <v>1.58</v>
+      </c>
+      <c r="AI63">
+        <v>2.15</v>
+      </c>
+      <c r="AJ63">
+        <v>1.65</v>
+      </c>
+      <c r="AK63">
+        <v>1.31</v>
+      </c>
+      <c r="AL63">
+        <v>1.28</v>
+      </c>
+      <c r="AM63">
+        <v>2.05</v>
+      </c>
+      <c r="AN63">
+        <v>2.33</v>
+      </c>
+      <c r="AO63">
+        <v>0.33</v>
+      </c>
+      <c r="AP63">
+        <v>2.5</v>
+      </c>
+      <c r="AQ63">
+        <v>0.25</v>
+      </c>
+      <c r="AR63">
+        <v>1.64</v>
+      </c>
+      <c r="AS63">
+        <v>1.3</v>
+      </c>
+      <c r="AT63">
+        <v>2.94</v>
+      </c>
+      <c r="AU63">
+        <v>9</v>
+      </c>
+      <c r="AV63">
+        <v>6</v>
+      </c>
+      <c r="AW63">
+        <v>12</v>
+      </c>
+      <c r="AX63">
+        <v>6</v>
+      </c>
+      <c r="AY63">
+        <v>26</v>
+      </c>
+      <c r="AZ63">
+        <v>15</v>
+      </c>
+      <c r="BA63">
+        <v>10</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>16</v>
+      </c>
+      <c r="BD63">
+        <v>1.62</v>
+      </c>
+      <c r="BE63">
+        <v>7</v>
+      </c>
+      <c r="BF63">
+        <v>2.8</v>
+      </c>
+      <c r="BG63">
+        <v>1.23</v>
+      </c>
+      <c r="BH63">
+        <v>3.55</v>
+      </c>
+      <c r="BI63">
+        <v>1.43</v>
+      </c>
+      <c r="BJ63">
+        <v>2.6</v>
+      </c>
+      <c r="BK63">
+        <v>1.7</v>
+      </c>
+      <c r="BL63">
+        <v>2.05</v>
+      </c>
+      <c r="BM63">
+        <v>2.1</v>
+      </c>
+      <c r="BN63">
+        <v>1.65</v>
+      </c>
+      <c r="BO63">
+        <v>2.65</v>
+      </c>
+      <c r="BP63">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7834373</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45780.77083333334</v>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>2</v>
+      </c>
+      <c r="N64">
+        <v>6</v>
+      </c>
+      <c r="O64" t="s">
+        <v>140</v>
+      </c>
+      <c r="P64" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q64">
+        <v>2.95</v>
+      </c>
+      <c r="R64">
+        <v>1.95</v>
+      </c>
+      <c r="S64">
+        <v>3.5</v>
+      </c>
+      <c r="T64">
+        <v>1.47</v>
+      </c>
+      <c r="U64">
+        <v>2.45</v>
+      </c>
+      <c r="V64">
+        <v>3.44</v>
+      </c>
+      <c r="W64">
+        <v>1.33</v>
+      </c>
+      <c r="X64">
+        <v>8</v>
+      </c>
+      <c r="Y64">
+        <v>1.06</v>
+      </c>
+      <c r="Z64">
+        <v>2.55</v>
+      </c>
+      <c r="AA64">
+        <v>2.94</v>
+      </c>
+      <c r="AB64">
+        <v>2.97</v>
+      </c>
+      <c r="AC64">
+        <v>1.06</v>
+      </c>
+      <c r="AD64">
+        <v>6.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.44</v>
+      </c>
+      <c r="AF64">
+        <v>2.85</v>
+      </c>
+      <c r="AG64">
+        <v>2.25</v>
+      </c>
+      <c r="AH64">
+        <v>1.57</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.78</v>
+      </c>
+      <c r="AK64">
+        <v>1.4</v>
+      </c>
+      <c r="AL64">
+        <v>1.36</v>
+      </c>
+      <c r="AM64">
+        <v>1.55</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>1</v>
+      </c>
+      <c r="AP64">
+        <v>2.25</v>
+      </c>
+      <c r="AQ64">
+        <v>0.75</v>
+      </c>
+      <c r="AR64">
+        <v>1.36</v>
+      </c>
+      <c r="AS64">
+        <v>1.03</v>
+      </c>
+      <c r="AT64">
+        <v>2.39</v>
+      </c>
+      <c r="AU64">
+        <v>10</v>
+      </c>
+      <c r="AV64">
+        <v>5</v>
+      </c>
+      <c r="AW64">
+        <v>14</v>
+      </c>
+      <c r="AX64">
+        <v>4</v>
+      </c>
+      <c r="AY64">
+        <v>27</v>
+      </c>
+      <c r="AZ64">
+        <v>9</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <v>7</v>
+      </c>
+      <c r="BC64">
+        <v>10</v>
+      </c>
+      <c r="BD64">
+        <v>1.91</v>
+      </c>
+      <c r="BE64">
+        <v>6.75</v>
+      </c>
+      <c r="BF64">
+        <v>2.1</v>
+      </c>
+      <c r="BG64">
+        <v>1.24</v>
+      </c>
+      <c r="BH64">
+        <v>3.55</v>
+      </c>
+      <c r="BI64">
+        <v>1.52</v>
+      </c>
+      <c r="BJ64">
+        <v>2.35</v>
+      </c>
+      <c r="BK64">
+        <v>1.85</v>
+      </c>
+      <c r="BL64">
+        <v>1.85</v>
+      </c>
+      <c r="BM64">
+        <v>2</v>
+      </c>
+      <c r="BN64">
+        <v>1.7</v>
+      </c>
+      <c r="BO64">
+        <v>3.14</v>
+      </c>
+      <c r="BP64">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7834379</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45780.77083333334</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65" t="s">
+        <v>81</v>
+      </c>
+      <c r="H65" t="s">
+        <v>86</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>141</v>
+      </c>
+      <c r="P65" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q65">
+        <v>2.88</v>
+      </c>
+      <c r="R65">
+        <v>1.84</v>
+      </c>
+      <c r="S65">
+        <v>4.4</v>
+      </c>
+      <c r="T65">
+        <v>1.44</v>
+      </c>
+      <c r="U65">
+        <v>2.4</v>
+      </c>
+      <c r="V65">
+        <v>3.6</v>
+      </c>
+      <c r="W65">
+        <v>1.32</v>
+      </c>
+      <c r="X65">
+        <v>9.5</v>
+      </c>
+      <c r="Y65">
+        <v>1.06</v>
+      </c>
+      <c r="Z65">
+        <v>2.29</v>
+      </c>
+      <c r="AA65">
+        <v>2.88</v>
+      </c>
+      <c r="AB65">
+        <v>3.5</v>
+      </c>
+      <c r="AC65">
+        <v>1.06</v>
+      </c>
+      <c r="AD65">
+        <v>6.25</v>
+      </c>
+      <c r="AE65">
+        <v>1.52</v>
+      </c>
+      <c r="AF65">
+        <v>2.62</v>
+      </c>
+      <c r="AG65">
+        <v>2.82</v>
+      </c>
+      <c r="AH65">
+        <v>1.57</v>
+      </c>
+      <c r="AI65">
+        <v>2.1</v>
+      </c>
+      <c r="AJ65">
+        <v>1.68</v>
+      </c>
+      <c r="AK65">
+        <v>1.37</v>
+      </c>
+      <c r="AL65">
+        <v>1.3</v>
+      </c>
+      <c r="AM65">
+        <v>1.54</v>
+      </c>
+      <c r="AN65">
+        <v>2.33</v>
+      </c>
+      <c r="AO65">
+        <v>0.67</v>
+      </c>
+      <c r="AP65">
+        <v>2.5</v>
+      </c>
+      <c r="AQ65">
+        <v>0.5</v>
+      </c>
+      <c r="AR65">
+        <v>1.2</v>
+      </c>
+      <c r="AS65">
+        <v>1.26</v>
+      </c>
+      <c r="AT65">
+        <v>2.46</v>
+      </c>
+      <c r="AU65">
+        <v>9</v>
+      </c>
+      <c r="AV65">
+        <v>4</v>
+      </c>
+      <c r="AW65">
+        <v>10</v>
+      </c>
+      <c r="AX65">
+        <v>9</v>
+      </c>
+      <c r="AY65">
+        <v>23</v>
+      </c>
+      <c r="AZ65">
+        <v>16</v>
+      </c>
+      <c r="BA65">
+        <v>3</v>
+      </c>
+      <c r="BB65">
+        <v>3</v>
+      </c>
+      <c r="BC65">
+        <v>6</v>
+      </c>
+      <c r="BD65">
+        <v>1.62</v>
+      </c>
+      <c r="BE65">
+        <v>8.5</v>
+      </c>
+      <c r="BF65">
+        <v>2.88</v>
+      </c>
+      <c r="BG65">
+        <v>1.27</v>
+      </c>
+      <c r="BH65">
+        <v>3.27</v>
+      </c>
+      <c r="BI65">
+        <v>1.46</v>
+      </c>
+      <c r="BJ65">
+        <v>2.48</v>
+      </c>
+      <c r="BK65">
+        <v>1.83</v>
+      </c>
+      <c r="BL65">
+        <v>1.87</v>
+      </c>
+      <c r="BM65">
+        <v>2.3</v>
+      </c>
+      <c r="BN65">
+        <v>1.55</v>
+      </c>
+      <c r="BO65">
+        <v>2.93</v>
+      </c>
+      <c r="BP65">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7834378</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45780.875</v>
+      </c>
+      <c r="F66">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>128</v>
+      </c>
+      <c r="P66" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q66">
+        <v>2.88</v>
+      </c>
+      <c r="R66">
+        <v>2.05</v>
+      </c>
+      <c r="S66">
+        <v>3.6</v>
+      </c>
+      <c r="T66">
+        <v>1.4</v>
+      </c>
+      <c r="U66">
+        <v>2.5</v>
+      </c>
+      <c r="V66">
+        <v>2.9</v>
+      </c>
+      <c r="W66">
+        <v>1.33</v>
+      </c>
+      <c r="X66">
+        <v>7.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.05</v>
+      </c>
+      <c r="Z66">
+        <v>2.14</v>
+      </c>
+      <c r="AA66">
+        <v>3.25</v>
+      </c>
+      <c r="AB66">
+        <v>3.4</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>8</v>
+      </c>
+      <c r="AE66">
+        <v>1.3</v>
+      </c>
+      <c r="AF66">
+        <v>3</v>
+      </c>
+      <c r="AG66">
+        <v>2.1</v>
+      </c>
+      <c r="AH66">
+        <v>1.67</v>
+      </c>
+      <c r="AI66">
+        <v>1.85</v>
+      </c>
+      <c r="AJ66">
+        <v>1.83</v>
+      </c>
+      <c r="AK66">
+        <v>1.35</v>
+      </c>
+      <c r="AL66">
+        <v>1.32</v>
+      </c>
+      <c r="AM66">
+        <v>1.62</v>
+      </c>
+      <c r="AN66">
+        <v>1.67</v>
+      </c>
+      <c r="AO66">
+        <v>0.33</v>
+      </c>
+      <c r="AP66">
+        <v>2</v>
+      </c>
+      <c r="AQ66">
+        <v>0.25</v>
+      </c>
+      <c r="AR66">
+        <v>1.74</v>
+      </c>
+      <c r="AS66">
+        <v>1.29</v>
+      </c>
+      <c r="AT66">
+        <v>3.03</v>
+      </c>
+      <c r="AU66">
+        <v>3</v>
+      </c>
+      <c r="AV66">
+        <v>5</v>
+      </c>
+      <c r="AW66">
+        <v>7</v>
+      </c>
+      <c r="AX66">
+        <v>12</v>
+      </c>
+      <c r="AY66">
+        <v>12</v>
+      </c>
+      <c r="AZ66">
+        <v>21</v>
+      </c>
+      <c r="BA66">
+        <v>3</v>
+      </c>
+      <c r="BB66">
+        <v>3</v>
+      </c>
+      <c r="BC66">
+        <v>6</v>
+      </c>
+      <c r="BD66">
+        <v>1.63</v>
+      </c>
+      <c r="BE66">
+        <v>9.5</v>
+      </c>
+      <c r="BF66">
+        <v>2.55</v>
+      </c>
+      <c r="BG66">
+        <v>1.23</v>
+      </c>
+      <c r="BH66">
+        <v>3.42</v>
+      </c>
+      <c r="BI66">
+        <v>1.49</v>
+      </c>
+      <c r="BJ66">
+        <v>2.45</v>
+      </c>
+      <c r="BK66">
+        <v>1.82</v>
+      </c>
+      <c r="BL66">
+        <v>1.9</v>
+      </c>
+      <c r="BM66">
+        <v>2.3</v>
+      </c>
+      <c r="BN66">
+        <v>1.55</v>
+      </c>
+      <c r="BO66">
+        <v>3.05</v>
+      </c>
+      <c r="BP66">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="173">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -442,6 +442,9 @@
     <t>['56']</t>
   </si>
   <si>
+    <t>['15', '90+7']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -527,6 +530,9 @@
   </si>
   <si>
     <t>['38', '42']</t>
+  </si>
+  <si>
+    <t>['60']</t>
   </si>
 </sst>
 </file>
@@ -888,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1559,7 +1565,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1637,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
         <v>0.33</v>
@@ -1971,7 +1977,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2177,7 +2183,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2589,7 +2595,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2667,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2795,7 +2801,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3001,7 +3007,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4031,7 +4037,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4237,7 +4243,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4443,7 +4449,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4524,7 +4530,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ18">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5061,7 +5067,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5473,7 +5479,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5885,7 +5891,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -5963,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ25">
         <v>0.25</v>
@@ -6297,7 +6303,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6503,7 +6509,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -6581,10 +6587,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -7121,7 +7127,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7327,7 +7333,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7533,7 +7539,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7739,7 +7745,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7945,7 +7951,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8151,7 +8157,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -9387,7 +9393,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9671,10 +9677,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ43">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR43">
         <v>1.55</v>
@@ -9877,7 +9883,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ44">
         <v>0.75</v>
@@ -10005,7 +10011,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10417,7 +10423,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10623,7 +10629,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10829,7 +10835,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11653,7 +11659,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11859,7 +11865,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -13095,7 +13101,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13301,7 +13307,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13713,7 +13719,7 @@
         <v>139</v>
       </c>
       <c r="P63" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>2.25</v>
@@ -13919,7 +13925,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14488,6 +14494,624 @@
       </c>
       <c r="BP66">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7834372</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45781.66666666666</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>93</v>
+      </c>
+      <c r="P67" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q67">
+        <v>5.7</v>
+      </c>
+      <c r="R67">
+        <v>2.1</v>
+      </c>
+      <c r="S67">
+        <v>2.14</v>
+      </c>
+      <c r="T67">
+        <v>1.43</v>
+      </c>
+      <c r="U67">
+        <v>2.6</v>
+      </c>
+      <c r="V67">
+        <v>3.23</v>
+      </c>
+      <c r="W67">
+        <v>1.33</v>
+      </c>
+      <c r="X67">
+        <v>7.8</v>
+      </c>
+      <c r="Y67">
+        <v>1.06</v>
+      </c>
+      <c r="Z67">
+        <v>5</v>
+      </c>
+      <c r="AA67">
+        <v>3.27</v>
+      </c>
+      <c r="AB67">
+        <v>1.77</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>8.5</v>
+      </c>
+      <c r="AE67">
+        <v>1.38</v>
+      </c>
+      <c r="AF67">
+        <v>3</v>
+      </c>
+      <c r="AG67">
+        <v>2.2</v>
+      </c>
+      <c r="AH67">
+        <v>1.61</v>
+      </c>
+      <c r="AI67">
+        <v>2.18</v>
+      </c>
+      <c r="AJ67">
+        <v>1.63</v>
+      </c>
+      <c r="AK67">
+        <v>2.38</v>
+      </c>
+      <c r="AL67">
+        <v>1.29</v>
+      </c>
+      <c r="AM67">
+        <v>1.13</v>
+      </c>
+      <c r="AN67">
+        <v>2.33</v>
+      </c>
+      <c r="AO67">
+        <v>3</v>
+      </c>
+      <c r="AP67">
+        <v>1.75</v>
+      </c>
+      <c r="AQ67">
+        <v>3</v>
+      </c>
+      <c r="AR67">
+        <v>1.28</v>
+      </c>
+      <c r="AS67">
+        <v>1.14</v>
+      </c>
+      <c r="AT67">
+        <v>2.42</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>4</v>
+      </c>
+      <c r="AW67">
+        <v>7</v>
+      </c>
+      <c r="AX67">
+        <v>14</v>
+      </c>
+      <c r="AY67">
+        <v>15</v>
+      </c>
+      <c r="AZ67">
+        <v>20</v>
+      </c>
+      <c r="BA67">
+        <v>7</v>
+      </c>
+      <c r="BB67">
+        <v>11</v>
+      </c>
+      <c r="BC67">
+        <v>18</v>
+      </c>
+      <c r="BD67">
+        <v>3</v>
+      </c>
+      <c r="BE67">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF67">
+        <v>1.62</v>
+      </c>
+      <c r="BG67">
+        <v>1.24</v>
+      </c>
+      <c r="BH67">
+        <v>3.34</v>
+      </c>
+      <c r="BI67">
+        <v>1.44</v>
+      </c>
+      <c r="BJ67">
+        <v>2.37</v>
+      </c>
+      <c r="BK67">
+        <v>2.11</v>
+      </c>
+      <c r="BL67">
+        <v>1.88</v>
+      </c>
+      <c r="BM67">
+        <v>2.05</v>
+      </c>
+      <c r="BN67">
+        <v>1.7</v>
+      </c>
+      <c r="BO67">
+        <v>3.08</v>
+      </c>
+      <c r="BP67">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7834377</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45781.66666666666</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" t="s">
+        <v>89</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>104</v>
+      </c>
+      <c r="P68" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q68">
+        <v>2.81</v>
+      </c>
+      <c r="R68">
+        <v>1.99</v>
+      </c>
+      <c r="S68">
+        <v>4.2</v>
+      </c>
+      <c r="T68">
+        <v>1.51</v>
+      </c>
+      <c r="U68">
+        <v>2.61</v>
+      </c>
+      <c r="V68">
+        <v>3.3</v>
+      </c>
+      <c r="W68">
+        <v>1.34</v>
+      </c>
+      <c r="X68">
+        <v>7.5</v>
+      </c>
+      <c r="Y68">
+        <v>1.05</v>
+      </c>
+      <c r="Z68">
+        <v>2.4</v>
+      </c>
+      <c r="AA68">
+        <v>3.13</v>
+      </c>
+      <c r="AB68">
+        <v>3</v>
+      </c>
+      <c r="AC68">
+        <v>1.06</v>
+      </c>
+      <c r="AD68">
+        <v>7</v>
+      </c>
+      <c r="AE68">
+        <v>1.41</v>
+      </c>
+      <c r="AF68">
+        <v>2.78</v>
+      </c>
+      <c r="AG68">
+        <v>2.1</v>
+      </c>
+      <c r="AH68">
+        <v>1.67</v>
+      </c>
+      <c r="AI68">
+        <v>2.02</v>
+      </c>
+      <c r="AJ68">
+        <v>1.73</v>
+      </c>
+      <c r="AK68">
+        <v>1.3</v>
+      </c>
+      <c r="AL68">
+        <v>1.34</v>
+      </c>
+      <c r="AM68">
+        <v>1.65</v>
+      </c>
+      <c r="AN68">
+        <v>1.33</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>1.75</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>1.24</v>
+      </c>
+      <c r="AS68">
+        <v>1.2</v>
+      </c>
+      <c r="AT68">
+        <v>2.44</v>
+      </c>
+      <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>4</v>
+      </c>
+      <c r="AX68">
+        <v>12</v>
+      </c>
+      <c r="AY68">
+        <v>9</v>
+      </c>
+      <c r="AZ68">
+        <v>19</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
+        <v>6</v>
+      </c>
+      <c r="BC68">
+        <v>9</v>
+      </c>
+      <c r="BD68">
+        <v>1.75</v>
+      </c>
+      <c r="BE68">
+        <v>8.9</v>
+      </c>
+      <c r="BF68">
+        <v>2.3</v>
+      </c>
+      <c r="BG68">
+        <v>1.2</v>
+      </c>
+      <c r="BH68">
+        <v>3.75</v>
+      </c>
+      <c r="BI68">
+        <v>1.4</v>
+      </c>
+      <c r="BJ68">
+        <v>2.7</v>
+      </c>
+      <c r="BK68">
+        <v>1.88</v>
+      </c>
+      <c r="BL68">
+        <v>2.11</v>
+      </c>
+      <c r="BM68">
+        <v>2.07</v>
+      </c>
+      <c r="BN68">
+        <v>1.7</v>
+      </c>
+      <c r="BO68">
+        <v>2.43</v>
+      </c>
+      <c r="BP68">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7834376</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45781.77083333334</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>74</v>
+      </c>
+      <c r="H69" t="s">
+        <v>75</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>142</v>
+      </c>
+      <c r="P69" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q69">
+        <v>4.4</v>
+      </c>
+      <c r="R69">
+        <v>1.98</v>
+      </c>
+      <c r="S69">
+        <v>2.63</v>
+      </c>
+      <c r="T69">
+        <v>1.5</v>
+      </c>
+      <c r="U69">
+        <v>2.5</v>
+      </c>
+      <c r="V69">
+        <v>3.44</v>
+      </c>
+      <c r="W69">
+        <v>1.35</v>
+      </c>
+      <c r="X69">
+        <v>7.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.05</v>
+      </c>
+      <c r="Z69">
+        <v>4.5</v>
+      </c>
+      <c r="AA69">
+        <v>3.34</v>
+      </c>
+      <c r="AB69">
+        <v>1.92</v>
+      </c>
+      <c r="AC69">
+        <v>1.04</v>
+      </c>
+      <c r="AD69">
+        <v>7.8</v>
+      </c>
+      <c r="AE69">
+        <v>1.38</v>
+      </c>
+      <c r="AF69">
+        <v>2.88</v>
+      </c>
+      <c r="AG69">
+        <v>2.2</v>
+      </c>
+      <c r="AH69">
+        <v>1.64</v>
+      </c>
+      <c r="AI69">
+        <v>2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.75</v>
+      </c>
+      <c r="AK69">
+        <v>1.33</v>
+      </c>
+      <c r="AL69">
+        <v>1.32</v>
+      </c>
+      <c r="AM69">
+        <v>1.22</v>
+      </c>
+      <c r="AN69">
+        <v>3</v>
+      </c>
+      <c r="AO69">
+        <v>2.33</v>
+      </c>
+      <c r="AP69">
+        <v>3</v>
+      </c>
+      <c r="AQ69">
+        <v>1.75</v>
+      </c>
+      <c r="AR69">
+        <v>1.46</v>
+      </c>
+      <c r="AS69">
+        <v>1.85</v>
+      </c>
+      <c r="AT69">
+        <v>3.31</v>
+      </c>
+      <c r="AU69">
+        <v>10</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69">
+        <v>2</v>
+      </c>
+      <c r="AY69">
+        <v>17</v>
+      </c>
+      <c r="AZ69">
+        <v>7</v>
+      </c>
+      <c r="BA69">
+        <v>6</v>
+      </c>
+      <c r="BB69">
+        <v>5</v>
+      </c>
+      <c r="BC69">
+        <v>11</v>
+      </c>
+      <c r="BD69">
+        <v>2.55</v>
+      </c>
+      <c r="BE69">
+        <v>7.2</v>
+      </c>
+      <c r="BF69">
+        <v>1.57</v>
+      </c>
+      <c r="BG69">
+        <v>1.19</v>
+      </c>
+      <c r="BH69">
+        <v>4</v>
+      </c>
+      <c r="BI69">
+        <v>1.34</v>
+      </c>
+      <c r="BJ69">
+        <v>2.9</v>
+      </c>
+      <c r="BK69">
+        <v>1.7</v>
+      </c>
+      <c r="BL69">
+        <v>2.05</v>
+      </c>
+      <c r="BM69">
+        <v>2.1</v>
+      </c>
+      <c r="BN69">
+        <v>1.65</v>
+      </c>
+      <c r="BO69">
+        <v>2.55</v>
+      </c>
+      <c r="BP69">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,7 +352,7 @@
     <t>['32', '41', '83']</t>
   </si>
   <si>
-    <t>['-1']</t>
+    <t>['40']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -445,6 +445,9 @@
     <t>['15', '90+7']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -481,6 +484,9 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -490,9 +496,6 @@
     <t>['47', '65']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
     <t>['21', '45+13']</t>
   </si>
   <si>
@@ -533,6 +536,9 @@
   </si>
   <si>
     <t>['60']</t>
+  </si>
+  <si>
+    <t>['30']</t>
   </si>
 </sst>
 </file>
@@ -894,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1437,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1565,7 +1571,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1646,7 +1652,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1977,7 +1983,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2058,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2183,7 +2189,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2595,7 +2601,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2801,7 +2807,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3007,7 +3013,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3085,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ11">
         <v>0.33</v>
@@ -4037,7 +4043,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4243,7 +4249,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4449,7 +4455,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5067,7 +5073,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5351,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22">
         <v>0.25</v>
@@ -5479,7 +5485,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5557,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
         <v>0.33</v>
@@ -5891,7 +5897,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6067,7 +6073,7 @@
         <v>45760.66666666666</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
         <v>78</v>
@@ -6076,13 +6082,13 @@
         <v>87</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -6097,7 +6103,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6178,7 +6184,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6196,13 +6202,13 @@
         <v>4</v>
       </c>
       <c r="AW26">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AX26">
         <v>2</v>
       </c>
       <c r="AY26">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AZ26">
         <v>6</v>
@@ -6303,7 +6309,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6509,7 +6515,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7127,7 +7133,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7333,7 +7339,7 @@
         <v>116</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>2.9</v>
@@ -7539,7 +7545,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7745,7 +7751,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7951,7 +7957,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8157,7 +8163,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -9062,7 +9068,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ40">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>2.4</v>
@@ -9393,7 +9399,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10011,7 +10017,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10089,10 +10095,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR45">
         <v>1.45</v>
@@ -10423,7 +10429,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10629,7 +10635,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10835,7 +10841,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11119,7 +11125,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
         <v>0.33</v>
@@ -11331,13 +11337,13 @@
         <v>0.33</v>
       </c>
       <c r="AR51">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="AS51">
         <v>1.3</v>
       </c>
       <c r="AT51">
-        <v>3.09</v>
+        <v>2.84</v>
       </c>
       <c r="AU51">
         <v>5</v>
@@ -11659,7 +11665,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11865,7 +11871,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -11946,7 +11952,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ54">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>1.85</v>
@@ -13101,7 +13107,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13307,7 +13313,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13719,7 +13725,7 @@
         <v>139</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q63">
         <v>2.25</v>
@@ -13925,7 +13931,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14421,13 +14427,13 @@
         <v>0.25</v>
       </c>
       <c r="AR66">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="AS66">
         <v>1.29</v>
       </c>
       <c r="AT66">
-        <v>3.03</v>
+        <v>2.86</v>
       </c>
       <c r="AU66">
         <v>3</v>
@@ -14543,7 +14549,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -14955,7 +14961,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15060,7 +15066,7 @@
         <v>2</v>
       </c>
       <c r="AY69">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ69">
         <v>7</v>
@@ -15112,6 +15118,418 @@
       </c>
       <c r="BP69">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7834375</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45782.79166666666</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>79</v>
+      </c>
+      <c r="H70" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>143</v>
+      </c>
+      <c r="P70" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q70">
+        <v>2.4</v>
+      </c>
+      <c r="R70">
+        <v>2.1</v>
+      </c>
+      <c r="S70">
+        <v>4.5</v>
+      </c>
+      <c r="T70">
+        <v>1.36</v>
+      </c>
+      <c r="U70">
+        <v>2.81</v>
+      </c>
+      <c r="V70">
+        <v>3.14</v>
+      </c>
+      <c r="W70">
+        <v>1.38</v>
+      </c>
+      <c r="X70">
+        <v>6.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.07</v>
+      </c>
+      <c r="Z70">
+        <v>1.88</v>
+      </c>
+      <c r="AA70">
+        <v>3.3</v>
+      </c>
+      <c r="AB70">
+        <v>4.64</v>
+      </c>
+      <c r="AC70">
+        <v>1.03</v>
+      </c>
+      <c r="AD70">
+        <v>10.5</v>
+      </c>
+      <c r="AE70">
+        <v>1.33</v>
+      </c>
+      <c r="AF70">
+        <v>3.02</v>
+      </c>
+      <c r="AG70">
+        <v>2.1</v>
+      </c>
+      <c r="AH70">
+        <v>1.76</v>
+      </c>
+      <c r="AI70">
+        <v>1.85</v>
+      </c>
+      <c r="AJ70">
+        <v>1.85</v>
+      </c>
+      <c r="AK70">
+        <v>1.3</v>
+      </c>
+      <c r="AL70">
+        <v>1.3</v>
+      </c>
+      <c r="AM70">
+        <v>1.85</v>
+      </c>
+      <c r="AN70">
+        <v>2.33</v>
+      </c>
+      <c r="AO70">
+        <v>0.67</v>
+      </c>
+      <c r="AP70">
+        <v>2.5</v>
+      </c>
+      <c r="AQ70">
+        <v>0.5</v>
+      </c>
+      <c r="AR70">
+        <v>1.94</v>
+      </c>
+      <c r="AS70">
+        <v>1.71</v>
+      </c>
+      <c r="AT70">
+        <v>3.65</v>
+      </c>
+      <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
+        <v>4</v>
+      </c>
+      <c r="AW70">
+        <v>11</v>
+      </c>
+      <c r="AX70">
+        <v>9</v>
+      </c>
+      <c r="AY70">
+        <v>20</v>
+      </c>
+      <c r="AZ70">
+        <v>16</v>
+      </c>
+      <c r="BA70">
+        <v>4</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>8</v>
+      </c>
+      <c r="BD70">
+        <v>1.55</v>
+      </c>
+      <c r="BE70">
+        <v>10.5</v>
+      </c>
+      <c r="BF70">
+        <v>2.65</v>
+      </c>
+      <c r="BG70">
+        <v>1.19</v>
+      </c>
+      <c r="BH70">
+        <v>4.33</v>
+      </c>
+      <c r="BI70">
+        <v>1.25</v>
+      </c>
+      <c r="BJ70">
+        <v>3.2</v>
+      </c>
+      <c r="BK70">
+        <v>1.5</v>
+      </c>
+      <c r="BL70">
+        <v>2.4</v>
+      </c>
+      <c r="BM70">
+        <v>1.8</v>
+      </c>
+      <c r="BN70">
+        <v>1.83</v>
+      </c>
+      <c r="BO70">
+        <v>2.3</v>
+      </c>
+      <c r="BP70">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7834380</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45782.83333333334</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" t="s">
+        <v>83</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>93</v>
+      </c>
+      <c r="P71" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q71">
+        <v>3.8</v>
+      </c>
+      <c r="R71">
+        <v>1.99</v>
+      </c>
+      <c r="S71">
+        <v>3.02</v>
+      </c>
+      <c r="T71">
+        <v>1.44</v>
+      </c>
+      <c r="U71">
+        <v>2.5</v>
+      </c>
+      <c r="V71">
+        <v>3.28</v>
+      </c>
+      <c r="W71">
+        <v>1.3</v>
+      </c>
+      <c r="X71">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y71">
+        <v>1.06</v>
+      </c>
+      <c r="Z71">
+        <v>3.05</v>
+      </c>
+      <c r="AA71">
+        <v>3.15</v>
+      </c>
+      <c r="AB71">
+        <v>2.4</v>
+      </c>
+      <c r="AC71">
+        <v>1.08</v>
+      </c>
+      <c r="AD71">
+        <v>7.5</v>
+      </c>
+      <c r="AE71">
+        <v>1.4</v>
+      </c>
+      <c r="AF71">
+        <v>2.7</v>
+      </c>
+      <c r="AG71">
+        <v>2.25</v>
+      </c>
+      <c r="AH71">
+        <v>1.62</v>
+      </c>
+      <c r="AI71">
+        <v>1.99</v>
+      </c>
+      <c r="AJ71">
+        <v>1.83</v>
+      </c>
+      <c r="AK71">
+        <v>1.36</v>
+      </c>
+      <c r="AL71">
+        <v>1.33</v>
+      </c>
+      <c r="AM71">
+        <v>1.36</v>
+      </c>
+      <c r="AN71">
+        <v>2.33</v>
+      </c>
+      <c r="AO71">
+        <v>0.33</v>
+      </c>
+      <c r="AP71">
+        <v>1.75</v>
+      </c>
+      <c r="AQ71">
+        <v>1</v>
+      </c>
+      <c r="AR71">
+        <v>1.79</v>
+      </c>
+      <c r="AS71">
+        <v>2.07</v>
+      </c>
+      <c r="AT71">
+        <v>3.86</v>
+      </c>
+      <c r="AU71">
+        <v>6</v>
+      </c>
+      <c r="AV71">
+        <v>10</v>
+      </c>
+      <c r="AW71">
+        <v>9</v>
+      </c>
+      <c r="AX71">
+        <v>22</v>
+      </c>
+      <c r="AY71">
+        <v>19</v>
+      </c>
+      <c r="AZ71">
+        <v>47</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>8</v>
+      </c>
+      <c r="BD71">
+        <v>2.4</v>
+      </c>
+      <c r="BE71">
+        <v>6.75</v>
+      </c>
+      <c r="BF71">
+        <v>1.8</v>
+      </c>
+      <c r="BG71">
+        <v>1.25</v>
+      </c>
+      <c r="BH71">
+        <v>3.58</v>
+      </c>
+      <c r="BI71">
+        <v>1.44</v>
+      </c>
+      <c r="BJ71">
+        <v>2.5</v>
+      </c>
+      <c r="BK71">
+        <v>1.75</v>
+      </c>
+      <c r="BL71">
+        <v>1.97</v>
+      </c>
+      <c r="BM71">
+        <v>2.1</v>
+      </c>
+      <c r="BN71">
+        <v>1.65</v>
+      </c>
+      <c r="BO71">
+        <v>2.7</v>
+      </c>
+      <c r="BP71">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -446,6 +446,9 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['3', '63', '82', '86', '89']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -900,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1237,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1571,7 +1574,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1983,7 +1986,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2189,7 +2192,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2601,7 +2604,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2807,7 +2810,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3013,7 +3016,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4043,7 +4046,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4249,7 +4252,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4455,7 +4458,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5073,7 +5076,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5485,7 +5488,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5897,7 +5900,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6103,7 +6106,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6309,7 +6312,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6515,7 +6518,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7005,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>0.75</v>
@@ -7133,7 +7136,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7545,7 +7548,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7751,7 +7754,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7957,7 +7960,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8163,7 +8166,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -9399,7 +9402,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10017,7 +10020,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10429,7 +10432,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10635,7 +10638,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10713,7 +10716,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ48">
         <v>3</v>
@@ -10841,7 +10844,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11665,7 +11668,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11871,7 +11874,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -13107,7 +13110,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13313,7 +13316,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13725,7 +13728,7 @@
         <v>139</v>
       </c>
       <c r="P63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q63">
         <v>2.25</v>
@@ -13931,7 +13934,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14549,7 +14552,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -14961,7 +14964,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15373,7 +15376,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15530,6 +15533,212 @@
       </c>
       <c r="BP71">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7834389</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45787.66666666666</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H72" t="s">
+        <v>71</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>5</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>5</v>
+      </c>
+      <c r="O72" t="s">
+        <v>144</v>
+      </c>
+      <c r="P72" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q72">
+        <v>2.25</v>
+      </c>
+      <c r="R72">
+        <v>2.15</v>
+      </c>
+      <c r="S72">
+        <v>5.25</v>
+      </c>
+      <c r="T72">
+        <v>1.4</v>
+      </c>
+      <c r="U72">
+        <v>2.75</v>
+      </c>
+      <c r="V72">
+        <v>2.9</v>
+      </c>
+      <c r="W72">
+        <v>1.37</v>
+      </c>
+      <c r="X72">
+        <v>7</v>
+      </c>
+      <c r="Y72">
+        <v>1.07</v>
+      </c>
+      <c r="Z72">
+        <v>1.63</v>
+      </c>
+      <c r="AA72">
+        <v>3.65</v>
+      </c>
+      <c r="AB72">
+        <v>4.85</v>
+      </c>
+      <c r="AC72">
+        <v>1.06</v>
+      </c>
+      <c r="AD72">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE72">
+        <v>1.33</v>
+      </c>
+      <c r="AF72">
+        <v>3</v>
+      </c>
+      <c r="AG72">
+        <v>2.03</v>
+      </c>
+      <c r="AH72">
+        <v>1.7</v>
+      </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
+      <c r="AJ72">
+        <v>1.73</v>
+      </c>
+      <c r="AK72">
+        <v>1.09</v>
+      </c>
+      <c r="AL72">
+        <v>1.27</v>
+      </c>
+      <c r="AM72">
+        <v>2.31</v>
+      </c>
+      <c r="AN72">
+        <v>1.33</v>
+      </c>
+      <c r="AO72">
+        <v>0</v>
+      </c>
+      <c r="AP72">
+        <v>1.75</v>
+      </c>
+      <c r="AQ72">
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <v>1.24</v>
+      </c>
+      <c r="AS72">
+        <v>0.89</v>
+      </c>
+      <c r="AT72">
+        <v>2.13</v>
+      </c>
+      <c r="AU72">
+        <v>14</v>
+      </c>
+      <c r="AV72">
+        <v>2</v>
+      </c>
+      <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
+        <v>3</v>
+      </c>
+      <c r="AY72">
+        <v>23</v>
+      </c>
+      <c r="AZ72">
+        <v>6</v>
+      </c>
+      <c r="BA72">
+        <v>5</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>9</v>
+      </c>
+      <c r="BD72">
+        <v>1.41</v>
+      </c>
+      <c r="BE72">
+        <v>7.5</v>
+      </c>
+      <c r="BF72">
+        <v>3.2</v>
+      </c>
+      <c r="BG72">
+        <v>1.16</v>
+      </c>
+      <c r="BH72">
+        <v>4.4</v>
+      </c>
+      <c r="BI72">
+        <v>1.44</v>
+      </c>
+      <c r="BJ72">
+        <v>2.95</v>
+      </c>
+      <c r="BK72">
+        <v>1.79</v>
+      </c>
+      <c r="BL72">
+        <v>2.19</v>
+      </c>
+      <c r="BM72">
+        <v>2.08</v>
+      </c>
+      <c r="BN72">
+        <v>1.7</v>
+      </c>
+      <c r="BO72">
+        <v>2.5</v>
+      </c>
+      <c r="BP72">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -451,6 +451,15 @@
     <t>['3', '63', '82', '86', '89']</t>
   </si>
   <si>
+    <t>['50', '65']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['60', '90']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -542,6 +551,15 @@
   </si>
   <si>
     <t>['30']</t>
+  </si>
+  <si>
+    <t>['45+7']</t>
+  </si>
+  <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['42']</t>
   </si>
 </sst>
 </file>
@@ -903,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP72"/>
+  <dimension ref="A1:BP75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1574,7 +1592,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1652,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1986,7 +2004,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2192,7 +2210,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2604,7 +2622,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2810,7 +2828,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2891,7 +2909,7 @@
         <v>2</v>
       </c>
       <c r="AQ10">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3016,7 +3034,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4046,7 +4064,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4127,7 +4145,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4252,7 +4270,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4458,7 +4476,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4536,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
         <v>1.75</v>
@@ -4742,7 +4760,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>0.75</v>
@@ -5076,7 +5094,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5488,7 +5506,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5775,7 +5793,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -5900,7 +5918,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6106,7 +6124,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6312,7 +6330,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6518,7 +6536,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -6596,7 +6614,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ28">
         <v>1.75</v>
@@ -7136,7 +7154,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7548,7 +7566,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7754,7 +7772,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7835,7 +7853,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.15</v>
@@ -7960,7 +7978,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8038,7 +8056,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>0.33</v>
@@ -8166,7 +8184,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8656,7 +8674,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -9402,7 +9420,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9892,7 +9910,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ44">
         <v>0.75</v>
@@ -10020,7 +10038,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10432,7 +10450,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10638,7 +10656,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10844,7 +10862,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11668,7 +11686,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11874,7 +11892,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -11952,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -12573,7 +12591,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ57">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR57">
         <v>2.08</v>
@@ -13110,7 +13128,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13188,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60">
         <v>0.33</v>
@@ -13316,7 +13334,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13397,7 +13415,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -13728,7 +13746,7 @@
         <v>139</v>
       </c>
       <c r="P63" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>2.25</v>
@@ -13934,7 +13952,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14552,7 +14570,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -14836,7 +14854,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ68">
         <v>0</v>
@@ -14964,7 +14982,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15376,7 +15394,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15739,6 +15757,624 @@
       </c>
       <c r="BP72">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7834385</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45787.77083333334</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+      <c r="G73" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s">
+        <v>80</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" t="s">
+        <v>145</v>
+      </c>
+      <c r="P73" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q73">
+        <v>3.68</v>
+      </c>
+      <c r="R73">
+        <v>1.98</v>
+      </c>
+      <c r="S73">
+        <v>3.1</v>
+      </c>
+      <c r="T73">
+        <v>1.46</v>
+      </c>
+      <c r="U73">
+        <v>2.79</v>
+      </c>
+      <c r="V73">
+        <v>3.31</v>
+      </c>
+      <c r="W73">
+        <v>1.35</v>
+      </c>
+      <c r="X73">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y73">
+        <v>1.06</v>
+      </c>
+      <c r="Z73">
+        <v>2.87</v>
+      </c>
+      <c r="AA73">
+        <v>3.1</v>
+      </c>
+      <c r="AB73">
+        <v>2.43</v>
+      </c>
+      <c r="AC73">
+        <v>1.05</v>
+      </c>
+      <c r="AD73">
+        <v>9.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.35</v>
+      </c>
+      <c r="AF73">
+        <v>2.88</v>
+      </c>
+      <c r="AG73">
+        <v>2.2</v>
+      </c>
+      <c r="AH73">
+        <v>1.72</v>
+      </c>
+      <c r="AI73">
+        <v>1.85</v>
+      </c>
+      <c r="AJ73">
+        <v>1.85</v>
+      </c>
+      <c r="AK73">
+        <v>1.54</v>
+      </c>
+      <c r="AL73">
+        <v>1.33</v>
+      </c>
+      <c r="AM73">
+        <v>1.4</v>
+      </c>
+      <c r="AN73">
+        <v>1.67</v>
+      </c>
+      <c r="AO73">
+        <v>0.33</v>
+      </c>
+      <c r="AP73">
+        <v>2</v>
+      </c>
+      <c r="AQ73">
+        <v>0.25</v>
+      </c>
+      <c r="AR73">
+        <v>1.93</v>
+      </c>
+      <c r="AS73">
+        <v>1.12</v>
+      </c>
+      <c r="AT73">
+        <v>3.05</v>
+      </c>
+      <c r="AU73">
+        <v>6</v>
+      </c>
+      <c r="AV73">
+        <v>4</v>
+      </c>
+      <c r="AW73">
+        <v>8</v>
+      </c>
+      <c r="AX73">
+        <v>7</v>
+      </c>
+      <c r="AY73">
+        <v>16</v>
+      </c>
+      <c r="AZ73">
+        <v>15</v>
+      </c>
+      <c r="BA73">
+        <v>4</v>
+      </c>
+      <c r="BB73">
+        <v>5</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>1.83</v>
+      </c>
+      <c r="BE73">
+        <v>6.85</v>
+      </c>
+      <c r="BF73">
+        <v>2.33</v>
+      </c>
+      <c r="BG73">
+        <v>1.09</v>
+      </c>
+      <c r="BH73">
+        <v>4.5</v>
+      </c>
+      <c r="BI73">
+        <v>1.19</v>
+      </c>
+      <c r="BJ73">
+        <v>3.2</v>
+      </c>
+      <c r="BK73">
+        <v>1.51</v>
+      </c>
+      <c r="BL73">
+        <v>2.55</v>
+      </c>
+      <c r="BM73">
+        <v>1.76</v>
+      </c>
+      <c r="BN73">
+        <v>2.05</v>
+      </c>
+      <c r="BO73">
+        <v>2.26</v>
+      </c>
+      <c r="BP73">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7834387</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45787.77083333334</v>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>79</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>146</v>
+      </c>
+      <c r="P74" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q74">
+        <v>3.37</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>3.62</v>
+      </c>
+      <c r="T74">
+        <v>1.42</v>
+      </c>
+      <c r="U74">
+        <v>2.65</v>
+      </c>
+      <c r="V74">
+        <v>3</v>
+      </c>
+      <c r="W74">
+        <v>1.35</v>
+      </c>
+      <c r="X74">
+        <v>7.75</v>
+      </c>
+      <c r="Y74">
+        <v>1.06</v>
+      </c>
+      <c r="Z74">
+        <v>2.6</v>
+      </c>
+      <c r="AA74">
+        <v>3.2</v>
+      </c>
+      <c r="AB74">
+        <v>2.93</v>
+      </c>
+      <c r="AC74">
+        <v>1.02</v>
+      </c>
+      <c r="AD74">
+        <v>8</v>
+      </c>
+      <c r="AE74">
+        <v>1.36</v>
+      </c>
+      <c r="AF74">
+        <v>2.9</v>
+      </c>
+      <c r="AG74">
+        <v>2.29</v>
+      </c>
+      <c r="AH74">
+        <v>1.67</v>
+      </c>
+      <c r="AI74">
+        <v>1.86</v>
+      </c>
+      <c r="AJ74">
+        <v>1.91</v>
+      </c>
+      <c r="AK74">
+        <v>1.38</v>
+      </c>
+      <c r="AL74">
+        <v>1.31</v>
+      </c>
+      <c r="AM74">
+        <v>1.53</v>
+      </c>
+      <c r="AN74">
+        <v>1.75</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AP74">
+        <v>1.6</v>
+      </c>
+      <c r="AQ74">
+        <v>1.75</v>
+      </c>
+      <c r="AR74">
+        <v>1.19</v>
+      </c>
+      <c r="AS74">
+        <v>1.84</v>
+      </c>
+      <c r="AT74">
+        <v>3.03</v>
+      </c>
+      <c r="AU74">
+        <v>4</v>
+      </c>
+      <c r="AV74">
+        <v>4</v>
+      </c>
+      <c r="AW74">
+        <v>13</v>
+      </c>
+      <c r="AX74">
+        <v>8</v>
+      </c>
+      <c r="AY74">
+        <v>17</v>
+      </c>
+      <c r="AZ74">
+        <v>12</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>10</v>
+      </c>
+      <c r="BD74">
+        <v>1.68</v>
+      </c>
+      <c r="BE74">
+        <v>7</v>
+      </c>
+      <c r="BF74">
+        <v>2.35</v>
+      </c>
+      <c r="BG74">
+        <v>1.18</v>
+      </c>
+      <c r="BH74">
+        <v>4.5</v>
+      </c>
+      <c r="BI74">
+        <v>1.25</v>
+      </c>
+      <c r="BJ74">
+        <v>3.2</v>
+      </c>
+      <c r="BK74">
+        <v>1.47</v>
+      </c>
+      <c r="BL74">
+        <v>2.3</v>
+      </c>
+      <c r="BM74">
+        <v>1.8</v>
+      </c>
+      <c r="BN74">
+        <v>1.85</v>
+      </c>
+      <c r="BO74">
+        <v>2.3</v>
+      </c>
+      <c r="BP74">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7834388</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45787.77083333334</v>
+      </c>
+      <c r="F75">
+        <v>8</v>
+      </c>
+      <c r="G75" t="s">
+        <v>86</v>
+      </c>
+      <c r="H75" t="s">
+        <v>77</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>147</v>
+      </c>
+      <c r="P75" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q75">
+        <v>2.75</v>
+      </c>
+      <c r="R75">
+        <v>1.95</v>
+      </c>
+      <c r="S75">
+        <v>4</v>
+      </c>
+      <c r="T75">
+        <v>1.5</v>
+      </c>
+      <c r="U75">
+        <v>2.45</v>
+      </c>
+      <c r="V75">
+        <v>3.35</v>
+      </c>
+      <c r="W75">
+        <v>1.32</v>
+      </c>
+      <c r="X75">
+        <v>9</v>
+      </c>
+      <c r="Y75">
+        <v>1.04</v>
+      </c>
+      <c r="Z75">
+        <v>2.14</v>
+      </c>
+      <c r="AA75">
+        <v>3.15</v>
+      </c>
+      <c r="AB75">
+        <v>3.6</v>
+      </c>
+      <c r="AC75">
+        <v>1.1</v>
+      </c>
+      <c r="AD75">
+        <v>7</v>
+      </c>
+      <c r="AE75">
+        <v>1.4</v>
+      </c>
+      <c r="AF75">
+        <v>2.7</v>
+      </c>
+      <c r="AG75">
+        <v>2.3</v>
+      </c>
+      <c r="AH75">
+        <v>1.6</v>
+      </c>
+      <c r="AI75">
+        <v>2.05</v>
+      </c>
+      <c r="AJ75">
+        <v>1.7</v>
+      </c>
+      <c r="AK75">
+        <v>1.33</v>
+      </c>
+      <c r="AL75">
+        <v>1.33</v>
+      </c>
+      <c r="AM75">
+        <v>1.7</v>
+      </c>
+      <c r="AN75">
+        <v>1.33</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>1.75</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>1.47</v>
+      </c>
+      <c r="AS75">
+        <v>1.5</v>
+      </c>
+      <c r="AT75">
+        <v>2.97</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>6</v>
+      </c>
+      <c r="AW75">
+        <v>8</v>
+      </c>
+      <c r="AX75">
+        <v>12</v>
+      </c>
+      <c r="AY75">
+        <v>13</v>
+      </c>
+      <c r="AZ75">
+        <v>18</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>3</v>
+      </c>
+      <c r="BC75">
+        <v>9</v>
+      </c>
+      <c r="BD75">
+        <v>1.54</v>
+      </c>
+      <c r="BE75">
+        <v>6.75</v>
+      </c>
+      <c r="BF75">
+        <v>2.7</v>
+      </c>
+      <c r="BG75">
+        <v>1.29</v>
+      </c>
+      <c r="BH75">
+        <v>3.42</v>
+      </c>
+      <c r="BI75">
+        <v>1.49</v>
+      </c>
+      <c r="BJ75">
+        <v>2.57</v>
+      </c>
+      <c r="BK75">
+        <v>1.78</v>
+      </c>
+      <c r="BL75">
+        <v>1.97</v>
+      </c>
+      <c r="BM75">
+        <v>2.23</v>
+      </c>
+      <c r="BN75">
+        <v>1.61</v>
+      </c>
+      <c r="BO75">
+        <v>2.82</v>
+      </c>
+      <c r="BP75">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="183">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -458,6 +458,9 @@
   </si>
   <si>
     <t>['60', '90']</t>
+  </si>
+  <si>
+    <t>['8']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -921,7 +924,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP75"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1592,7 +1595,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2004,7 +2007,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2210,7 +2213,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2288,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7">
         <v>0.75</v>
@@ -2622,7 +2625,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2828,7 +2831,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3034,7 +3037,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4064,7 +4067,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4270,7 +4273,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4476,7 +4479,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5094,7 +5097,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5175,7 +5178,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5506,7 +5509,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5918,7 +5921,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6124,7 +6127,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6330,7 +6333,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6536,7 +6539,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7154,7 +7157,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7566,7 +7569,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7772,7 +7775,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7978,7 +7981,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8184,7 +8187,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8880,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9295,7 +9298,7 @@
         <v>3</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>0.97</v>
@@ -9420,7 +9423,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10038,7 +10041,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10450,7 +10453,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10656,7 +10659,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10862,7 +10865,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11686,7 +11689,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11892,7 +11895,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -12588,7 +12591,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ57">
         <v>0.25</v>
@@ -12797,7 +12800,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13128,7 +13131,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13334,7 +13337,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13746,7 +13749,7 @@
         <v>139</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q63">
         <v>2.25</v>
@@ -13952,7 +13955,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14570,7 +14573,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -14982,7 +14985,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15394,7 +15397,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15806,7 +15809,7 @@
         <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q73">
         <v>3.68</v>
@@ -16012,7 +16015,7 @@
         <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q74">
         <v>3.37</v>
@@ -16218,7 +16221,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q75">
         <v>2.75</v>
@@ -16375,6 +16378,212 @@
       </c>
       <c r="BP75">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7834381</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45787.875</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+      <c r="G76" t="s">
+        <v>75</v>
+      </c>
+      <c r="H76" t="s">
+        <v>78</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>148</v>
+      </c>
+      <c r="P76" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q76">
+        <v>1.85</v>
+      </c>
+      <c r="R76">
+        <v>2.4</v>
+      </c>
+      <c r="S76">
+        <v>6.5</v>
+      </c>
+      <c r="T76">
+        <v>1.36</v>
+      </c>
+      <c r="U76">
+        <v>2.87</v>
+      </c>
+      <c r="V76">
+        <v>2.86</v>
+      </c>
+      <c r="W76">
+        <v>1.46</v>
+      </c>
+      <c r="X76">
+        <v>6.2</v>
+      </c>
+      <c r="Y76">
+        <v>1.09</v>
+      </c>
+      <c r="Z76">
+        <v>1.35</v>
+      </c>
+      <c r="AA76">
+        <v>4.5</v>
+      </c>
+      <c r="AB76">
+        <v>7.4</v>
+      </c>
+      <c r="AC76">
+        <v>1.02</v>
+      </c>
+      <c r="AD76">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE76">
+        <v>1.25</v>
+      </c>
+      <c r="AF76">
+        <v>3.6</v>
+      </c>
+      <c r="AG76">
+        <v>1.85</v>
+      </c>
+      <c r="AH76">
+        <v>1.98</v>
+      </c>
+      <c r="AI76">
+        <v>2.17</v>
+      </c>
+      <c r="AJ76">
+        <v>1.58</v>
+      </c>
+      <c r="AK76">
+        <v>1.05</v>
+      </c>
+      <c r="AL76">
+        <v>1.2</v>
+      </c>
+      <c r="AM76">
+        <v>2.8</v>
+      </c>
+      <c r="AN76">
+        <v>2.33</v>
+      </c>
+      <c r="AO76">
+        <v>1.33</v>
+      </c>
+      <c r="AP76">
+        <v>2.5</v>
+      </c>
+      <c r="AQ76">
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <v>2.03</v>
+      </c>
+      <c r="AS76">
+        <v>1.23</v>
+      </c>
+      <c r="AT76">
+        <v>3.26</v>
+      </c>
+      <c r="AU76">
+        <v>4</v>
+      </c>
+      <c r="AV76">
+        <v>3</v>
+      </c>
+      <c r="AW76">
+        <v>11</v>
+      </c>
+      <c r="AX76">
+        <v>4</v>
+      </c>
+      <c r="AY76">
+        <v>22</v>
+      </c>
+      <c r="AZ76">
+        <v>8</v>
+      </c>
+      <c r="BA76">
+        <v>8</v>
+      </c>
+      <c r="BB76">
+        <v>2</v>
+      </c>
+      <c r="BC76">
+        <v>10</v>
+      </c>
+      <c r="BD76">
+        <v>1.26</v>
+      </c>
+      <c r="BE76">
+        <v>8</v>
+      </c>
+      <c r="BF76">
+        <v>4.2</v>
+      </c>
+      <c r="BG76">
+        <v>1.23</v>
+      </c>
+      <c r="BH76">
+        <v>3.6</v>
+      </c>
+      <c r="BI76">
+        <v>1.44</v>
+      </c>
+      <c r="BJ76">
+        <v>2.5</v>
+      </c>
+      <c r="BK76">
+        <v>1.77</v>
+      </c>
+      <c r="BL76">
+        <v>1.87</v>
+      </c>
+      <c r="BM76">
+        <v>2.3</v>
+      </c>
+      <c r="BN76">
+        <v>1.51</v>
+      </c>
+      <c r="BO76">
+        <v>3.2</v>
+      </c>
+      <c r="BP76">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -16120,10 +16120,10 @@
         <v>8</v>
       </c>
       <c r="AY74">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ74">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA74">
         <v>6</v>
@@ -16326,10 +16326,10 @@
         <v>12</v>
       </c>
       <c r="AY75">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ75">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BA75">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,12 @@
     <t>['8']</t>
   </si>
   <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['77', '84', '90+4']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -563,6 +569,12 @@
   </si>
   <si>
     <t>['42']</t>
+  </si>
+  <si>
+    <t>['8', '18', '45+1', '53']</t>
+  </si>
+  <si>
+    <t>['56', '88']</t>
   </si>
 </sst>
 </file>
@@ -924,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1264,7 +1276,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1595,7 +1607,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2007,7 +2019,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2213,7 +2225,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2497,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>0.25</v>
@@ -2625,7 +2637,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2831,7 +2843,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3037,7 +3049,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3939,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4067,7 +4079,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4273,7 +4285,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4351,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4479,7 +4491,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4972,7 +4984,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5097,7 +5109,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5509,7 +5521,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5793,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
         <v>0.25</v>
@@ -5921,7 +5933,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6127,7 +6139,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6333,7 +6345,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6414,7 +6426,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6539,7 +6551,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7157,7 +7169,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7235,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.5</v>
@@ -7569,7 +7581,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7650,7 +7662,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>1.9</v>
@@ -7775,7 +7787,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7853,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -7981,7 +7993,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8187,7 +8199,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8268,7 +8280,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR36">
         <v>0.99</v>
@@ -9423,7 +9435,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10041,7 +10053,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10325,7 +10337,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0.25</v>
@@ -10453,7 +10465,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10659,7 +10671,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10865,7 +10877,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11152,7 +11164,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ50">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.82</v>
@@ -11689,7 +11701,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11770,7 +11782,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR53">
         <v>1.35</v>
@@ -11895,7 +11907,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -12179,7 +12191,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -12388,7 +12400,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
         <v>2.27</v>
@@ -12797,7 +12809,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
         <v>1</v>
@@ -13131,7 +13143,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13337,7 +13349,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13749,7 +13761,7 @@
         <v>139</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>2.25</v>
@@ -13955,7 +13967,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14573,7 +14585,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -14985,7 +14997,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15397,7 +15409,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15809,7 +15821,7 @@
         <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q73">
         <v>3.68</v>
@@ -16015,7 +16027,7 @@
         <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>3.37</v>
@@ -16221,7 +16233,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q75">
         <v>2.75</v>
@@ -16584,6 +16596,624 @@
       </c>
       <c r="BP76">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7834390</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45788.66666666666</v>
+      </c>
+      <c r="F77">
+        <v>8</v>
+      </c>
+      <c r="G77" t="s">
+        <v>85</v>
+      </c>
+      <c r="H77" t="s">
+        <v>74</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>4</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>93</v>
+      </c>
+      <c r="P77" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q77">
+        <v>3</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>3.55</v>
+      </c>
+      <c r="T77">
+        <v>1.55</v>
+      </c>
+      <c r="U77">
+        <v>2.37</v>
+      </c>
+      <c r="V77">
+        <v>3.5</v>
+      </c>
+      <c r="W77">
+        <v>1.29</v>
+      </c>
+      <c r="X77">
+        <v>8</v>
+      </c>
+      <c r="Y77">
+        <v>1.01</v>
+      </c>
+      <c r="Z77">
+        <v>2.23</v>
+      </c>
+      <c r="AA77">
+        <v>2.93</v>
+      </c>
+      <c r="AB77">
+        <v>3.02</v>
+      </c>
+      <c r="AC77">
+        <v>1.06</v>
+      </c>
+      <c r="AD77">
+        <v>6</v>
+      </c>
+      <c r="AE77">
+        <v>1.5</v>
+      </c>
+      <c r="AF77">
+        <v>2.45</v>
+      </c>
+      <c r="AG77">
+        <v>2.45</v>
+      </c>
+      <c r="AH77">
+        <v>1.5</v>
+      </c>
+      <c r="AI77">
+        <v>2.1</v>
+      </c>
+      <c r="AJ77">
+        <v>1.65</v>
+      </c>
+      <c r="AK77">
+        <v>1.36</v>
+      </c>
+      <c r="AL77">
+        <v>1.35</v>
+      </c>
+      <c r="AM77">
+        <v>1.44</v>
+      </c>
+      <c r="AN77">
+        <v>0.33</v>
+      </c>
+      <c r="AO77">
+        <v>0.33</v>
+      </c>
+      <c r="AP77">
+        <v>0.25</v>
+      </c>
+      <c r="AQ77">
+        <v>1</v>
+      </c>
+      <c r="AR77">
+        <v>1.89</v>
+      </c>
+      <c r="AS77">
+        <v>1.24</v>
+      </c>
+      <c r="AT77">
+        <v>3.13</v>
+      </c>
+      <c r="AU77">
+        <v>5</v>
+      </c>
+      <c r="AV77">
+        <v>7</v>
+      </c>
+      <c r="AW77">
+        <v>7</v>
+      </c>
+      <c r="AX77">
+        <v>11</v>
+      </c>
+      <c r="AY77">
+        <v>12</v>
+      </c>
+      <c r="AZ77">
+        <v>18</v>
+      </c>
+      <c r="BA77">
+        <v>7</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>11</v>
+      </c>
+      <c r="BD77">
+        <v>1.79</v>
+      </c>
+      <c r="BE77">
+        <v>8.5</v>
+      </c>
+      <c r="BF77">
+        <v>2.2</v>
+      </c>
+      <c r="BG77">
+        <v>1.24</v>
+      </c>
+      <c r="BH77">
+        <v>3.48</v>
+      </c>
+      <c r="BI77">
+        <v>1.44</v>
+      </c>
+      <c r="BJ77">
+        <v>2.65</v>
+      </c>
+      <c r="BK77">
+        <v>1.71</v>
+      </c>
+      <c r="BL77">
+        <v>2</v>
+      </c>
+      <c r="BM77">
+        <v>2.15</v>
+      </c>
+      <c r="BN77">
+        <v>1.62</v>
+      </c>
+      <c r="BO77">
+        <v>2.77</v>
+      </c>
+      <c r="BP77">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7834383</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45788.72916666666</v>
+      </c>
+      <c r="F78">
+        <v>8</v>
+      </c>
+      <c r="G78" t="s">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>73</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+      <c r="O78" t="s">
+        <v>149</v>
+      </c>
+      <c r="P78" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q78">
+        <v>2.55</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
+      </c>
+      <c r="S78">
+        <v>6.17</v>
+      </c>
+      <c r="T78">
+        <v>1.51</v>
+      </c>
+      <c r="U78">
+        <v>2.4</v>
+      </c>
+      <c r="V78">
+        <v>3.5</v>
+      </c>
+      <c r="W78">
+        <v>1.29</v>
+      </c>
+      <c r="X78">
+        <v>9</v>
+      </c>
+      <c r="Y78">
+        <v>1.03</v>
+      </c>
+      <c r="Z78">
+        <v>1.61</v>
+      </c>
+      <c r="AA78">
+        <v>3.27</v>
+      </c>
+      <c r="AB78">
+        <v>5.2</v>
+      </c>
+      <c r="AC78">
+        <v>1.09</v>
+      </c>
+      <c r="AD78">
+        <v>6.5</v>
+      </c>
+      <c r="AE78">
+        <v>1.53</v>
+      </c>
+      <c r="AF78">
+        <v>2.37</v>
+      </c>
+      <c r="AG78">
+        <v>2.31</v>
+      </c>
+      <c r="AH78">
+        <v>1.51</v>
+      </c>
+      <c r="AI78">
+        <v>2.3</v>
+      </c>
+      <c r="AJ78">
+        <v>1.55</v>
+      </c>
+      <c r="AK78">
+        <v>1.16</v>
+      </c>
+      <c r="AL78">
+        <v>1.29</v>
+      </c>
+      <c r="AM78">
+        <v>2</v>
+      </c>
+      <c r="AN78">
+        <v>1.33</v>
+      </c>
+      <c r="AO78">
+        <v>1</v>
+      </c>
+      <c r="AP78">
+        <v>1.75</v>
+      </c>
+      <c r="AQ78">
+        <v>0.75</v>
+      </c>
+      <c r="AR78">
+        <v>1.7</v>
+      </c>
+      <c r="AS78">
+        <v>1.47</v>
+      </c>
+      <c r="AT78">
+        <v>3.17</v>
+      </c>
+      <c r="AU78">
+        <v>5</v>
+      </c>
+      <c r="AV78">
+        <v>3</v>
+      </c>
+      <c r="AW78">
+        <v>13</v>
+      </c>
+      <c r="AX78">
+        <v>2</v>
+      </c>
+      <c r="AY78">
+        <v>20</v>
+      </c>
+      <c r="AZ78">
+        <v>5</v>
+      </c>
+      <c r="BA78">
+        <v>10</v>
+      </c>
+      <c r="BB78">
+        <v>1</v>
+      </c>
+      <c r="BC78">
+        <v>11</v>
+      </c>
+      <c r="BD78">
+        <v>1.33</v>
+      </c>
+      <c r="BE78">
+        <v>10.5</v>
+      </c>
+      <c r="BF78">
+        <v>3.15</v>
+      </c>
+      <c r="BG78">
+        <v>1.23</v>
+      </c>
+      <c r="BH78">
+        <v>3.6</v>
+      </c>
+      <c r="BI78">
+        <v>1.42</v>
+      </c>
+      <c r="BJ78">
+        <v>2.62</v>
+      </c>
+      <c r="BK78">
+        <v>1.7</v>
+      </c>
+      <c r="BL78">
+        <v>2.05</v>
+      </c>
+      <c r="BM78">
+        <v>2.1</v>
+      </c>
+      <c r="BN78">
+        <v>1.67</v>
+      </c>
+      <c r="BO78">
+        <v>2.62</v>
+      </c>
+      <c r="BP78">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7834386</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45788.72916666666</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+      <c r="G79" t="s">
+        <v>83</v>
+      </c>
+      <c r="H79" t="s">
+        <v>84</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>150</v>
+      </c>
+      <c r="P79" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q79">
+        <v>2.59</v>
+      </c>
+      <c r="R79">
+        <v>2.13</v>
+      </c>
+      <c r="S79">
+        <v>4.6</v>
+      </c>
+      <c r="T79">
+        <v>1.52</v>
+      </c>
+      <c r="U79">
+        <v>2.38</v>
+      </c>
+      <c r="V79">
+        <v>3.4</v>
+      </c>
+      <c r="W79">
+        <v>1.27</v>
+      </c>
+      <c r="X79">
+        <v>9.75</v>
+      </c>
+      <c r="Y79">
+        <v>1.04</v>
+      </c>
+      <c r="Z79">
+        <v>1.86</v>
+      </c>
+      <c r="AA79">
+        <v>3.18</v>
+      </c>
+      <c r="AB79">
+        <v>3.72</v>
+      </c>
+      <c r="AC79">
+        <v>1.1</v>
+      </c>
+      <c r="AD79">
+        <v>7</v>
+      </c>
+      <c r="AE79">
+        <v>1.5</v>
+      </c>
+      <c r="AF79">
+        <v>2.45</v>
+      </c>
+      <c r="AG79">
+        <v>2.24</v>
+      </c>
+      <c r="AH79">
+        <v>1.55</v>
+      </c>
+      <c r="AI79">
+        <v>2.15</v>
+      </c>
+      <c r="AJ79">
+        <v>1.62</v>
+      </c>
+      <c r="AK79">
+        <v>1.25</v>
+      </c>
+      <c r="AL79">
+        <v>1.34</v>
+      </c>
+      <c r="AM79">
+        <v>1.78</v>
+      </c>
+      <c r="AN79">
+        <v>1.67</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>2</v>
+      </c>
+      <c r="AQ79">
+        <v>0.75</v>
+      </c>
+      <c r="AR79">
+        <v>2.54</v>
+      </c>
+      <c r="AS79">
+        <v>1.23</v>
+      </c>
+      <c r="AT79">
+        <v>3.77</v>
+      </c>
+      <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
+        <v>3</v>
+      </c>
+      <c r="AW79">
+        <v>9</v>
+      </c>
+      <c r="AX79">
+        <v>3</v>
+      </c>
+      <c r="AY79">
+        <v>17</v>
+      </c>
+      <c r="AZ79">
+        <v>6</v>
+      </c>
+      <c r="BA79">
+        <v>10</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>10</v>
+      </c>
+      <c r="BD79">
+        <v>1.41</v>
+      </c>
+      <c r="BE79">
+        <v>9.5</v>
+      </c>
+      <c r="BF79">
+        <v>3.2</v>
+      </c>
+      <c r="BG79">
+        <v>1.18</v>
+      </c>
+      <c r="BH79">
+        <v>3.6</v>
+      </c>
+      <c r="BI79">
+        <v>1.41</v>
+      </c>
+      <c r="BJ79">
+        <v>2.62</v>
+      </c>
+      <c r="BK79">
+        <v>1.89</v>
+      </c>
+      <c r="BL79">
+        <v>2.1</v>
+      </c>
+      <c r="BM79">
+        <v>2.1</v>
+      </c>
+      <c r="BN79">
+        <v>1.67</v>
+      </c>
+      <c r="BO79">
+        <v>2.75</v>
+      </c>
+      <c r="BP79">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -467,6 +467,9 @@
   </si>
   <si>
     <t>['77', '84', '90+4']</t>
+  </si>
+  <si>
+    <t>['9', '44', '54', '69']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -936,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1607,7 +1610,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2019,7 +2022,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2225,7 +2228,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2306,7 +2309,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2637,7 +2640,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2843,7 +2846,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3049,7 +3052,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3745,7 +3748,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -4079,7 +4082,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4285,7 +4288,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4491,7 +4494,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5109,7 +5112,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5521,7 +5524,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5933,7 +5936,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6139,7 +6142,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6345,7 +6348,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6551,7 +6554,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7044,7 +7047,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ30">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR30">
         <v>0.8</v>
@@ -7169,7 +7172,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7581,7 +7584,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7659,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
         <v>0.75</v>
@@ -7787,7 +7790,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7993,7 +7996,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8199,7 +8202,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -9435,7 +9438,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9928,7 +9931,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ44">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
         <v>1.34</v>
@@ -10053,7 +10056,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10465,7 +10468,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10671,7 +10674,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10877,7 +10880,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11701,7 +11704,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11907,7 +11910,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -12397,7 +12400,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ56">
         <v>0.75</v>
@@ -13143,7 +13146,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13349,7 +13352,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13761,7 +13764,7 @@
         <v>139</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q63">
         <v>2.25</v>
@@ -13967,7 +13970,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14048,7 +14051,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14585,7 +14588,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -14997,7 +15000,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15409,7 +15412,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15821,7 +15824,7 @@
         <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q73">
         <v>3.68</v>
@@ -16027,7 +16030,7 @@
         <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>3.37</v>
@@ -16233,7 +16236,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>2.75</v>
@@ -16645,7 +16648,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17057,7 +17060,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q79">
         <v>2.59</v>
@@ -17214,6 +17217,212 @@
       </c>
       <c r="BP79">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7834382</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45788.83333333334</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>82</v>
+      </c>
+      <c r="H80" t="s">
+        <v>88</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>151</v>
+      </c>
+      <c r="P80" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q80">
+        <v>2.75</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
+      </c>
+      <c r="S80">
+        <v>4</v>
+      </c>
+      <c r="T80">
+        <v>1.47</v>
+      </c>
+      <c r="U80">
+        <v>2.5</v>
+      </c>
+      <c r="V80">
+        <v>3.1</v>
+      </c>
+      <c r="W80">
+        <v>1.32</v>
+      </c>
+      <c r="X80">
+        <v>7.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.06</v>
+      </c>
+      <c r="Z80">
+        <v>2.17</v>
+      </c>
+      <c r="AA80">
+        <v>3.15</v>
+      </c>
+      <c r="AB80">
+        <v>3.3</v>
+      </c>
+      <c r="AC80">
+        <v>1.07</v>
+      </c>
+      <c r="AD80">
+        <v>7</v>
+      </c>
+      <c r="AE80">
+        <v>1.39</v>
+      </c>
+      <c r="AF80">
+        <v>3</v>
+      </c>
+      <c r="AG80">
+        <v>2.2</v>
+      </c>
+      <c r="AH80">
+        <v>1.62</v>
+      </c>
+      <c r="AI80">
+        <v>1.91</v>
+      </c>
+      <c r="AJ80">
+        <v>1.89</v>
+      </c>
+      <c r="AK80">
+        <v>1.36</v>
+      </c>
+      <c r="AL80">
+        <v>1.35</v>
+      </c>
+      <c r="AM80">
+        <v>1.7</v>
+      </c>
+      <c r="AN80">
+        <v>2.33</v>
+      </c>
+      <c r="AO80">
+        <v>0.75</v>
+      </c>
+      <c r="AP80">
+        <v>2.5</v>
+      </c>
+      <c r="AQ80">
+        <v>0.6</v>
+      </c>
+      <c r="AR80">
+        <v>2.13</v>
+      </c>
+      <c r="AS80">
+        <v>1.05</v>
+      </c>
+      <c r="AT80">
+        <v>3.18</v>
+      </c>
+      <c r="AU80">
+        <v>6</v>
+      </c>
+      <c r="AV80">
+        <v>6</v>
+      </c>
+      <c r="AW80">
+        <v>7</v>
+      </c>
+      <c r="AX80">
+        <v>14</v>
+      </c>
+      <c r="AY80">
+        <v>16</v>
+      </c>
+      <c r="AZ80">
+        <v>25</v>
+      </c>
+      <c r="BA80">
+        <v>2</v>
+      </c>
+      <c r="BB80">
+        <v>7</v>
+      </c>
+      <c r="BC80">
+        <v>9</v>
+      </c>
+      <c r="BD80">
+        <v>1.65</v>
+      </c>
+      <c r="BE80">
+        <v>6.55</v>
+      </c>
+      <c r="BF80">
+        <v>2.43</v>
+      </c>
+      <c r="BG80">
+        <v>1.25</v>
+      </c>
+      <c r="BH80">
+        <v>3.12</v>
+      </c>
+      <c r="BI80">
+        <v>1.52</v>
+      </c>
+      <c r="BJ80">
+        <v>2.35</v>
+      </c>
+      <c r="BK80">
+        <v>1.9</v>
+      </c>
+      <c r="BL80">
+        <v>1.83</v>
+      </c>
+      <c r="BM80">
+        <v>2.4</v>
+      </c>
+      <c r="BN80">
+        <v>1.5</v>
+      </c>
+      <c r="BO80">
+        <v>3.15</v>
+      </c>
+      <c r="BP80">
+        <v>1.31</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -16962,7 +16962,7 @@
         <v>20</v>
       </c>
       <c r="AZ78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA78">
         <v>10</v>
@@ -17165,10 +17165,10 @@
         <v>3</v>
       </c>
       <c r="AY79">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA79">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="188">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -939,7 +939,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP80"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3133,7 +3133,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ11">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
         <v>1</v>
@@ -5605,7 +5605,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR23">
         <v>1.18</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -11373,7 +11373,7 @@
         <v>2</v>
       </c>
       <c r="AQ51">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR51">
         <v>1.54</v>
@@ -13430,7 +13430,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ61">
         <v>1.75</v>
@@ -17423,6 +17423,212 @@
       </c>
       <c r="BP80">
         <v>1.31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7834384</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45789.83333333334</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>89</v>
+      </c>
+      <c r="H81" t="s">
+        <v>81</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81" t="s">
+        <v>93</v>
+      </c>
+      <c r="P81" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q81">
+        <v>2.5</v>
+      </c>
+      <c r="R81">
+        <v>1.85</v>
+      </c>
+      <c r="S81">
+        <v>4.75</v>
+      </c>
+      <c r="T81">
+        <v>1.58</v>
+      </c>
+      <c r="U81">
+        <v>2.4</v>
+      </c>
+      <c r="V81">
+        <v>3.72</v>
+      </c>
+      <c r="W81">
+        <v>1.2</v>
+      </c>
+      <c r="X81">
+        <v>7.8</v>
+      </c>
+      <c r="Y81">
+        <v>1</v>
+      </c>
+      <c r="Z81">
+        <v>2.29</v>
+      </c>
+      <c r="AA81">
+        <v>3</v>
+      </c>
+      <c r="AB81">
+        <v>3.5</v>
+      </c>
+      <c r="AC81">
+        <v>1.07</v>
+      </c>
+      <c r="AD81">
+        <v>7</v>
+      </c>
+      <c r="AE81">
+        <v>1.41</v>
+      </c>
+      <c r="AF81">
+        <v>2.65</v>
+      </c>
+      <c r="AG81">
+        <v>2.71</v>
+      </c>
+      <c r="AH81">
+        <v>1.57</v>
+      </c>
+      <c r="AI81">
+        <v>2.05</v>
+      </c>
+      <c r="AJ81">
+        <v>1.7</v>
+      </c>
+      <c r="AK81">
+        <v>1.37</v>
+      </c>
+      <c r="AL81">
+        <v>1.32</v>
+      </c>
+      <c r="AM81">
+        <v>1.85</v>
+      </c>
+      <c r="AN81">
+        <v>1.33</v>
+      </c>
+      <c r="AO81">
+        <v>0.33</v>
+      </c>
+      <c r="AP81">
+        <v>1.25</v>
+      </c>
+      <c r="AQ81">
+        <v>0.5</v>
+      </c>
+      <c r="AR81">
+        <v>1.87</v>
+      </c>
+      <c r="AS81">
+        <v>1.25</v>
+      </c>
+      <c r="AT81">
+        <v>3.12</v>
+      </c>
+      <c r="AU81">
+        <v>2</v>
+      </c>
+      <c r="AV81">
+        <v>7</v>
+      </c>
+      <c r="AW81">
+        <v>13</v>
+      </c>
+      <c r="AX81">
+        <v>7</v>
+      </c>
+      <c r="AY81">
+        <v>17</v>
+      </c>
+      <c r="AZ81">
+        <v>14</v>
+      </c>
+      <c r="BA81">
+        <v>9</v>
+      </c>
+      <c r="BB81">
+        <v>6</v>
+      </c>
+      <c r="BC81">
+        <v>15</v>
+      </c>
+      <c r="BD81">
+        <v>1.48</v>
+      </c>
+      <c r="BE81">
+        <v>9.1</v>
+      </c>
+      <c r="BF81">
+        <v>3</v>
+      </c>
+      <c r="BG81">
+        <v>1.21</v>
+      </c>
+      <c r="BH81">
+        <v>3.3</v>
+      </c>
+      <c r="BI81">
+        <v>1.46</v>
+      </c>
+      <c r="BJ81">
+        <v>2.55</v>
+      </c>
+      <c r="BK81">
+        <v>1.78</v>
+      </c>
+      <c r="BL81">
+        <v>1.97</v>
+      </c>
+      <c r="BM81">
+        <v>2.23</v>
+      </c>
+      <c r="BN81">
+        <v>1.61</v>
+      </c>
+      <c r="BO81">
+        <v>2.8</v>
+      </c>
+      <c r="BP81">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -17577,7 +17577,7 @@
         <v>7</v>
       </c>
       <c r="AY81">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ81">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="189">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>['9', '44', '54', '69']</t>
+  </si>
+  <si>
+    <t>['9', '61']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -939,7 +942,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1610,7 +1613,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1897,7 +1900,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2022,7 +2025,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2228,7 +2231,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2640,7 +2643,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2846,7 +2849,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3052,7 +3055,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3542,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ13">
         <v>0.33</v>
@@ -4082,7 +4085,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4288,7 +4291,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4494,7 +4497,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5112,7 +5115,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5524,7 +5527,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5936,7 +5939,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6017,7 +6020,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ25">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR25">
         <v>1.71</v>
@@ -6142,7 +6145,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6348,7 +6351,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6554,7 +6557,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7172,7 +7175,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7456,7 +7459,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7584,7 +7587,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7790,7 +7793,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7996,7 +7999,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8202,7 +8205,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -9438,7 +9441,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9519,7 +9522,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ42">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -10056,7 +10059,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10468,7 +10471,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10674,7 +10677,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10880,7 +10883,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11704,7 +11707,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11782,7 +11785,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ53">
         <v>0.75</v>
@@ -11910,7 +11913,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -13146,7 +13149,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13352,7 +13355,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13764,7 +13767,7 @@
         <v>139</v>
       </c>
       <c r="P63" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q63">
         <v>2.25</v>
@@ -13845,7 +13848,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -13970,7 +13973,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14254,7 +14257,7 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ65">
         <v>0.5</v>
@@ -14588,7 +14591,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -15000,7 +15003,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15412,7 +15415,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15824,7 +15827,7 @@
         <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q73">
         <v>3.68</v>
@@ -16030,7 +16033,7 @@
         <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q74">
         <v>3.37</v>
@@ -16236,7 +16239,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>2.75</v>
@@ -16648,7 +16651,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17060,7 +17063,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q79">
         <v>2.59</v>
@@ -17629,6 +17632,212 @@
       </c>
       <c r="BP81">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7834399</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45794.66666666666</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s">
+        <v>85</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82" t="s">
+        <v>152</v>
+      </c>
+      <c r="P82" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q82">
+        <v>2.5</v>
+      </c>
+      <c r="R82">
+        <v>2.04</v>
+      </c>
+      <c r="S82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>1.5</v>
+      </c>
+      <c r="U82">
+        <v>2.35</v>
+      </c>
+      <c r="V82">
+        <v>3.28</v>
+      </c>
+      <c r="W82">
+        <v>1.3</v>
+      </c>
+      <c r="X82">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y82">
+        <v>1.02</v>
+      </c>
+      <c r="Z82">
+        <v>1.84</v>
+      </c>
+      <c r="AA82">
+        <v>3.08</v>
+      </c>
+      <c r="AB82">
+        <v>3.96</v>
+      </c>
+      <c r="AC82">
+        <v>1.1</v>
+      </c>
+      <c r="AD82">
+        <v>7.59</v>
+      </c>
+      <c r="AE82">
+        <v>1.5</v>
+      </c>
+      <c r="AF82">
+        <v>2.4</v>
+      </c>
+      <c r="AG82">
+        <v>2.3</v>
+      </c>
+      <c r="AH82">
+        <v>1.55</v>
+      </c>
+      <c r="AI82">
+        <v>2.1</v>
+      </c>
+      <c r="AJ82">
+        <v>1.67</v>
+      </c>
+      <c r="AK82">
+        <v>1.36</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>1.85</v>
+      </c>
+      <c r="AN82">
+        <v>2.5</v>
+      </c>
+      <c r="AO82">
+        <v>0.25</v>
+      </c>
+      <c r="AP82">
+        <v>2.6</v>
+      </c>
+      <c r="AQ82">
+        <v>0.2</v>
+      </c>
+      <c r="AR82">
+        <v>1.43</v>
+      </c>
+      <c r="AS82">
+        <v>1.33</v>
+      </c>
+      <c r="AT82">
+        <v>2.76</v>
+      </c>
+      <c r="AU82">
+        <v>4</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>4</v>
+      </c>
+      <c r="AX82">
+        <v>5</v>
+      </c>
+      <c r="AY82">
+        <v>9</v>
+      </c>
+      <c r="AZ82">
+        <v>10</v>
+      </c>
+      <c r="BA82">
+        <v>5</v>
+      </c>
+      <c r="BB82">
+        <v>8</v>
+      </c>
+      <c r="BC82">
+        <v>13</v>
+      </c>
+      <c r="BD82">
+        <v>1.57</v>
+      </c>
+      <c r="BE82">
+        <v>8.1</v>
+      </c>
+      <c r="BF82">
+        <v>2.62</v>
+      </c>
+      <c r="BG82">
+        <v>1.23</v>
+      </c>
+      <c r="BH82">
+        <v>3.52</v>
+      </c>
+      <c r="BI82">
+        <v>1.34</v>
+      </c>
+      <c r="BJ82">
+        <v>2.74</v>
+      </c>
+      <c r="BK82">
+        <v>1.74</v>
+      </c>
+      <c r="BL82">
+        <v>2.02</v>
+      </c>
+      <c r="BM82">
+        <v>2.17</v>
+      </c>
+      <c r="BN82">
+        <v>1.64</v>
+      </c>
+      <c r="BO82">
+        <v>2.53</v>
+      </c>
+      <c r="BP82">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="190">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>['9', '61']</t>
+  </si>
+  <si>
+    <t>['3', '46', '80']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -942,7 +945,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP82"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1613,7 +1616,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2025,7 +2028,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2231,7 +2234,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2643,7 +2646,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2721,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0</v>
@@ -2849,7 +2852,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3055,7 +3058,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4085,7 +4088,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4291,7 +4294,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4497,7 +4500,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4784,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5115,7 +5118,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5527,7 +5530,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5939,7 +5942,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6017,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.2</v>
@@ -6145,7 +6148,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6351,7 +6354,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6557,7 +6560,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7175,7 +7178,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7587,7 +7590,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7793,7 +7796,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7999,7 +8002,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8205,7 +8208,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8698,7 +8701,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR38">
         <v>0.79</v>
@@ -9441,7 +9444,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9725,7 +9728,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>1.75</v>
@@ -10059,7 +10062,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10471,7 +10474,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10677,7 +10680,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10883,7 +10886,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11707,7 +11710,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11913,7 +11916,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -12200,7 +12203,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -13149,7 +13152,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13355,7 +13358,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13642,7 +13645,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR62">
         <v>1.28</v>
@@ -13767,7 +13770,7 @@
         <v>139</v>
       </c>
       <c r="P63" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>2.25</v>
@@ -13973,7 +13976,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14591,7 +14594,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -14669,7 +14672,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>3</v>
@@ -15003,7 +15006,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15415,7 +15418,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15827,7 +15830,7 @@
         <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q73">
         <v>3.68</v>
@@ -16033,7 +16036,7 @@
         <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>3.37</v>
@@ -16239,7 +16242,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q75">
         <v>2.75</v>
@@ -16651,7 +16654,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17063,7 +17066,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q79">
         <v>2.59</v>
@@ -17838,6 +17841,212 @@
       </c>
       <c r="BP82">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7834392</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45794.77083333334</v>
+      </c>
+      <c r="F83">
+        <v>9</v>
+      </c>
+      <c r="G83" t="s">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s">
+        <v>70</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>3</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>153</v>
+      </c>
+      <c r="P83" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q83">
+        <v>3.1</v>
+      </c>
+      <c r="R83">
+        <v>1.93</v>
+      </c>
+      <c r="S83">
+        <v>3.7</v>
+      </c>
+      <c r="T83">
+        <v>1.52</v>
+      </c>
+      <c r="U83">
+        <v>2.45</v>
+      </c>
+      <c r="V83">
+        <v>3.2</v>
+      </c>
+      <c r="W83">
+        <v>1.32</v>
+      </c>
+      <c r="X83">
+        <v>8.5</v>
+      </c>
+      <c r="Y83">
+        <v>1.04</v>
+      </c>
+      <c r="Z83">
+        <v>2.55</v>
+      </c>
+      <c r="AA83">
+        <v>2.9</v>
+      </c>
+      <c r="AB83">
+        <v>3.24</v>
+      </c>
+      <c r="AC83">
+        <v>1.1</v>
+      </c>
+      <c r="AD83">
+        <v>7</v>
+      </c>
+      <c r="AE83">
+        <v>1.47</v>
+      </c>
+      <c r="AF83">
+        <v>2.69</v>
+      </c>
+      <c r="AG83">
+        <v>2.48</v>
+      </c>
+      <c r="AH83">
+        <v>1.55</v>
+      </c>
+      <c r="AI83">
+        <v>1.98</v>
+      </c>
+      <c r="AJ83">
+        <v>1.83</v>
+      </c>
+      <c r="AK83">
+        <v>1.37</v>
+      </c>
+      <c r="AL83">
+        <v>1.35</v>
+      </c>
+      <c r="AM83">
+        <v>1.47</v>
+      </c>
+      <c r="AN83">
+        <v>1.75</v>
+      </c>
+      <c r="AO83">
+        <v>0.75</v>
+      </c>
+      <c r="AP83">
+        <v>2</v>
+      </c>
+      <c r="AQ83">
+        <v>0.6</v>
+      </c>
+      <c r="AR83">
+        <v>1.28</v>
+      </c>
+      <c r="AS83">
+        <v>1.24</v>
+      </c>
+      <c r="AT83">
+        <v>2.52</v>
+      </c>
+      <c r="AU83">
+        <v>8</v>
+      </c>
+      <c r="AV83">
+        <v>4</v>
+      </c>
+      <c r="AW83">
+        <v>7</v>
+      </c>
+      <c r="AX83">
+        <v>7</v>
+      </c>
+      <c r="AY83">
+        <v>16</v>
+      </c>
+      <c r="AZ83">
+        <v>11</v>
+      </c>
+      <c r="BA83">
+        <v>4</v>
+      </c>
+      <c r="BB83">
+        <v>7</v>
+      </c>
+      <c r="BC83">
+        <v>11</v>
+      </c>
+      <c r="BD83">
+        <v>1.79</v>
+      </c>
+      <c r="BE83">
+        <v>8</v>
+      </c>
+      <c r="BF83">
+        <v>2.6</v>
+      </c>
+      <c r="BG83">
+        <v>1.24</v>
+      </c>
+      <c r="BH83">
+        <v>3.52</v>
+      </c>
+      <c r="BI83">
+        <v>1.47</v>
+      </c>
+      <c r="BJ83">
+        <v>2.55</v>
+      </c>
+      <c r="BK83">
+        <v>1.7</v>
+      </c>
+      <c r="BL83">
+        <v>1.97</v>
+      </c>
+      <c r="BM83">
+        <v>2.18</v>
+      </c>
+      <c r="BN83">
+        <v>1.65</v>
+      </c>
+      <c r="BO83">
+        <v>2.8</v>
+      </c>
+      <c r="BP83">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -478,6 +478,9 @@
     <t>['3', '46', '80']</t>
   </si>
   <si>
+    <t>['49', '85']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -584,6 +587,9 @@
   </si>
   <si>
     <t>['56', '88']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -945,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1616,7 +1622,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1900,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ5">
         <v>0.2</v>
@@ -2028,7 +2034,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2234,7 +2240,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2646,7 +2652,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2852,7 +2858,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3058,7 +3064,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3551,7 +3557,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4088,7 +4094,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4294,7 +4300,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4500,7 +4506,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5118,7 +5124,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5530,7 +5536,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5942,7 +5948,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6148,7 +6154,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6354,7 +6360,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6432,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6560,7 +6566,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7178,7 +7184,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7590,7 +7596,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7796,7 +7802,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8002,7 +8008,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8083,7 +8089,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR35">
         <v>2.31</v>
@@ -8208,7 +8214,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -9444,7 +9450,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10062,7 +10068,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10474,7 +10480,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10552,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -10680,7 +10686,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10886,7 +10892,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11710,7 +11716,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11916,7 +11922,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -13152,7 +13158,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13233,7 +13239,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ60">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR60">
         <v>1.37</v>
@@ -13358,7 +13364,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13642,7 +13648,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ62">
         <v>0.6</v>
@@ -13770,7 +13776,7 @@
         <v>139</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>2.25</v>
@@ -13976,7 +13982,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14594,7 +14600,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -15006,7 +15012,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15418,7 +15424,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15830,7 +15836,7 @@
         <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q73">
         <v>3.68</v>
@@ -16036,7 +16042,7 @@
         <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q74">
         <v>3.37</v>
@@ -16242,7 +16248,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>2.75</v>
@@ -16654,7 +16660,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17066,7 +17072,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q79">
         <v>2.59</v>
@@ -18047,6 +18053,212 @@
       </c>
       <c r="BP83">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7834394</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45794.875</v>
+      </c>
+      <c r="F84">
+        <v>9</v>
+      </c>
+      <c r="G84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H84" t="s">
+        <v>72</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>2</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>154</v>
+      </c>
+      <c r="P84" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q84">
+        <v>2.3</v>
+      </c>
+      <c r="R84">
+        <v>2.01</v>
+      </c>
+      <c r="S84">
+        <v>5.8</v>
+      </c>
+      <c r="T84">
+        <v>1.49</v>
+      </c>
+      <c r="U84">
+        <v>2.5</v>
+      </c>
+      <c r="V84">
+        <v>3.28</v>
+      </c>
+      <c r="W84">
+        <v>1.34</v>
+      </c>
+      <c r="X84">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y84">
+        <v>1</v>
+      </c>
+      <c r="Z84">
+        <v>1.65</v>
+      </c>
+      <c r="AA84">
+        <v>3.65</v>
+      </c>
+      <c r="AB84">
+        <v>6.16</v>
+      </c>
+      <c r="AC84">
+        <v>1.07</v>
+      </c>
+      <c r="AD84">
+        <v>7.46</v>
+      </c>
+      <c r="AE84">
+        <v>1.4</v>
+      </c>
+      <c r="AF84">
+        <v>2.7</v>
+      </c>
+      <c r="AG84">
+        <v>2.3</v>
+      </c>
+      <c r="AH84">
+        <v>1.55</v>
+      </c>
+      <c r="AI84">
+        <v>2.3</v>
+      </c>
+      <c r="AJ84">
+        <v>1.66</v>
+      </c>
+      <c r="AK84">
+        <v>1.3</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>2.25</v>
+      </c>
+      <c r="AN84">
+        <v>1.5</v>
+      </c>
+      <c r="AO84">
+        <v>0.33</v>
+      </c>
+      <c r="AP84">
+        <v>1.8</v>
+      </c>
+      <c r="AQ84">
+        <v>0.25</v>
+      </c>
+      <c r="AR84">
+        <v>1.35</v>
+      </c>
+      <c r="AS84">
+        <v>1.7</v>
+      </c>
+      <c r="AT84">
+        <v>3.05</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>15</v>
+      </c>
+      <c r="AX84">
+        <v>0</v>
+      </c>
+      <c r="AY84">
+        <v>30</v>
+      </c>
+      <c r="AZ84">
+        <v>4</v>
+      </c>
+      <c r="BA84">
+        <v>8</v>
+      </c>
+      <c r="BB84">
+        <v>3</v>
+      </c>
+      <c r="BC84">
+        <v>11</v>
+      </c>
+      <c r="BD84">
+        <v>1.55</v>
+      </c>
+      <c r="BE84">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF84">
+        <v>2.84</v>
+      </c>
+      <c r="BG84">
+        <v>1.24</v>
+      </c>
+      <c r="BH84">
+        <v>3.3</v>
+      </c>
+      <c r="BI84">
+        <v>1.42</v>
+      </c>
+      <c r="BJ84">
+        <v>2.5</v>
+      </c>
+      <c r="BK84">
+        <v>1.77</v>
+      </c>
+      <c r="BL84">
+        <v>1.9</v>
+      </c>
+      <c r="BM84">
+        <v>2.3</v>
+      </c>
+      <c r="BN84">
+        <v>1.55</v>
+      </c>
+      <c r="BO84">
+        <v>2.9</v>
+      </c>
+      <c r="BP84">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,15 @@
     <t>['49', '85']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['23', '66']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -512,9 +521,6 @@
   </si>
   <si>
     <t>['41']</t>
-  </si>
-  <si>
-    <t>['55']</t>
   </si>
   <si>
     <t>['17']</t>
@@ -562,9 +568,6 @@
     <t>['63', '83']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['38', '42']</t>
   </si>
   <si>
@@ -590,6 +593,12 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['72', '78']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP84"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1300,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ2">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1494,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1622,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2034,7 +2043,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2112,10 +2121,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2240,7 +2249,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2318,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ7">
         <v>0.6</v>
@@ -2527,7 +2536,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2652,7 +2661,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2858,7 +2867,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2936,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ10">
         <v>0.25</v>
@@ -3064,7 +3073,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3142,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3348,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -4094,7 +4103,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4300,7 +4309,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4506,7 +4515,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4996,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5124,7 +5133,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5408,10 +5417,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR22">
         <v>2.29</v>
@@ -5536,7 +5545,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5614,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ23">
         <v>0.5</v>
@@ -5948,7 +5957,7 @@
         <v>111</v>
       </c>
       <c r="P25" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6154,7 +6163,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6232,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6360,7 +6369,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6566,7 +6575,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7184,7 +7193,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7265,7 +7274,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR31">
         <v>2.54</v>
@@ -7596,7 +7605,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7802,7 +7811,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8008,7 +8017,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8214,7 +8223,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8292,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ36">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR36">
         <v>0.99</v>
@@ -8498,7 +8507,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>3</v>
@@ -8910,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9322,7 +9331,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9450,7 +9459,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9528,7 +9537,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ42">
         <v>0.2</v>
@@ -10068,7 +10077,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10146,10 +10155,10 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ45">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR45">
         <v>1.45</v>
@@ -10355,7 +10364,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR46">
         <v>2.97</v>
@@ -10480,7 +10489,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10686,7 +10695,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10892,7 +10901,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -10973,7 +10982,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ49">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR49">
         <v>1.66</v>
@@ -11176,7 +11185,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11382,7 +11391,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ51">
         <v>0.5</v>
@@ -11588,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11716,7 +11725,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11922,7 +11931,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -12415,7 +12424,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR56">
         <v>2.27</v>
@@ -12618,7 +12627,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ57">
         <v>0.25</v>
@@ -13030,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -13158,7 +13167,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13364,7 +13373,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13776,7 +13785,7 @@
         <v>139</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="Q63">
         <v>2.25</v>
@@ -13982,7 +13991,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14060,7 +14069,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ64">
         <v>0.6</v>
@@ -14269,7 +14278,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ65">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
@@ -14472,10 +14481,10 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ66">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR66">
         <v>1.57</v>
@@ -14600,7 +14609,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -15012,7 +15021,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15090,7 +15099,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AQ69">
         <v>1.75</v>
@@ -15296,10 +15305,10 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR70">
         <v>1.94</v>
@@ -15424,7 +15433,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15502,7 +15511,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15836,7 +15845,7 @@
         <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q73">
         <v>3.68</v>
@@ -16042,7 +16051,7 @@
         <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q74">
         <v>3.37</v>
@@ -16248,7 +16257,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q75">
         <v>2.75</v>
@@ -16532,7 +16541,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16660,7 +16669,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17072,7 +17081,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>2.59</v>
@@ -17153,7 +17162,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AR79">
         <v>2.54</v>
@@ -18102,7 +18111,7 @@
         <v>154</v>
       </c>
       <c r="P84" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18259,6 +18268,1448 @@
       </c>
       <c r="BP84">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7834400</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45795.66666666666</v>
+      </c>
+      <c r="F85">
+        <v>9</v>
+      </c>
+      <c r="G85" t="s">
+        <v>71</v>
+      </c>
+      <c r="H85" t="s">
+        <v>84</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>155</v>
+      </c>
+      <c r="P85" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q85">
+        <v>4.56</v>
+      </c>
+      <c r="R85">
+        <v>2.01</v>
+      </c>
+      <c r="S85">
+        <v>2.75</v>
+      </c>
+      <c r="T85">
+        <v>1.53</v>
+      </c>
+      <c r="U85">
+        <v>2.58</v>
+      </c>
+      <c r="V85">
+        <v>3.2</v>
+      </c>
+      <c r="W85">
+        <v>1.34</v>
+      </c>
+      <c r="X85">
+        <v>7.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.05</v>
+      </c>
+      <c r="Z85">
+        <v>2.87</v>
+      </c>
+      <c r="AA85">
+        <v>3.08</v>
+      </c>
+      <c r="AB85">
+        <v>2.24</v>
+      </c>
+      <c r="AC85">
+        <v>1.05</v>
+      </c>
+      <c r="AD85">
+        <v>7.5</v>
+      </c>
+      <c r="AE85">
+        <v>1.4</v>
+      </c>
+      <c r="AF85">
+        <v>2.75</v>
+      </c>
+      <c r="AG85">
+        <v>2.1</v>
+      </c>
+      <c r="AH85">
+        <v>1.67</v>
+      </c>
+      <c r="AI85">
+        <v>1.91</v>
+      </c>
+      <c r="AJ85">
+        <v>1.83</v>
+      </c>
+      <c r="AK85">
+        <v>1.32</v>
+      </c>
+      <c r="AL85">
+        <v>1.36</v>
+      </c>
+      <c r="AM85">
+        <v>1.27</v>
+      </c>
+      <c r="AN85">
+        <v>1.75</v>
+      </c>
+      <c r="AO85">
+        <v>0.75</v>
+      </c>
+      <c r="AP85">
+        <v>1.6</v>
+      </c>
+      <c r="AQ85">
+        <v>0.8</v>
+      </c>
+      <c r="AR85">
+        <v>1.75</v>
+      </c>
+      <c r="AS85">
+        <v>1.12</v>
+      </c>
+      <c r="AT85">
+        <v>2.87</v>
+      </c>
+      <c r="AU85">
+        <v>2</v>
+      </c>
+      <c r="AV85">
+        <v>7</v>
+      </c>
+      <c r="AW85">
+        <v>7</v>
+      </c>
+      <c r="AX85">
+        <v>10</v>
+      </c>
+      <c r="AY85">
+        <v>12</v>
+      </c>
+      <c r="AZ85">
+        <v>21</v>
+      </c>
+      <c r="BA85">
+        <v>5</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>2.1</v>
+      </c>
+      <c r="BE85">
+        <v>8</v>
+      </c>
+      <c r="BF85">
+        <v>2.05</v>
+      </c>
+      <c r="BG85">
+        <v>1.2</v>
+      </c>
+      <c r="BH85">
+        <v>3.52</v>
+      </c>
+      <c r="BI85">
+        <v>1.45</v>
+      </c>
+      <c r="BJ85">
+        <v>2.6</v>
+      </c>
+      <c r="BK85">
+        <v>1.95</v>
+      </c>
+      <c r="BL85">
+        <v>2.01</v>
+      </c>
+      <c r="BM85">
+        <v>2.18</v>
+      </c>
+      <c r="BN85">
+        <v>1.57</v>
+      </c>
+      <c r="BO85">
+        <v>2.65</v>
+      </c>
+      <c r="BP85">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7834393</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45795.66666666666</v>
+      </c>
+      <c r="F86">
+        <v>9</v>
+      </c>
+      <c r="G86" t="s">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s">
+        <v>89</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86" t="s">
+        <v>137</v>
+      </c>
+      <c r="P86" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q86">
+        <v>2.49</v>
+      </c>
+      <c r="R86">
+        <v>2.05</v>
+      </c>
+      <c r="S86">
+        <v>5.06</v>
+      </c>
+      <c r="T86">
+        <v>1.43</v>
+      </c>
+      <c r="U86">
+        <v>2.58</v>
+      </c>
+      <c r="V86">
+        <v>3</v>
+      </c>
+      <c r="W86">
+        <v>1.31</v>
+      </c>
+      <c r="X86">
+        <v>7.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.05</v>
+      </c>
+      <c r="Z86">
+        <v>2</v>
+      </c>
+      <c r="AA86">
+        <v>3.01</v>
+      </c>
+      <c r="AB86">
+        <v>3.47</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
+        <v>7.7</v>
+      </c>
+      <c r="AE86">
+        <v>1.4</v>
+      </c>
+      <c r="AF86">
+        <v>2.96</v>
+      </c>
+      <c r="AG86">
+        <v>2.15</v>
+      </c>
+      <c r="AH86">
+        <v>1.65</v>
+      </c>
+      <c r="AI86">
+        <v>1.95</v>
+      </c>
+      <c r="AJ86">
+        <v>1.75</v>
+      </c>
+      <c r="AK86">
+        <v>1.22</v>
+      </c>
+      <c r="AL86">
+        <v>1.25</v>
+      </c>
+      <c r="AM86">
+        <v>1.85</v>
+      </c>
+      <c r="AN86">
+        <v>2.25</v>
+      </c>
+      <c r="AO86">
+        <v>0</v>
+      </c>
+      <c r="AP86">
+        <v>2.4</v>
+      </c>
+      <c r="AQ86">
+        <v>0</v>
+      </c>
+      <c r="AR86">
+        <v>1.66</v>
+      </c>
+      <c r="AS86">
+        <v>1.29</v>
+      </c>
+      <c r="AT86">
+        <v>2.95</v>
+      </c>
+      <c r="AU86">
+        <v>3</v>
+      </c>
+      <c r="AV86">
+        <v>2</v>
+      </c>
+      <c r="AW86">
+        <v>9</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+      <c r="AY86">
+        <v>14</v>
+      </c>
+      <c r="AZ86">
+        <v>9</v>
+      </c>
+      <c r="BA86">
+        <v>5</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
+        <v>8</v>
+      </c>
+      <c r="BD86">
+        <v>1.61</v>
+      </c>
+      <c r="BE86">
+        <v>8.5</v>
+      </c>
+      <c r="BF86">
+        <v>2.32</v>
+      </c>
+      <c r="BG86">
+        <v>1.21</v>
+      </c>
+      <c r="BH86">
+        <v>3.62</v>
+      </c>
+      <c r="BI86">
+        <v>1.38</v>
+      </c>
+      <c r="BJ86">
+        <v>2.7</v>
+      </c>
+      <c r="BK86">
+        <v>1.91</v>
+      </c>
+      <c r="BL86">
+        <v>2</v>
+      </c>
+      <c r="BM86">
+        <v>2.05</v>
+      </c>
+      <c r="BN86">
+        <v>1.65</v>
+      </c>
+      <c r="BO86">
+        <v>2.68</v>
+      </c>
+      <c r="BP86">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7834398</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45795.66666666666</v>
+      </c>
+      <c r="F87">
+        <v>9</v>
+      </c>
+      <c r="G87" t="s">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s">
+        <v>86</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>156</v>
+      </c>
+      <c r="P87" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q87">
+        <v>2.47</v>
+      </c>
+      <c r="R87">
+        <v>1.97</v>
+      </c>
+      <c r="S87">
+        <v>6</v>
+      </c>
+      <c r="T87">
+        <v>1.45</v>
+      </c>
+      <c r="U87">
+        <v>2.5</v>
+      </c>
+      <c r="V87">
+        <v>3.44</v>
+      </c>
+      <c r="W87">
+        <v>1.33</v>
+      </c>
+      <c r="X87">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y87">
+        <v>1.05</v>
+      </c>
+      <c r="Z87">
+        <v>1.7</v>
+      </c>
+      <c r="AA87">
+        <v>3.29</v>
+      </c>
+      <c r="AB87">
+        <v>4.4</v>
+      </c>
+      <c r="AC87">
+        <v>1.08</v>
+      </c>
+      <c r="AD87">
+        <v>7.5</v>
+      </c>
+      <c r="AE87">
+        <v>1.4</v>
+      </c>
+      <c r="AF87">
+        <v>2.8</v>
+      </c>
+      <c r="AG87">
+        <v>2.25</v>
+      </c>
+      <c r="AH87">
+        <v>1.57</v>
+      </c>
+      <c r="AI87">
+        <v>2.24</v>
+      </c>
+      <c r="AJ87">
+        <v>1.65</v>
+      </c>
+      <c r="AK87">
+        <v>1.3</v>
+      </c>
+      <c r="AL87">
+        <v>1.3</v>
+      </c>
+      <c r="AM87">
+        <v>2.05</v>
+      </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
+      <c r="AO87">
+        <v>0.5</v>
+      </c>
+      <c r="AP87">
+        <v>2.2</v>
+      </c>
+      <c r="AQ87">
+        <v>0.4</v>
+      </c>
+      <c r="AR87">
+        <v>1.46</v>
+      </c>
+      <c r="AS87">
+        <v>1.26</v>
+      </c>
+      <c r="AT87">
+        <v>2.72</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>9</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>15</v>
+      </c>
+      <c r="AY87">
+        <v>9</v>
+      </c>
+      <c r="AZ87">
+        <v>25</v>
+      </c>
+      <c r="BA87">
+        <v>1</v>
+      </c>
+      <c r="BB87">
+        <v>10</v>
+      </c>
+      <c r="BC87">
+        <v>11</v>
+      </c>
+      <c r="BD87">
+        <v>1.46</v>
+      </c>
+      <c r="BE87">
+        <v>9.5</v>
+      </c>
+      <c r="BF87">
+        <v>3.34</v>
+      </c>
+      <c r="BG87">
+        <v>1.25</v>
+      </c>
+      <c r="BH87">
+        <v>3.32</v>
+      </c>
+      <c r="BI87">
+        <v>1.44</v>
+      </c>
+      <c r="BJ87">
+        <v>2.5</v>
+      </c>
+      <c r="BK87">
+        <v>1.71</v>
+      </c>
+      <c r="BL87">
+        <v>1.93</v>
+      </c>
+      <c r="BM87">
+        <v>2.28</v>
+      </c>
+      <c r="BN87">
+        <v>1.59</v>
+      </c>
+      <c r="BO87">
+        <v>2.65</v>
+      </c>
+      <c r="BP87">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7834391</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45795.77083333334</v>
+      </c>
+      <c r="F88">
+        <v>9</v>
+      </c>
+      <c r="G88" t="s">
+        <v>75</v>
+      </c>
+      <c r="H88" t="s">
+        <v>82</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88" t="s">
+        <v>93</v>
+      </c>
+      <c r="P88" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q88">
+        <v>1.95</v>
+      </c>
+      <c r="R88">
+        <v>2.06</v>
+      </c>
+      <c r="S88">
+        <v>6.2</v>
+      </c>
+      <c r="T88">
+        <v>1.51</v>
+      </c>
+      <c r="U88">
+        <v>2.88</v>
+      </c>
+      <c r="V88">
+        <v>2.95</v>
+      </c>
+      <c r="W88">
+        <v>1.41</v>
+      </c>
+      <c r="X88">
+        <v>7</v>
+      </c>
+      <c r="Y88">
+        <v>1.05</v>
+      </c>
+      <c r="Z88">
+        <v>1.73</v>
+      </c>
+      <c r="AA88">
+        <v>3.4</v>
+      </c>
+      <c r="AB88">
+        <v>5.1</v>
+      </c>
+      <c r="AC88">
+        <v>1.04</v>
+      </c>
+      <c r="AD88">
+        <v>8.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.3</v>
+      </c>
+      <c r="AF88">
+        <v>2.9</v>
+      </c>
+      <c r="AG88">
+        <v>2.35</v>
+      </c>
+      <c r="AH88">
+        <v>1.7</v>
+      </c>
+      <c r="AI88">
+        <v>2.15</v>
+      </c>
+      <c r="AJ88">
+        <v>1.67</v>
+      </c>
+      <c r="AK88">
+        <v>1.26</v>
+      </c>
+      <c r="AL88">
+        <v>1.22</v>
+      </c>
+      <c r="AM88">
+        <v>2.3</v>
+      </c>
+      <c r="AN88">
+        <v>2.5</v>
+      </c>
+      <c r="AO88">
+        <v>0.25</v>
+      </c>
+      <c r="AP88">
+        <v>2.2</v>
+      </c>
+      <c r="AQ88">
+        <v>0.4</v>
+      </c>
+      <c r="AR88">
+        <v>1.9</v>
+      </c>
+      <c r="AS88">
+        <v>1.4</v>
+      </c>
+      <c r="AT88">
+        <v>3.3</v>
+      </c>
+      <c r="AU88">
+        <v>4</v>
+      </c>
+      <c r="AV88">
+        <v>3</v>
+      </c>
+      <c r="AW88">
+        <v>13</v>
+      </c>
+      <c r="AX88">
+        <v>7</v>
+      </c>
+      <c r="AY88">
+        <v>25</v>
+      </c>
+      <c r="AZ88">
+        <v>10</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>3</v>
+      </c>
+      <c r="BC88">
+        <v>10</v>
+      </c>
+      <c r="BD88">
+        <v>1.3</v>
+      </c>
+      <c r="BE88">
+        <v>7.5</v>
+      </c>
+      <c r="BF88">
+        <v>4.6</v>
+      </c>
+      <c r="BG88">
+        <v>1.24</v>
+      </c>
+      <c r="BH88">
+        <v>3.42</v>
+      </c>
+      <c r="BI88">
+        <v>1.44</v>
+      </c>
+      <c r="BJ88">
+        <v>2.65</v>
+      </c>
+      <c r="BK88">
+        <v>1.75</v>
+      </c>
+      <c r="BL88">
+        <v>2.05</v>
+      </c>
+      <c r="BM88">
+        <v>2.21</v>
+      </c>
+      <c r="BN88">
+        <v>1.6</v>
+      </c>
+      <c r="BO88">
+        <v>2.88</v>
+      </c>
+      <c r="BP88">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7834395</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45795.77083333334</v>
+      </c>
+      <c r="F89">
+        <v>9</v>
+      </c>
+      <c r="G89" t="s">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s">
+        <v>76</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" t="s">
+        <v>157</v>
+      </c>
+      <c r="P89" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q89">
+        <v>4.39</v>
+      </c>
+      <c r="R89">
+        <v>2.01</v>
+      </c>
+      <c r="S89">
+        <v>2.75</v>
+      </c>
+      <c r="T89">
+        <v>1.5</v>
+      </c>
+      <c r="U89">
+        <v>2.63</v>
+      </c>
+      <c r="V89">
+        <v>3.2</v>
+      </c>
+      <c r="W89">
+        <v>1.33</v>
+      </c>
+      <c r="X89">
+        <v>7.5</v>
+      </c>
+      <c r="Y89">
+        <v>1.01</v>
+      </c>
+      <c r="Z89">
+        <v>3.15</v>
+      </c>
+      <c r="AA89">
+        <v>3.1</v>
+      </c>
+      <c r="AB89">
+        <v>2.28</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>7</v>
+      </c>
+      <c r="AE89">
+        <v>1.44</v>
+      </c>
+      <c r="AF89">
+        <v>2.75</v>
+      </c>
+      <c r="AG89">
+        <v>2.4</v>
+      </c>
+      <c r="AH89">
+        <v>1.6</v>
+      </c>
+      <c r="AI89">
+        <v>1.83</v>
+      </c>
+      <c r="AJ89">
+        <v>1.85</v>
+      </c>
+      <c r="AK89">
+        <v>1.35</v>
+      </c>
+      <c r="AL89">
+        <v>1.36</v>
+      </c>
+      <c r="AM89">
+        <v>1.3</v>
+      </c>
+      <c r="AN89">
+        <v>2.5</v>
+      </c>
+      <c r="AO89">
+        <v>3</v>
+      </c>
+      <c r="AP89">
+        <v>2</v>
+      </c>
+      <c r="AQ89">
+        <v>3</v>
+      </c>
+      <c r="AR89">
+        <v>1.9</v>
+      </c>
+      <c r="AS89">
+        <v>1.31</v>
+      </c>
+      <c r="AT89">
+        <v>3.21</v>
+      </c>
+      <c r="AU89">
+        <v>3</v>
+      </c>
+      <c r="AV89">
+        <v>6</v>
+      </c>
+      <c r="AW89">
+        <v>7</v>
+      </c>
+      <c r="AX89">
+        <v>10</v>
+      </c>
+      <c r="AY89">
+        <v>15</v>
+      </c>
+      <c r="AZ89">
+        <v>18</v>
+      </c>
+      <c r="BA89">
+        <v>8</v>
+      </c>
+      <c r="BB89">
+        <v>12</v>
+      </c>
+      <c r="BC89">
+        <v>20</v>
+      </c>
+      <c r="BD89">
+        <v>2.38</v>
+      </c>
+      <c r="BE89">
+        <v>8.5</v>
+      </c>
+      <c r="BF89">
+        <v>1.8</v>
+      </c>
+      <c r="BG89">
+        <v>1.14</v>
+      </c>
+      <c r="BH89">
+        <v>4.05</v>
+      </c>
+      <c r="BI89">
+        <v>1.33</v>
+      </c>
+      <c r="BJ89">
+        <v>2.95</v>
+      </c>
+      <c r="BK89">
+        <v>1.64</v>
+      </c>
+      <c r="BL89">
+        <v>2.19</v>
+      </c>
+      <c r="BM89">
+        <v>2.01</v>
+      </c>
+      <c r="BN89">
+        <v>1.77</v>
+      </c>
+      <c r="BO89">
+        <v>2.44</v>
+      </c>
+      <c r="BP89">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7834396</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45795.85416666666</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+      <c r="G90" t="s">
+        <v>74</v>
+      </c>
+      <c r="H90" t="s">
+        <v>83</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>93</v>
+      </c>
+      <c r="P90" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q90">
+        <v>3.2</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
+        <v>3.86</v>
+      </c>
+      <c r="T90">
+        <v>1.5</v>
+      </c>
+      <c r="U90">
+        <v>2.44</v>
+      </c>
+      <c r="V90">
+        <v>3.55</v>
+      </c>
+      <c r="W90">
+        <v>1.24</v>
+      </c>
+      <c r="X90">
+        <v>10</v>
+      </c>
+      <c r="Y90">
+        <v>1.03</v>
+      </c>
+      <c r="Z90">
+        <v>2.49</v>
+      </c>
+      <c r="AA90">
+        <v>3.05</v>
+      </c>
+      <c r="AB90">
+        <v>3</v>
+      </c>
+      <c r="AC90">
+        <v>1.1</v>
+      </c>
+      <c r="AD90">
+        <v>7.1</v>
+      </c>
+      <c r="AE90">
+        <v>1.45</v>
+      </c>
+      <c r="AF90">
+        <v>2.55</v>
+      </c>
+      <c r="AG90">
+        <v>2.47</v>
+      </c>
+      <c r="AH90">
+        <v>1.53</v>
+      </c>
+      <c r="AI90">
+        <v>2.05</v>
+      </c>
+      <c r="AJ90">
+        <v>1.74</v>
+      </c>
+      <c r="AK90">
+        <v>1.4</v>
+      </c>
+      <c r="AL90">
+        <v>1.36</v>
+      </c>
+      <c r="AM90">
+        <v>1.56</v>
+      </c>
+      <c r="AN90">
+        <v>3</v>
+      </c>
+      <c r="AO90">
+        <v>1</v>
+      </c>
+      <c r="AP90">
+        <v>2.6</v>
+      </c>
+      <c r="AQ90">
+        <v>1</v>
+      </c>
+      <c r="AR90">
+        <v>1.65</v>
+      </c>
+      <c r="AS90">
+        <v>2.32</v>
+      </c>
+      <c r="AT90">
+        <v>3.97</v>
+      </c>
+      <c r="AU90">
+        <v>4</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>15</v>
+      </c>
+      <c r="AX90">
+        <v>4</v>
+      </c>
+      <c r="AY90">
+        <v>27</v>
+      </c>
+      <c r="AZ90">
+        <v>8</v>
+      </c>
+      <c r="BA90">
+        <v>15</v>
+      </c>
+      <c r="BB90">
+        <v>1</v>
+      </c>
+      <c r="BC90">
+        <v>16</v>
+      </c>
+      <c r="BD90">
+        <v>1.91</v>
+      </c>
+      <c r="BE90">
+        <v>8</v>
+      </c>
+      <c r="BF90">
+        <v>2.1</v>
+      </c>
+      <c r="BG90">
+        <v>1.22</v>
+      </c>
+      <c r="BH90">
+        <v>3.55</v>
+      </c>
+      <c r="BI90">
+        <v>1.39</v>
+      </c>
+      <c r="BJ90">
+        <v>2.7</v>
+      </c>
+      <c r="BK90">
+        <v>1.65</v>
+      </c>
+      <c r="BL90">
+        <v>2.03</v>
+      </c>
+      <c r="BM90">
+        <v>2.16</v>
+      </c>
+      <c r="BN90">
+        <v>1.7</v>
+      </c>
+      <c r="BO90">
+        <v>2.72</v>
+      </c>
+      <c r="BP90">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7834397</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45795.85416666666</v>
+      </c>
+      <c r="F91">
+        <v>9</v>
+      </c>
+      <c r="G91" t="s">
+        <v>88</v>
+      </c>
+      <c r="H91" t="s">
+        <v>87</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>104</v>
+      </c>
+      <c r="P91" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q91">
+        <v>2.14</v>
+      </c>
+      <c r="R91">
+        <v>2.25</v>
+      </c>
+      <c r="S91">
+        <v>5.75</v>
+      </c>
+      <c r="T91">
+        <v>1.38</v>
+      </c>
+      <c r="U91">
+        <v>2.85</v>
+      </c>
+      <c r="V91">
+        <v>3.08</v>
+      </c>
+      <c r="W91">
+        <v>1.39</v>
+      </c>
+      <c r="X91">
+        <v>7</v>
+      </c>
+      <c r="Y91">
+        <v>1.06</v>
+      </c>
+      <c r="Z91">
+        <v>1.6</v>
+      </c>
+      <c r="AA91">
+        <v>3.9</v>
+      </c>
+      <c r="AB91">
+        <v>5.6</v>
+      </c>
+      <c r="AC91">
+        <v>1.04</v>
+      </c>
+      <c r="AD91">
+        <v>8.5</v>
+      </c>
+      <c r="AE91">
+        <v>1.3</v>
+      </c>
+      <c r="AF91">
+        <v>3.2</v>
+      </c>
+      <c r="AG91">
+        <v>2.03</v>
+      </c>
+      <c r="AH91">
+        <v>1.75</v>
+      </c>
+      <c r="AI91">
+        <v>1.93</v>
+      </c>
+      <c r="AJ91">
+        <v>1.69</v>
+      </c>
+      <c r="AK91">
+        <v>1.26</v>
+      </c>
+      <c r="AL91">
+        <v>1.2</v>
+      </c>
+      <c r="AM91">
+        <v>2.32</v>
+      </c>
+      <c r="AN91">
+        <v>2</v>
+      </c>
+      <c r="AO91">
+        <v>0.5</v>
+      </c>
+      <c r="AP91">
+        <v>1.75</v>
+      </c>
+      <c r="AQ91">
+        <v>0.6</v>
+      </c>
+      <c r="AR91">
+        <v>2.04</v>
+      </c>
+      <c r="AS91">
+        <v>1.66</v>
+      </c>
+      <c r="AT91">
+        <v>3.7</v>
+      </c>
+      <c r="AU91">
+        <v>12</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>14</v>
+      </c>
+      <c r="AX91">
+        <v>6</v>
+      </c>
+      <c r="AY91">
+        <v>30</v>
+      </c>
+      <c r="AZ91">
+        <v>11</v>
+      </c>
+      <c r="BA91">
+        <v>6</v>
+      </c>
+      <c r="BB91">
+        <v>2</v>
+      </c>
+      <c r="BC91">
+        <v>8</v>
+      </c>
+      <c r="BD91">
+        <v>1.22</v>
+      </c>
+      <c r="BE91">
+        <v>8</v>
+      </c>
+      <c r="BF91">
+        <v>3.65</v>
+      </c>
+      <c r="BG91">
+        <v>1.15</v>
+      </c>
+      <c r="BH91">
+        <v>4.25</v>
+      </c>
+      <c r="BI91">
+        <v>1.35</v>
+      </c>
+      <c r="BJ91">
+        <v>2.77</v>
+      </c>
+      <c r="BK91">
+        <v>1.57</v>
+      </c>
+      <c r="BL91">
+        <v>2.1</v>
+      </c>
+      <c r="BM91">
+        <v>2.06</v>
+      </c>
+      <c r="BN91">
+        <v>1.73</v>
+      </c>
+      <c r="BO91">
+        <v>2.35</v>
+      </c>
+      <c r="BP91">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="204">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,18 @@
     <t>['24']</t>
   </si>
   <si>
+    <t>['42', '87']</t>
+  </si>
+  <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['7']</t>
+  </si>
+  <si>
+    <t>['45+4']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -599,6 +611,21 @@
   </si>
   <si>
     <t>['72', '78']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['53', '89']</t>
+  </si>
+  <si>
+    <t>['73', '87']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['34', '41']</t>
   </si>
 </sst>
 </file>
@@ -960,7 +987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1297,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>0.8</v>
@@ -1631,7 +1658,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1709,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1915,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0.2</v>
@@ -2043,7 +2070,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2124,7 +2151,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ6">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2249,7 +2276,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2330,7 +2357,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ7">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2533,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>0.4</v>
@@ -2661,7 +2688,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2742,7 +2769,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2867,7 +2894,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2948,7 +2975,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ10">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3073,7 +3100,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3151,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3975,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
         <v>0.75</v>
@@ -4103,7 +4130,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4181,7 +4208,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4309,7 +4336,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4387,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4515,7 +4542,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4593,10 +4620,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5008,7 +5035,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5133,7 +5160,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5214,7 +5241,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5417,7 +5444,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ22">
         <v>0.4</v>
@@ -5545,7 +5572,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5829,10 +5856,10 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ24">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR24">
         <v>1.52</v>
@@ -6163,7 +6190,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6244,7 +6271,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ26">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.72</v>
@@ -6369,7 +6396,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6447,10 +6474,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>1.57</v>
@@ -6575,7 +6602,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -6653,10 +6680,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>1.47</v>
@@ -6859,10 +6886,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.73</v>
@@ -7065,10 +7092,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR30">
         <v>0.8</v>
@@ -7193,7 +7220,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7271,7 +7298,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ31">
         <v>0.4</v>
@@ -7605,7 +7632,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7811,7 +7838,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7889,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -8017,7 +8044,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8223,7 +8250,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8713,7 +8740,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ38">
         <v>0.6</v>
@@ -9334,7 +9361,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR41">
         <v>0.97</v>
@@ -9459,7 +9486,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9746,7 +9773,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.55</v>
@@ -9949,10 +9976,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>1.34</v>
@@ -10077,7 +10104,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10158,7 +10185,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ45">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.45</v>
@@ -10361,7 +10388,7 @@
         <v>0.5</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ46">
         <v>0.4</v>
@@ -10489,7 +10516,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10567,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -10695,7 +10722,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10773,7 +10800,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48">
         <v>3</v>
@@ -10901,7 +10928,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -10979,7 +11006,7 @@
         <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ49">
         <v>0.4</v>
@@ -11185,10 +11212,10 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR50">
         <v>1.82</v>
@@ -11725,7 +11752,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11931,7 +11958,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -12215,7 +12242,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ55">
         <v>0.6</v>
@@ -12630,7 +12657,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ57">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR57">
         <v>2.08</v>
@@ -12833,10 +12860,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR58">
         <v>1.54</v>
@@ -13167,7 +13194,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13245,7 +13272,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ60">
         <v>0.25</v>
@@ -13373,7 +13400,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13657,7 +13684,7 @@
         <v>0.67</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>0.6</v>
@@ -13863,7 +13890,7 @@
         <v>0.33</v>
       </c>
       <c r="AP63">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ63">
         <v>0.2</v>
@@ -13991,7 +14018,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14072,7 +14099,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ64">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14609,7 +14636,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -14893,10 +14920,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ68">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR68">
         <v>1.24</v>
@@ -15021,7 +15048,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15102,7 +15129,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ69">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR69">
         <v>1.46</v>
@@ -15305,10 +15332,10 @@
         <v>0.67</v>
       </c>
       <c r="AP70">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ70">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.94</v>
@@ -15433,7 +15460,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15717,7 +15744,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ72">
         <v>0</v>
@@ -15845,7 +15872,7 @@
         <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q73">
         <v>3.68</v>
@@ -15926,7 +15953,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR73">
         <v>1.93</v>
@@ -16051,7 +16078,7 @@
         <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q74">
         <v>3.37</v>
@@ -16129,7 +16156,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74">
         <v>1.75</v>
@@ -16257,7 +16284,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>2.75</v>
@@ -16335,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="AP75">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ75">
         <v>0</v>
@@ -16544,7 +16571,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR76">
         <v>2.03</v>
@@ -16669,7 +16696,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16747,10 +16774,10 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR77">
         <v>1.89</v>
@@ -16953,7 +16980,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
         <v>0.75</v>
@@ -17081,7 +17108,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q79">
         <v>2.59</v>
@@ -17159,7 +17186,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ79">
         <v>0.8</v>
@@ -17368,7 +17395,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ80">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR80">
         <v>2.13</v>
@@ -18111,7 +18138,7 @@
         <v>154</v>
       </c>
       <c r="P84" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18189,7 +18216,7 @@
         <v>0.33</v>
       </c>
       <c r="AP84">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ84">
         <v>0.25</v>
@@ -18317,7 +18344,7 @@
         <v>155</v>
       </c>
       <c r="P85" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q85">
         <v>4.56</v>
@@ -18604,7 +18631,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.66</v>
@@ -19141,7 +19168,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>4.39</v>
@@ -19219,7 +19246,7 @@
         <v>3</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ89">
         <v>3</v>
@@ -19634,7 +19661,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ91">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>2.04</v>
@@ -19710,6 +19737,1860 @@
       </c>
       <c r="BP91">
         <v>1.46</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7834401</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45801.77083333334</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" t="s">
+        <v>77</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>2</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" t="s">
+        <v>158</v>
+      </c>
+      <c r="P92" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q92">
+        <v>2.38</v>
+      </c>
+      <c r="R92">
+        <v>1.98</v>
+      </c>
+      <c r="S92">
+        <v>5.5</v>
+      </c>
+      <c r="T92">
+        <v>1.45</v>
+      </c>
+      <c r="U92">
+        <v>2.5</v>
+      </c>
+      <c r="V92">
+        <v>3.3</v>
+      </c>
+      <c r="W92">
+        <v>1.28</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.03</v>
+      </c>
+      <c r="Z92">
+        <v>1.8</v>
+      </c>
+      <c r="AA92">
+        <v>3.4</v>
+      </c>
+      <c r="AB92">
+        <v>4.45</v>
+      </c>
+      <c r="AC92">
+        <v>1.06</v>
+      </c>
+      <c r="AD92">
+        <v>7.8</v>
+      </c>
+      <c r="AE92">
+        <v>1.4</v>
+      </c>
+      <c r="AF92">
+        <v>2.5</v>
+      </c>
+      <c r="AG92">
+        <v>2.38</v>
+      </c>
+      <c r="AH92">
+        <v>1.58</v>
+      </c>
+      <c r="AI92">
+        <v>2.2</v>
+      </c>
+      <c r="AJ92">
+        <v>1.62</v>
+      </c>
+      <c r="AK92">
+        <v>1.3</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>2.05</v>
+      </c>
+      <c r="AN92">
+        <v>2.5</v>
+      </c>
+      <c r="AO92">
+        <v>0</v>
+      </c>
+      <c r="AP92">
+        <v>2.6</v>
+      </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <v>1.88</v>
+      </c>
+      <c r="AS92">
+        <v>1.65</v>
+      </c>
+      <c r="AT92">
+        <v>3.53</v>
+      </c>
+      <c r="AU92">
+        <v>6</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>12</v>
+      </c>
+      <c r="AX92">
+        <v>5</v>
+      </c>
+      <c r="AY92">
+        <v>21</v>
+      </c>
+      <c r="AZ92">
+        <v>9</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>2</v>
+      </c>
+      <c r="BC92">
+        <v>8</v>
+      </c>
+      <c r="BD92">
+        <v>1.42</v>
+      </c>
+      <c r="BE92">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF92">
+        <v>3.4</v>
+      </c>
+      <c r="BG92">
+        <v>1.23</v>
+      </c>
+      <c r="BH92">
+        <v>3.8</v>
+      </c>
+      <c r="BI92">
+        <v>1.34</v>
+      </c>
+      <c r="BJ92">
+        <v>2.65</v>
+      </c>
+      <c r="BK92">
+        <v>1.63</v>
+      </c>
+      <c r="BL92">
+        <v>2.05</v>
+      </c>
+      <c r="BM92">
+        <v>2</v>
+      </c>
+      <c r="BN92">
+        <v>1.65</v>
+      </c>
+      <c r="BO92">
+        <v>2.53</v>
+      </c>
+      <c r="BP92">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7834404</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45801.77083333334</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93" t="s">
+        <v>87</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>93</v>
+      </c>
+      <c r="P93" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q93">
+        <v>2.38</v>
+      </c>
+      <c r="R93">
+        <v>2.05</v>
+      </c>
+      <c r="S93">
+        <v>5.99</v>
+      </c>
+      <c r="T93">
+        <v>1.44</v>
+      </c>
+      <c r="U93">
+        <v>2.5</v>
+      </c>
+      <c r="V93">
+        <v>3.1</v>
+      </c>
+      <c r="W93">
+        <v>1.29</v>
+      </c>
+      <c r="X93">
+        <v>8</v>
+      </c>
+      <c r="Y93">
+        <v>1.05</v>
+      </c>
+      <c r="Z93">
+        <v>1.68</v>
+      </c>
+      <c r="AA93">
+        <v>3.5</v>
+      </c>
+      <c r="AB93">
+        <v>5.1</v>
+      </c>
+      <c r="AC93">
+        <v>1.03</v>
+      </c>
+      <c r="AD93">
+        <v>7.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.44</v>
+      </c>
+      <c r="AF93">
+        <v>2.9</v>
+      </c>
+      <c r="AG93">
+        <v>2.33</v>
+      </c>
+      <c r="AH93">
+        <v>1.64</v>
+      </c>
+      <c r="AI93">
+        <v>2.15</v>
+      </c>
+      <c r="AJ93">
+        <v>1.62</v>
+      </c>
+      <c r="AK93">
+        <v>1.3</v>
+      </c>
+      <c r="AL93">
+        <v>1.22</v>
+      </c>
+      <c r="AM93">
+        <v>2.1</v>
+      </c>
+      <c r="AN93">
+        <v>1.8</v>
+      </c>
+      <c r="AO93">
+        <v>0.6</v>
+      </c>
+      <c r="AP93">
+        <v>1.5</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1.49</v>
+      </c>
+      <c r="AS93">
+        <v>1.56</v>
+      </c>
+      <c r="AT93">
+        <v>3.05</v>
+      </c>
+      <c r="AU93">
+        <v>4</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>9</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
+        <v>19</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
+        <v>5</v>
+      </c>
+      <c r="BB93">
+        <v>4</v>
+      </c>
+      <c r="BC93">
+        <v>9</v>
+      </c>
+      <c r="BD93">
+        <v>1.41</v>
+      </c>
+      <c r="BE93">
+        <v>7.5</v>
+      </c>
+      <c r="BF93">
+        <v>3.15</v>
+      </c>
+      <c r="BG93">
+        <v>1.17</v>
+      </c>
+      <c r="BH93">
+        <v>3.6</v>
+      </c>
+      <c r="BI93">
+        <v>1.44</v>
+      </c>
+      <c r="BJ93">
+        <v>2.55</v>
+      </c>
+      <c r="BK93">
+        <v>1.74</v>
+      </c>
+      <c r="BL93">
+        <v>2.11</v>
+      </c>
+      <c r="BM93">
+        <v>2.07</v>
+      </c>
+      <c r="BN93">
+        <v>1.7</v>
+      </c>
+      <c r="BO93">
+        <v>2.7</v>
+      </c>
+      <c r="BP93">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7834406</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45801.875</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>83</v>
+      </c>
+      <c r="H94" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94" t="s">
+        <v>93</v>
+      </c>
+      <c r="P94" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q94">
+        <v>2.53</v>
+      </c>
+      <c r="R94">
+        <v>1.96</v>
+      </c>
+      <c r="S94">
+        <v>5.1</v>
+      </c>
+      <c r="T94">
+        <v>1.48</v>
+      </c>
+      <c r="U94">
+        <v>2.61</v>
+      </c>
+      <c r="V94">
+        <v>3.32</v>
+      </c>
+      <c r="W94">
+        <v>1.3</v>
+      </c>
+      <c r="X94">
+        <v>8</v>
+      </c>
+      <c r="Y94">
+        <v>1.05</v>
+      </c>
+      <c r="Z94">
+        <v>1.87</v>
+      </c>
+      <c r="AA94">
+        <v>3.2</v>
+      </c>
+      <c r="AB94">
+        <v>4.2</v>
+      </c>
+      <c r="AC94">
+        <v>1.07</v>
+      </c>
+      <c r="AD94">
+        <v>7</v>
+      </c>
+      <c r="AE94">
+        <v>1.43</v>
+      </c>
+      <c r="AF94">
+        <v>2.81</v>
+      </c>
+      <c r="AG94">
+        <v>2.42</v>
+      </c>
+      <c r="AH94">
+        <v>1.58</v>
+      </c>
+      <c r="AI94">
+        <v>1.95</v>
+      </c>
+      <c r="AJ94">
+        <v>1.7</v>
+      </c>
+      <c r="AK94">
+        <v>1.33</v>
+      </c>
+      <c r="AL94">
+        <v>1.25</v>
+      </c>
+      <c r="AM94">
+        <v>1.85</v>
+      </c>
+      <c r="AN94">
+        <v>2</v>
+      </c>
+      <c r="AO94">
+        <v>0.25</v>
+      </c>
+      <c r="AP94">
+        <v>1.8</v>
+      </c>
+      <c r="AQ94">
+        <v>0.4</v>
+      </c>
+      <c r="AR94">
+        <v>2.33</v>
+      </c>
+      <c r="AS94">
+        <v>1.15</v>
+      </c>
+      <c r="AT94">
+        <v>3.48</v>
+      </c>
+      <c r="AU94">
+        <v>3</v>
+      </c>
+      <c r="AV94">
+        <v>0</v>
+      </c>
+      <c r="AW94">
+        <v>11</v>
+      </c>
+      <c r="AX94">
+        <v>7</v>
+      </c>
+      <c r="AY94">
+        <v>16</v>
+      </c>
+      <c r="AZ94">
+        <v>7</v>
+      </c>
+      <c r="BA94">
+        <v>1</v>
+      </c>
+      <c r="BB94">
+        <v>1</v>
+      </c>
+      <c r="BC94">
+        <v>2</v>
+      </c>
+      <c r="BD94">
+        <v>1.34</v>
+      </c>
+      <c r="BE94">
+        <v>10</v>
+      </c>
+      <c r="BF94">
+        <v>3.4</v>
+      </c>
+      <c r="BG94">
+        <v>1.19</v>
+      </c>
+      <c r="BH94">
+        <v>3.92</v>
+      </c>
+      <c r="BI94">
+        <v>1.36</v>
+      </c>
+      <c r="BJ94">
+        <v>2.6</v>
+      </c>
+      <c r="BK94">
+        <v>1.66</v>
+      </c>
+      <c r="BL94">
+        <v>2.19</v>
+      </c>
+      <c r="BM94">
+        <v>2</v>
+      </c>
+      <c r="BN94">
+        <v>1.73</v>
+      </c>
+      <c r="BO94">
+        <v>2.5</v>
+      </c>
+      <c r="BP94">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7834407</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45802.45833333334</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>72</v>
+      </c>
+      <c r="H95" t="s">
+        <v>78</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>159</v>
+      </c>
+      <c r="P95" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q95">
+        <v>3.18</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+      <c r="S95">
+        <v>3.6</v>
+      </c>
+      <c r="T95">
+        <v>1.42</v>
+      </c>
+      <c r="U95">
+        <v>2.57</v>
+      </c>
+      <c r="V95">
+        <v>2.9</v>
+      </c>
+      <c r="W95">
+        <v>1.36</v>
+      </c>
+      <c r="X95">
+        <v>7</v>
+      </c>
+      <c r="Y95">
+        <v>1.01</v>
+      </c>
+      <c r="Z95">
+        <v>2.27</v>
+      </c>
+      <c r="AA95">
+        <v>2.93</v>
+      </c>
+      <c r="AB95">
+        <v>2.96</v>
+      </c>
+      <c r="AC95">
+        <v>1.07</v>
+      </c>
+      <c r="AD95">
+        <v>8.6</v>
+      </c>
+      <c r="AE95">
+        <v>1.33</v>
+      </c>
+      <c r="AF95">
+        <v>3</v>
+      </c>
+      <c r="AG95">
+        <v>2.25</v>
+      </c>
+      <c r="AH95">
+        <v>1.6</v>
+      </c>
+      <c r="AI95">
+        <v>1.85</v>
+      </c>
+      <c r="AJ95">
+        <v>1.89</v>
+      </c>
+      <c r="AK95">
+        <v>1.35</v>
+      </c>
+      <c r="AL95">
+        <v>1.3</v>
+      </c>
+      <c r="AM95">
+        <v>1.53</v>
+      </c>
+      <c r="AN95">
+        <v>1.6</v>
+      </c>
+      <c r="AO95">
+        <v>1</v>
+      </c>
+      <c r="AP95">
+        <v>1.83</v>
+      </c>
+      <c r="AQ95">
+        <v>0.8</v>
+      </c>
+      <c r="AR95">
+        <v>1.25</v>
+      </c>
+      <c r="AS95">
+        <v>1.11</v>
+      </c>
+      <c r="AT95">
+        <v>2.36</v>
+      </c>
+      <c r="AU95">
+        <v>3</v>
+      </c>
+      <c r="AV95">
+        <v>4</v>
+      </c>
+      <c r="AW95">
+        <v>7</v>
+      </c>
+      <c r="AX95">
+        <v>13</v>
+      </c>
+      <c r="AY95">
+        <v>12</v>
+      </c>
+      <c r="AZ95">
+        <v>22</v>
+      </c>
+      <c r="BA95">
+        <v>4</v>
+      </c>
+      <c r="BB95">
+        <v>17</v>
+      </c>
+      <c r="BC95">
+        <v>21</v>
+      </c>
+      <c r="BD95">
+        <v>1.74</v>
+      </c>
+      <c r="BE95">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF95">
+        <v>2.3</v>
+      </c>
+      <c r="BG95">
+        <v>1.24</v>
+      </c>
+      <c r="BH95">
+        <v>3.55</v>
+      </c>
+      <c r="BI95">
+        <v>1.48</v>
+      </c>
+      <c r="BJ95">
+        <v>2.5</v>
+      </c>
+      <c r="BK95">
+        <v>1.8</v>
+      </c>
+      <c r="BL95">
+        <v>1.94</v>
+      </c>
+      <c r="BM95">
+        <v>2.26</v>
+      </c>
+      <c r="BN95">
+        <v>1.6</v>
+      </c>
+      <c r="BO95">
+        <v>2.63</v>
+      </c>
+      <c r="BP95">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7834410</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45802.66666666666</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>85</v>
+      </c>
+      <c r="H96" t="s">
+        <v>88</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+      <c r="L96">
+        <v>1</v>
+      </c>
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>2</v>
+      </c>
+      <c r="O96" t="s">
+        <v>160</v>
+      </c>
+      <c r="P96" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q96">
+        <v>2.97</v>
+      </c>
+      <c r="R96">
+        <v>2</v>
+      </c>
+      <c r="S96">
+        <v>3.75</v>
+      </c>
+      <c r="T96">
+        <v>1.45</v>
+      </c>
+      <c r="U96">
+        <v>2.5</v>
+      </c>
+      <c r="V96">
+        <v>3.1</v>
+      </c>
+      <c r="W96">
+        <v>1.33</v>
+      </c>
+      <c r="X96">
+        <v>9</v>
+      </c>
+      <c r="Y96">
+        <v>1.06</v>
+      </c>
+      <c r="Z96">
+        <v>2.67</v>
+      </c>
+      <c r="AA96">
+        <v>3.03</v>
+      </c>
+      <c r="AB96">
+        <v>2.41</v>
+      </c>
+      <c r="AC96">
+        <v>1.08</v>
+      </c>
+      <c r="AD96">
+        <v>7.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.35</v>
+      </c>
+      <c r="AF96">
+        <v>2.8</v>
+      </c>
+      <c r="AG96">
+        <v>2.05</v>
+      </c>
+      <c r="AH96">
+        <v>1.7</v>
+      </c>
+      <c r="AI96">
+        <v>1.83</v>
+      </c>
+      <c r="AJ96">
+        <v>1.87</v>
+      </c>
+      <c r="AK96">
+        <v>1.36</v>
+      </c>
+      <c r="AL96">
+        <v>1.3</v>
+      </c>
+      <c r="AM96">
+        <v>1.55</v>
+      </c>
+      <c r="AN96">
+        <v>0.25</v>
+      </c>
+      <c r="AO96">
+        <v>0.6</v>
+      </c>
+      <c r="AP96">
+        <v>0.4</v>
+      </c>
+      <c r="AQ96">
+        <v>0.67</v>
+      </c>
+      <c r="AR96">
+        <v>1.8</v>
+      </c>
+      <c r="AS96">
+        <v>1.25</v>
+      </c>
+      <c r="AT96">
+        <v>3.05</v>
+      </c>
+      <c r="AU96">
+        <v>5</v>
+      </c>
+      <c r="AV96">
+        <v>5</v>
+      </c>
+      <c r="AW96">
+        <v>9</v>
+      </c>
+      <c r="AX96">
+        <v>13</v>
+      </c>
+      <c r="AY96">
+        <v>16</v>
+      </c>
+      <c r="AZ96">
+        <v>21</v>
+      </c>
+      <c r="BA96">
+        <v>6</v>
+      </c>
+      <c r="BB96">
+        <v>4</v>
+      </c>
+      <c r="BC96">
+        <v>10</v>
+      </c>
+      <c r="BD96">
+        <v>1.85</v>
+      </c>
+      <c r="BE96">
+        <v>6.5</v>
+      </c>
+      <c r="BF96">
+        <v>2.1</v>
+      </c>
+      <c r="BG96">
+        <v>1.18</v>
+      </c>
+      <c r="BH96">
+        <v>3.55</v>
+      </c>
+      <c r="BI96">
+        <v>1.44</v>
+      </c>
+      <c r="BJ96">
+        <v>2.58</v>
+      </c>
+      <c r="BK96">
+        <v>1.73</v>
+      </c>
+      <c r="BL96">
+        <v>2.03</v>
+      </c>
+      <c r="BM96">
+        <v>2.1</v>
+      </c>
+      <c r="BN96">
+        <v>1.65</v>
+      </c>
+      <c r="BO96">
+        <v>2.55</v>
+      </c>
+      <c r="BP96">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7834403</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45802.66666666666</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>76</v>
+      </c>
+      <c r="H97" t="s">
+        <v>75</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>2</v>
+      </c>
+      <c r="N97">
+        <v>2</v>
+      </c>
+      <c r="O97" t="s">
+        <v>93</v>
+      </c>
+      <c r="P97" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q97">
+        <v>2.95</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
+        <v>4.25</v>
+      </c>
+      <c r="T97">
+        <v>1.57</v>
+      </c>
+      <c r="U97">
+        <v>2.25</v>
+      </c>
+      <c r="V97">
+        <v>3.6</v>
+      </c>
+      <c r="W97">
+        <v>1.25</v>
+      </c>
+      <c r="X97">
+        <v>11</v>
+      </c>
+      <c r="Y97">
+        <v>1.02</v>
+      </c>
+      <c r="Z97">
+        <v>2.25</v>
+      </c>
+      <c r="AA97">
+        <v>2.93</v>
+      </c>
+      <c r="AB97">
+        <v>2.99</v>
+      </c>
+      <c r="AC97">
+        <v>1.09</v>
+      </c>
+      <c r="AD97">
+        <v>6</v>
+      </c>
+      <c r="AE97">
+        <v>1.55</v>
+      </c>
+      <c r="AF97">
+        <v>2.3</v>
+      </c>
+      <c r="AG97">
+        <v>2.74</v>
+      </c>
+      <c r="AH97">
+        <v>1.42</v>
+      </c>
+      <c r="AI97">
+        <v>2.1</v>
+      </c>
+      <c r="AJ97">
+        <v>1.6</v>
+      </c>
+      <c r="AK97">
+        <v>1.36</v>
+      </c>
+      <c r="AL97">
+        <v>1.3</v>
+      </c>
+      <c r="AM97">
+        <v>1.62</v>
+      </c>
+      <c r="AN97">
+        <v>1.75</v>
+      </c>
+      <c r="AO97">
+        <v>1.75</v>
+      </c>
+      <c r="AP97">
+        <v>1.4</v>
+      </c>
+      <c r="AQ97">
+        <v>2</v>
+      </c>
+      <c r="AR97">
+        <v>1.77</v>
+      </c>
+      <c r="AS97">
+        <v>1.7</v>
+      </c>
+      <c r="AT97">
+        <v>3.47</v>
+      </c>
+      <c r="AU97">
+        <v>4</v>
+      </c>
+      <c r="AV97">
+        <v>4</v>
+      </c>
+      <c r="AW97">
+        <v>10</v>
+      </c>
+      <c r="AX97">
+        <v>4</v>
+      </c>
+      <c r="AY97">
+        <v>20</v>
+      </c>
+      <c r="AZ97">
+        <v>9</v>
+      </c>
+      <c r="BA97">
+        <v>3</v>
+      </c>
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
+        <v>6</v>
+      </c>
+      <c r="BD97">
+        <v>1.8</v>
+      </c>
+      <c r="BE97">
+        <v>6.85</v>
+      </c>
+      <c r="BF97">
+        <v>2.3</v>
+      </c>
+      <c r="BG97">
+        <v>1.2</v>
+      </c>
+      <c r="BH97">
+        <v>3.88</v>
+      </c>
+      <c r="BI97">
+        <v>1.31</v>
+      </c>
+      <c r="BJ97">
+        <v>2.78</v>
+      </c>
+      <c r="BK97">
+        <v>1.81</v>
+      </c>
+      <c r="BL97">
+        <v>2.25</v>
+      </c>
+      <c r="BM97">
+        <v>1.9</v>
+      </c>
+      <c r="BN97">
+        <v>1.8</v>
+      </c>
+      <c r="BO97">
+        <v>2.2</v>
+      </c>
+      <c r="BP97">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7834408</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45802.77083333334</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>86</v>
+      </c>
+      <c r="H98" t="s">
+        <v>89</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>93</v>
+      </c>
+      <c r="P98" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q98">
+        <v>2.85</v>
+      </c>
+      <c r="R98">
+        <v>1.96</v>
+      </c>
+      <c r="S98">
+        <v>4.3</v>
+      </c>
+      <c r="T98">
+        <v>1.5</v>
+      </c>
+      <c r="U98">
+        <v>2.4</v>
+      </c>
+      <c r="V98">
+        <v>3.2</v>
+      </c>
+      <c r="W98">
+        <v>1.27</v>
+      </c>
+      <c r="X98">
+        <v>7.8</v>
+      </c>
+      <c r="Y98">
+        <v>1.04</v>
+      </c>
+      <c r="Z98">
+        <v>2.15</v>
+      </c>
+      <c r="AA98">
+        <v>3.1</v>
+      </c>
+      <c r="AB98">
+        <v>3.6</v>
+      </c>
+      <c r="AC98">
+        <v>1.1</v>
+      </c>
+      <c r="AD98">
+        <v>7</v>
+      </c>
+      <c r="AE98">
+        <v>1.44</v>
+      </c>
+      <c r="AF98">
+        <v>2.6</v>
+      </c>
+      <c r="AG98">
+        <v>2.25</v>
+      </c>
+      <c r="AH98">
+        <v>1.57</v>
+      </c>
+      <c r="AI98">
+        <v>2</v>
+      </c>
+      <c r="AJ98">
+        <v>1.75</v>
+      </c>
+      <c r="AK98">
+        <v>1.35</v>
+      </c>
+      <c r="AL98">
+        <v>1.3</v>
+      </c>
+      <c r="AM98">
+        <v>1.6</v>
+      </c>
+      <c r="AN98">
+        <v>1.75</v>
+      </c>
+      <c r="AO98">
+        <v>0</v>
+      </c>
+      <c r="AP98">
+        <v>1.4</v>
+      </c>
+      <c r="AQ98">
+        <v>0.5</v>
+      </c>
+      <c r="AR98">
+        <v>1.47</v>
+      </c>
+      <c r="AS98">
+        <v>1.19</v>
+      </c>
+      <c r="AT98">
+        <v>2.66</v>
+      </c>
+      <c r="AU98">
+        <v>8</v>
+      </c>
+      <c r="AV98">
+        <v>3</v>
+      </c>
+      <c r="AW98">
+        <v>12</v>
+      </c>
+      <c r="AX98">
+        <v>6</v>
+      </c>
+      <c r="AY98">
+        <v>23</v>
+      </c>
+      <c r="AZ98">
+        <v>12</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>5</v>
+      </c>
+      <c r="BC98">
+        <v>10</v>
+      </c>
+      <c r="BD98">
+        <v>1.65</v>
+      </c>
+      <c r="BE98">
+        <v>6.5</v>
+      </c>
+      <c r="BF98">
+        <v>2.7</v>
+      </c>
+      <c r="BG98">
+        <v>1.29</v>
+      </c>
+      <c r="BH98">
+        <v>3.2</v>
+      </c>
+      <c r="BI98">
+        <v>1.43</v>
+      </c>
+      <c r="BJ98">
+        <v>2.45</v>
+      </c>
+      <c r="BK98">
+        <v>1.75</v>
+      </c>
+      <c r="BL98">
+        <v>1.93</v>
+      </c>
+      <c r="BM98">
+        <v>2.2</v>
+      </c>
+      <c r="BN98">
+        <v>1.6</v>
+      </c>
+      <c r="BO98">
+        <v>2.88</v>
+      </c>
+      <c r="BP98">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7834409</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45802.85416666666</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>70</v>
+      </c>
+      <c r="H99" t="s">
+        <v>74</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>2</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>2</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>93</v>
+      </c>
+      <c r="P99" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q99">
+        <v>3.22</v>
+      </c>
+      <c r="R99">
+        <v>1.95</v>
+      </c>
+      <c r="S99">
+        <v>4.2</v>
+      </c>
+      <c r="T99">
+        <v>1.56</v>
+      </c>
+      <c r="U99">
+        <v>2.4</v>
+      </c>
+      <c r="V99">
+        <v>3.56</v>
+      </c>
+      <c r="W99">
+        <v>1.29</v>
+      </c>
+      <c r="X99">
+        <v>8</v>
+      </c>
+      <c r="Y99">
+        <v>1</v>
+      </c>
+      <c r="Z99">
+        <v>2.37</v>
+      </c>
+      <c r="AA99">
+        <v>3.07</v>
+      </c>
+      <c r="AB99">
+        <v>3</v>
+      </c>
+      <c r="AC99">
+        <v>1.1</v>
+      </c>
+      <c r="AD99">
+        <v>6.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.48</v>
+      </c>
+      <c r="AF99">
+        <v>2.72</v>
+      </c>
+      <c r="AG99">
+        <v>2.4</v>
+      </c>
+      <c r="AH99">
+        <v>1.57</v>
+      </c>
+      <c r="AI99">
+        <v>2.12</v>
+      </c>
+      <c r="AJ99">
+        <v>1.76</v>
+      </c>
+      <c r="AK99">
+        <v>1.4</v>
+      </c>
+      <c r="AL99">
+        <v>1.3</v>
+      </c>
+      <c r="AM99">
+        <v>1.62</v>
+      </c>
+      <c r="AN99">
+        <v>1.75</v>
+      </c>
+      <c r="AO99">
+        <v>1</v>
+      </c>
+      <c r="AP99">
+        <v>1.4</v>
+      </c>
+      <c r="AQ99">
+        <v>1.4</v>
+      </c>
+      <c r="AR99">
+        <v>1.53</v>
+      </c>
+      <c r="AS99">
+        <v>1.39</v>
+      </c>
+      <c r="AT99">
+        <v>2.92</v>
+      </c>
+      <c r="AU99">
+        <v>2</v>
+      </c>
+      <c r="AV99">
+        <v>9</v>
+      </c>
+      <c r="AW99">
+        <v>9</v>
+      </c>
+      <c r="AX99">
+        <v>9</v>
+      </c>
+      <c r="AY99">
+        <v>16</v>
+      </c>
+      <c r="AZ99">
+        <v>21</v>
+      </c>
+      <c r="BA99">
+        <v>6</v>
+      </c>
+      <c r="BB99">
+        <v>8</v>
+      </c>
+      <c r="BC99">
+        <v>14</v>
+      </c>
+      <c r="BD99">
+        <v>1.73</v>
+      </c>
+      <c r="BE99">
+        <v>9.5</v>
+      </c>
+      <c r="BF99">
+        <v>2.5</v>
+      </c>
+      <c r="BG99">
+        <v>1.15</v>
+      </c>
+      <c r="BH99">
+        <v>4.75</v>
+      </c>
+      <c r="BI99">
+        <v>1.33</v>
+      </c>
+      <c r="BJ99">
+        <v>3.08</v>
+      </c>
+      <c r="BK99">
+        <v>1.57</v>
+      </c>
+      <c r="BL99">
+        <v>2.25</v>
+      </c>
+      <c r="BM99">
+        <v>1.93</v>
+      </c>
+      <c r="BN99">
+        <v>1.71</v>
+      </c>
+      <c r="BO99">
+        <v>2.55</v>
+      </c>
+      <c r="BP99">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7834405</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45803.83333333334</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>79</v>
+      </c>
+      <c r="H100" t="s">
+        <v>71</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+      <c r="L100">
+        <v>1</v>
+      </c>
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>1</v>
+      </c>
+      <c r="O100" t="s">
+        <v>161</v>
+      </c>
+      <c r="P100" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q100">
+        <v>1.91</v>
+      </c>
+      <c r="R100">
+        <v>2.39</v>
+      </c>
+      <c r="S100">
+        <v>7.6</v>
+      </c>
+      <c r="T100">
+        <v>1.33</v>
+      </c>
+      <c r="U100">
+        <v>3</v>
+      </c>
+      <c r="V100">
+        <v>2.76</v>
+      </c>
+      <c r="W100">
+        <v>1.42</v>
+      </c>
+      <c r="X100">
+        <v>5.8</v>
+      </c>
+      <c r="Y100">
+        <v>1.09</v>
+      </c>
+      <c r="Z100">
+        <v>1.36</v>
+      </c>
+      <c r="AA100">
+        <v>4.3</v>
+      </c>
+      <c r="AB100">
+        <v>8.1</v>
+      </c>
+      <c r="AC100">
+        <v>1.02</v>
+      </c>
+      <c r="AD100">
+        <v>13</v>
+      </c>
+      <c r="AE100">
+        <v>1.27</v>
+      </c>
+      <c r="AF100">
+        <v>3.9</v>
+      </c>
+      <c r="AG100">
+        <v>1.8</v>
+      </c>
+      <c r="AH100">
+        <v>1.91</v>
+      </c>
+      <c r="AI100">
+        <v>2.23</v>
+      </c>
+      <c r="AJ100">
+        <v>1.7</v>
+      </c>
+      <c r="AK100">
+        <v>1.2</v>
+      </c>
+      <c r="AL100">
+        <v>1.21</v>
+      </c>
+      <c r="AM100">
+        <v>3</v>
+      </c>
+      <c r="AN100">
+        <v>2</v>
+      </c>
+      <c r="AO100">
+        <v>0</v>
+      </c>
+      <c r="AP100">
+        <v>2.17</v>
+      </c>
+      <c r="AQ100">
+        <v>0</v>
+      </c>
+      <c r="AR100">
+        <v>1.75</v>
+      </c>
+      <c r="AS100">
+        <v>0.84</v>
+      </c>
+      <c r="AT100">
+        <v>2.59</v>
+      </c>
+      <c r="AU100">
+        <v>6</v>
+      </c>
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>7</v>
+      </c>
+      <c r="AX100">
+        <v>5</v>
+      </c>
+      <c r="AY100">
+        <v>15</v>
+      </c>
+      <c r="AZ100">
+        <v>8</v>
+      </c>
+      <c r="BA100">
+        <v>6</v>
+      </c>
+      <c r="BB100">
+        <v>2</v>
+      </c>
+      <c r="BC100">
+        <v>8</v>
+      </c>
+      <c r="BD100">
+        <v>1.32</v>
+      </c>
+      <c r="BE100">
+        <v>11</v>
+      </c>
+      <c r="BF100">
+        <v>3.8</v>
+      </c>
+      <c r="BG100">
+        <v>1.19</v>
+      </c>
+      <c r="BH100">
+        <v>4.33</v>
+      </c>
+      <c r="BI100">
+        <v>1.33</v>
+      </c>
+      <c r="BJ100">
+        <v>3.2</v>
+      </c>
+      <c r="BK100">
+        <v>1.5</v>
+      </c>
+      <c r="BL100">
+        <v>2.5</v>
+      </c>
+      <c r="BM100">
+        <v>1.85</v>
+      </c>
+      <c r="BN100">
+        <v>1.85</v>
+      </c>
+      <c r="BO100">
+        <v>2.28</v>
+      </c>
+      <c r="BP100">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -502,6 +502,9 @@
     <t>['45+4']</t>
   </si>
   <si>
+    <t>['53', '73']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -626,6 +629,12 @@
   </si>
   <si>
     <t>['34', '41']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['2', '34']</t>
   </si>
 </sst>
 </file>
@@ -987,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1658,7 +1667,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2070,7 +2079,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2276,7 +2285,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2688,7 +2697,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2766,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -2894,7 +2903,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -2972,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10">
         <v>0.4</v>
@@ -3100,7 +3109,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -4005,7 +4014,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4130,7 +4139,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4211,7 +4220,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4336,7 +4345,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4542,7 +4551,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5160,7 +5169,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5572,7 +5581,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6062,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
         <v>0.2</v>
@@ -6190,7 +6199,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6268,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6396,7 +6405,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6602,7 +6611,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7220,7 +7229,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7632,7 +7641,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7713,7 +7722,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR33">
         <v>1.9</v>
@@ -7838,7 +7847,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -7919,7 +7928,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.15</v>
@@ -8044,7 +8053,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8250,7 +8259,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -9486,7 +9495,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9770,7 +9779,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43">
         <v>2</v>
@@ -10104,7 +10113,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10516,7 +10525,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10722,7 +10731,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10928,7 +10937,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11418,7 +11427,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ51">
         <v>0.5</v>
@@ -11752,7 +11761,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11833,7 +11842,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ53">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR53">
         <v>1.35</v>
@@ -11958,7 +11967,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -13194,7 +13203,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13400,7 +13409,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13481,7 +13490,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ61">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.87</v>
@@ -14018,7 +14027,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14508,7 +14517,7 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ66">
         <v>0.4</v>
@@ -14636,7 +14645,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -14714,7 +14723,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ67">
         <v>3</v>
@@ -15048,7 +15057,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15460,7 +15469,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15872,7 +15881,7 @@
         <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q73">
         <v>3.68</v>
@@ -16078,7 +16087,7 @@
         <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>3.37</v>
@@ -16159,7 +16168,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ74">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>1.19</v>
@@ -16284,7 +16293,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>2.75</v>
@@ -16696,7 +16705,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -16983,7 +16992,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR78">
         <v>1.7</v>
@@ -17108,7 +17117,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q79">
         <v>2.59</v>
@@ -18010,7 +18019,7 @@
         <v>0.75</v>
       </c>
       <c r="AP83">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
         <v>0.6</v>
@@ -18138,7 +18147,7 @@
         <v>154</v>
       </c>
       <c r="P84" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18344,7 +18353,7 @@
         <v>155</v>
       </c>
       <c r="P85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q85">
         <v>4.56</v>
@@ -18834,7 +18843,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ87">
         <v>0.4</v>
@@ -19168,7 +19177,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q89">
         <v>4.39</v>
@@ -19786,7 +19795,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -19992,7 +20001,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20816,7 +20825,7 @@
         <v>93</v>
       </c>
       <c r="P97" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q97">
         <v>2.95</v>
@@ -21022,7 +21031,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q98">
         <v>2.85</v>
@@ -21228,7 +21237,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q99">
         <v>3.22</v>
@@ -21591,6 +21600,418 @@
       </c>
       <c r="BP100">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7834418</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45808.77083333334</v>
+      </c>
+      <c r="F101">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s">
+        <v>73</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>2</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>162</v>
+      </c>
+      <c r="P101" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q101">
+        <v>2.56</v>
+      </c>
+      <c r="R101">
+        <v>1.97</v>
+      </c>
+      <c r="S101">
+        <v>5.25</v>
+      </c>
+      <c r="T101">
+        <v>1.5</v>
+      </c>
+      <c r="U101">
+        <v>2.53</v>
+      </c>
+      <c r="V101">
+        <v>3.35</v>
+      </c>
+      <c r="W101">
+        <v>1.3</v>
+      </c>
+      <c r="X101">
+        <v>10</v>
+      </c>
+      <c r="Y101">
+        <v>1.01</v>
+      </c>
+      <c r="Z101">
+        <v>1.86</v>
+      </c>
+      <c r="AA101">
+        <v>3.22</v>
+      </c>
+      <c r="AB101">
+        <v>4.95</v>
+      </c>
+      <c r="AC101">
+        <v>1.07</v>
+      </c>
+      <c r="AD101">
+        <v>6</v>
+      </c>
+      <c r="AE101">
+        <v>1.43</v>
+      </c>
+      <c r="AF101">
+        <v>2.5</v>
+      </c>
+      <c r="AG101">
+        <v>2.5</v>
+      </c>
+      <c r="AH101">
+        <v>1.5</v>
+      </c>
+      <c r="AI101">
+        <v>2</v>
+      </c>
+      <c r="AJ101">
+        <v>1.67</v>
+      </c>
+      <c r="AK101">
+        <v>1.36</v>
+      </c>
+      <c r="AL101">
+        <v>1.33</v>
+      </c>
+      <c r="AM101">
+        <v>1.94</v>
+      </c>
+      <c r="AN101">
+        <v>2.2</v>
+      </c>
+      <c r="AO101">
+        <v>0.75</v>
+      </c>
+      <c r="AP101">
+        <v>2.33</v>
+      </c>
+      <c r="AQ101">
+        <v>0.6</v>
+      </c>
+      <c r="AR101">
+        <v>1.36</v>
+      </c>
+      <c r="AS101">
+        <v>1.28</v>
+      </c>
+      <c r="AT101">
+        <v>2.64</v>
+      </c>
+      <c r="AU101">
+        <v>8</v>
+      </c>
+      <c r="AV101">
+        <v>5</v>
+      </c>
+      <c r="AW101">
+        <v>6</v>
+      </c>
+      <c r="AX101">
+        <v>10</v>
+      </c>
+      <c r="AY101">
+        <v>15</v>
+      </c>
+      <c r="AZ101">
+        <v>17</v>
+      </c>
+      <c r="BA101">
+        <v>5</v>
+      </c>
+      <c r="BB101">
+        <v>3</v>
+      </c>
+      <c r="BC101">
+        <v>8</v>
+      </c>
+      <c r="BD101">
+        <v>1.51</v>
+      </c>
+      <c r="BE101">
+        <v>6.75</v>
+      </c>
+      <c r="BF101">
+        <v>3.2</v>
+      </c>
+      <c r="BG101">
+        <v>1.25</v>
+      </c>
+      <c r="BH101">
+        <v>3.3</v>
+      </c>
+      <c r="BI101">
+        <v>1.42</v>
+      </c>
+      <c r="BJ101">
+        <v>2.57</v>
+      </c>
+      <c r="BK101">
+        <v>1.7</v>
+      </c>
+      <c r="BL101">
+        <v>2.09</v>
+      </c>
+      <c r="BM101">
+        <v>2.1</v>
+      </c>
+      <c r="BN101">
+        <v>1.67</v>
+      </c>
+      <c r="BO101">
+        <v>2.62</v>
+      </c>
+      <c r="BP101">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7834412</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45808.875</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>77</v>
+      </c>
+      <c r="H102" t="s">
+        <v>79</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>2</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>93</v>
+      </c>
+      <c r="P102" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q102">
+        <v>3.09</v>
+      </c>
+      <c r="R102">
+        <v>1.94</v>
+      </c>
+      <c r="S102">
+        <v>3.9</v>
+      </c>
+      <c r="T102">
+        <v>1.5</v>
+      </c>
+      <c r="U102">
+        <v>2.4</v>
+      </c>
+      <c r="V102">
+        <v>3.4</v>
+      </c>
+      <c r="W102">
+        <v>1.26</v>
+      </c>
+      <c r="X102">
+        <v>10</v>
+      </c>
+      <c r="Y102">
+        <v>1.01</v>
+      </c>
+      <c r="Z102">
+        <v>2.3</v>
+      </c>
+      <c r="AA102">
+        <v>2.8</v>
+      </c>
+      <c r="AB102">
+        <v>3</v>
+      </c>
+      <c r="AC102">
+        <v>1.07</v>
+      </c>
+      <c r="AD102">
+        <v>6.45</v>
+      </c>
+      <c r="AE102">
+        <v>1.48</v>
+      </c>
+      <c r="AF102">
+        <v>2.5</v>
+      </c>
+      <c r="AG102">
+        <v>2.4</v>
+      </c>
+      <c r="AH102">
+        <v>1.48</v>
+      </c>
+      <c r="AI102">
+        <v>1.93</v>
+      </c>
+      <c r="AJ102">
+        <v>1.75</v>
+      </c>
+      <c r="AK102">
+        <v>1.36</v>
+      </c>
+      <c r="AL102">
+        <v>1.34</v>
+      </c>
+      <c r="AM102">
+        <v>1.5</v>
+      </c>
+      <c r="AN102">
+        <v>2</v>
+      </c>
+      <c r="AO102">
+        <v>1.75</v>
+      </c>
+      <c r="AP102">
+        <v>1.67</v>
+      </c>
+      <c r="AQ102">
+        <v>2</v>
+      </c>
+      <c r="AR102">
+        <v>1.38</v>
+      </c>
+      <c r="AS102">
+        <v>1.75</v>
+      </c>
+      <c r="AT102">
+        <v>3.13</v>
+      </c>
+      <c r="AU102">
+        <v>6</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>16</v>
+      </c>
+      <c r="AX102">
+        <v>1</v>
+      </c>
+      <c r="AY102">
+        <v>28</v>
+      </c>
+      <c r="AZ102">
+        <v>6</v>
+      </c>
+      <c r="BA102">
+        <v>7</v>
+      </c>
+      <c r="BB102">
+        <v>3</v>
+      </c>
+      <c r="BC102">
+        <v>10</v>
+      </c>
+      <c r="BD102">
+        <v>1.85</v>
+      </c>
+      <c r="BE102">
+        <v>8</v>
+      </c>
+      <c r="BF102">
+        <v>2.1</v>
+      </c>
+      <c r="BG102">
+        <v>1.13</v>
+      </c>
+      <c r="BH102">
+        <v>4</v>
+      </c>
+      <c r="BI102">
+        <v>1.36</v>
+      </c>
+      <c r="BJ102">
+        <v>2.9</v>
+      </c>
+      <c r="BK102">
+        <v>1.7</v>
+      </c>
+      <c r="BL102">
+        <v>2</v>
+      </c>
+      <c r="BM102">
+        <v>1.95</v>
+      </c>
+      <c r="BN102">
+        <v>1.77</v>
+      </c>
+      <c r="BO102">
+        <v>2.5</v>
+      </c>
+      <c r="BP102">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -21757,7 +21757,7 @@
         <v>15</v>
       </c>
       <c r="AZ101">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA101">
         <v>5</v>
@@ -21960,7 +21960,7 @@
         <v>1</v>
       </c>
       <c r="AY102">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ102">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="207">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,13 +505,13 @@
     <t>['53', '73']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
     <t>['45+3']</t>
-  </si>
-  <si>
-    <t>['34']</t>
   </si>
   <si>
     <t>['21']</t>
@@ -996,7 +996,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1667,7 +1667,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1954,7 +1954,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2079,7 +2079,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2285,7 +2285,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ19">
         <v>0.6</v>
@@ -6074,7 +6074,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR25">
         <v>1.71</v>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ35">
         <v>0.25</v>
@@ -9576,7 +9576,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ42">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR42">
         <v>1.15</v>
@@ -10525,7 +10525,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -12045,7 +12045,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -13902,7 +13902,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ63">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR63">
         <v>1.64</v>
@@ -15959,7 +15959,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ73">
         <v>0.4</v>
@@ -17816,7 +17816,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ82">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR82">
         <v>1.43</v>
@@ -22012,6 +22012,212 @@
       </c>
       <c r="BP102">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7834415</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45809.45833333334</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>87</v>
+      </c>
+      <c r="H103" t="s">
+        <v>85</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>1</v>
+      </c>
+      <c r="O103" t="s">
+        <v>163</v>
+      </c>
+      <c r="P103" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q103">
+        <v>2.63</v>
+      </c>
+      <c r="R103">
+        <v>2.01</v>
+      </c>
+      <c r="S103">
+        <v>4.5</v>
+      </c>
+      <c r="T103">
+        <v>1.45</v>
+      </c>
+      <c r="U103">
+        <v>2.5</v>
+      </c>
+      <c r="V103">
+        <v>3.25</v>
+      </c>
+      <c r="W103">
+        <v>1.3</v>
+      </c>
+      <c r="X103">
+        <v>8.1</v>
+      </c>
+      <c r="Y103">
+        <v>1.04</v>
+      </c>
+      <c r="Z103">
+        <v>1.9</v>
+      </c>
+      <c r="AA103">
+        <v>3.02</v>
+      </c>
+      <c r="AB103">
+        <v>3.82</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>7.65</v>
+      </c>
+      <c r="AE103">
+        <v>1.35</v>
+      </c>
+      <c r="AF103">
+        <v>2.8</v>
+      </c>
+      <c r="AG103">
+        <v>2.25</v>
+      </c>
+      <c r="AH103">
+        <v>1.57</v>
+      </c>
+      <c r="AI103">
+        <v>1.9</v>
+      </c>
+      <c r="AJ103">
+        <v>1.75</v>
+      </c>
+      <c r="AK103">
+        <v>1.33</v>
+      </c>
+      <c r="AL103">
+        <v>1.32</v>
+      </c>
+      <c r="AM103">
+        <v>1.83</v>
+      </c>
+      <c r="AN103">
+        <v>2</v>
+      </c>
+      <c r="AO103">
+        <v>0.2</v>
+      </c>
+      <c r="AP103">
+        <v>2.2</v>
+      </c>
+      <c r="AQ103">
+        <v>0.17</v>
+      </c>
+      <c r="AR103">
+        <v>1.82</v>
+      </c>
+      <c r="AS103">
+        <v>1.34</v>
+      </c>
+      <c r="AT103">
+        <v>3.16</v>
+      </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AV103">
+        <v>5</v>
+      </c>
+      <c r="AW103">
+        <v>8</v>
+      </c>
+      <c r="AX103">
+        <v>6</v>
+      </c>
+      <c r="AY103">
+        <v>17</v>
+      </c>
+      <c r="AZ103">
+        <v>16</v>
+      </c>
+      <c r="BA103">
+        <v>2</v>
+      </c>
+      <c r="BB103">
+        <v>7</v>
+      </c>
+      <c r="BC103">
+        <v>9</v>
+      </c>
+      <c r="BD103">
+        <v>1.8</v>
+      </c>
+      <c r="BE103">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF103">
+        <v>2.38</v>
+      </c>
+      <c r="BG103">
+        <v>1.21</v>
+      </c>
+      <c r="BH103">
+        <v>3.78</v>
+      </c>
+      <c r="BI103">
+        <v>1.34</v>
+      </c>
+      <c r="BJ103">
+        <v>2.72</v>
+      </c>
+      <c r="BK103">
+        <v>1.65</v>
+      </c>
+      <c r="BL103">
+        <v>2.1</v>
+      </c>
+      <c r="BM103">
+        <v>2.05</v>
+      </c>
+      <c r="BN103">
+        <v>1.7</v>
+      </c>
+      <c r="BO103">
+        <v>2.55</v>
+      </c>
+      <c r="BP103">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -636,6 +636,12 @@
   <si>
     <t>['2', '34']</t>
   </si>
+  <si>
+    <t>['13', '38']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
 </sst>
 </file>
 
@@ -996,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1539,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>0.4</v>
@@ -2572,7 +2578,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3602,7 +3608,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ13">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -5247,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0.8</v>
@@ -5456,7 +5462,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ22">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR22">
         <v>2.29</v>
@@ -5659,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>0.5</v>
@@ -8134,7 +8140,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ35">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR35">
         <v>2.31</v>
@@ -9161,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -10191,7 +10197,7 @@
         <v>0.5</v>
       </c>
       <c r="AP45">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10400,7 +10406,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ46">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>2.97</v>
@@ -13284,7 +13290,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ60">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR60">
         <v>1.37</v>
@@ -13487,7 +13493,7 @@
         <v>1.5</v>
       </c>
       <c r="AP61">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
         <v>2</v>
@@ -14520,7 +14526,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ66">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR66">
         <v>1.57</v>
@@ -15547,7 +15553,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -17607,7 +17613,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>0.5</v>
@@ -18228,7 +18234,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ84">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR84">
         <v>1.35</v>
@@ -18431,7 +18437,7 @@
         <v>0.75</v>
       </c>
       <c r="AP85">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ85">
         <v>0.8</v>
@@ -19052,7 +19058,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ88">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR88">
         <v>1.9</v>
@@ -22218,6 +22224,418 @@
       </c>
       <c r="BP103">
         <v>1.45</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7834420</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>71</v>
+      </c>
+      <c r="H104" t="s">
+        <v>72</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>2</v>
+      </c>
+      <c r="K104">
+        <v>2</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104">
+        <v>2</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>93</v>
+      </c>
+      <c r="P104" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q104">
+        <v>3.5</v>
+      </c>
+      <c r="R104">
+        <v>1.8</v>
+      </c>
+      <c r="S104">
+        <v>3.25</v>
+      </c>
+      <c r="T104">
+        <v>1.48</v>
+      </c>
+      <c r="U104">
+        <v>2.5</v>
+      </c>
+      <c r="V104">
+        <v>3.1</v>
+      </c>
+      <c r="W104">
+        <v>1.3</v>
+      </c>
+      <c r="X104">
+        <v>7</v>
+      </c>
+      <c r="Y104">
+        <v>1.05</v>
+      </c>
+      <c r="Z104">
+        <v>2.75</v>
+      </c>
+      <c r="AA104">
+        <v>3.1</v>
+      </c>
+      <c r="AB104">
+        <v>2.31</v>
+      </c>
+      <c r="AC104">
+        <v>1.08</v>
+      </c>
+      <c r="AD104">
+        <v>8</v>
+      </c>
+      <c r="AE104">
+        <v>1.4</v>
+      </c>
+      <c r="AF104">
+        <v>2.88</v>
+      </c>
+      <c r="AG104">
+        <v>1.92</v>
+      </c>
+      <c r="AH104">
+        <v>1.78</v>
+      </c>
+      <c r="AI104">
+        <v>1.91</v>
+      </c>
+      <c r="AJ104">
+        <v>1.83</v>
+      </c>
+      <c r="AK104">
+        <v>1.35</v>
+      </c>
+      <c r="AL104">
+        <v>1.31</v>
+      </c>
+      <c r="AM104">
+        <v>1.44</v>
+      </c>
+      <c r="AN104">
+        <v>1.6</v>
+      </c>
+      <c r="AO104">
+        <v>0.25</v>
+      </c>
+      <c r="AP104">
+        <v>1.33</v>
+      </c>
+      <c r="AQ104">
+        <v>0.8</v>
+      </c>
+      <c r="AR104">
+        <v>1.59</v>
+      </c>
+      <c r="AS104">
+        <v>1.44</v>
+      </c>
+      <c r="AT104">
+        <v>3.03</v>
+      </c>
+      <c r="AU104">
+        <v>6</v>
+      </c>
+      <c r="AV104">
+        <v>10</v>
+      </c>
+      <c r="AW104">
+        <v>9</v>
+      </c>
+      <c r="AX104">
+        <v>12</v>
+      </c>
+      <c r="AY104">
+        <v>19</v>
+      </c>
+      <c r="AZ104">
+        <v>26</v>
+      </c>
+      <c r="BA104">
+        <v>5</v>
+      </c>
+      <c r="BB104">
+        <v>7</v>
+      </c>
+      <c r="BC104">
+        <v>12</v>
+      </c>
+      <c r="BD104">
+        <v>1.91</v>
+      </c>
+      <c r="BE104">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF104">
+        <v>2.28</v>
+      </c>
+      <c r="BG104">
+        <v>1.2</v>
+      </c>
+      <c r="BH104">
+        <v>3.6</v>
+      </c>
+      <c r="BI104">
+        <v>1.45</v>
+      </c>
+      <c r="BJ104">
+        <v>2.55</v>
+      </c>
+      <c r="BK104">
+        <v>1.65</v>
+      </c>
+      <c r="BL104">
+        <v>2.1</v>
+      </c>
+      <c r="BM104">
+        <v>2.05</v>
+      </c>
+      <c r="BN104">
+        <v>1.7</v>
+      </c>
+      <c r="BO104">
+        <v>2.62</v>
+      </c>
+      <c r="BP104">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7834414</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45809.66666666666</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>89</v>
+      </c>
+      <c r="H105" t="s">
+        <v>82</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>1</v>
+      </c>
+      <c r="O105" t="s">
+        <v>93</v>
+      </c>
+      <c r="P105" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q105">
+        <v>3.4</v>
+      </c>
+      <c r="R105">
+        <v>1.92</v>
+      </c>
+      <c r="S105">
+        <v>3.6</v>
+      </c>
+      <c r="T105">
+        <v>1.47</v>
+      </c>
+      <c r="U105">
+        <v>2.45</v>
+      </c>
+      <c r="V105">
+        <v>3.3</v>
+      </c>
+      <c r="W105">
+        <v>1.28</v>
+      </c>
+      <c r="X105">
+        <v>8.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.04</v>
+      </c>
+      <c r="Z105">
+        <v>2.45</v>
+      </c>
+      <c r="AA105">
+        <v>2.84</v>
+      </c>
+      <c r="AB105">
+        <v>2.78</v>
+      </c>
+      <c r="AC105">
+        <v>1.06</v>
+      </c>
+      <c r="AD105">
+        <v>7</v>
+      </c>
+      <c r="AE105">
+        <v>1.4</v>
+      </c>
+      <c r="AF105">
+        <v>2.7</v>
+      </c>
+      <c r="AG105">
+        <v>2.37</v>
+      </c>
+      <c r="AH105">
+        <v>1.53</v>
+      </c>
+      <c r="AI105">
+        <v>1.87</v>
+      </c>
+      <c r="AJ105">
+        <v>1.83</v>
+      </c>
+      <c r="AK105">
+        <v>1.4</v>
+      </c>
+      <c r="AL105">
+        <v>1.35</v>
+      </c>
+      <c r="AM105">
+        <v>1.44</v>
+      </c>
+      <c r="AN105">
+        <v>1.25</v>
+      </c>
+      <c r="AO105">
+        <v>0.4</v>
+      </c>
+      <c r="AP105">
+        <v>1</v>
+      </c>
+      <c r="AQ105">
+        <v>0.83</v>
+      </c>
+      <c r="AR105">
+        <v>1.78</v>
+      </c>
+      <c r="AS105">
+        <v>1.33</v>
+      </c>
+      <c r="AT105">
+        <v>3.11</v>
+      </c>
+      <c r="AU105">
+        <v>5</v>
+      </c>
+      <c r="AV105">
+        <v>4</v>
+      </c>
+      <c r="AW105">
+        <v>13</v>
+      </c>
+      <c r="AX105">
+        <v>9</v>
+      </c>
+      <c r="AY105">
+        <v>22</v>
+      </c>
+      <c r="AZ105">
+        <v>18</v>
+      </c>
+      <c r="BA105">
+        <v>5</v>
+      </c>
+      <c r="BB105">
+        <v>4</v>
+      </c>
+      <c r="BC105">
+        <v>9</v>
+      </c>
+      <c r="BD105">
+        <v>1.85</v>
+      </c>
+      <c r="BE105">
+        <v>7</v>
+      </c>
+      <c r="BF105">
+        <v>2.4</v>
+      </c>
+      <c r="BG105">
+        <v>1.21</v>
+      </c>
+      <c r="BH105">
+        <v>3.8</v>
+      </c>
+      <c r="BI105">
+        <v>1.45</v>
+      </c>
+      <c r="BJ105">
+        <v>2.55</v>
+      </c>
+      <c r="BK105">
+        <v>1.75</v>
+      </c>
+      <c r="BL105">
+        <v>1.97</v>
+      </c>
+      <c r="BM105">
+        <v>2.15</v>
+      </c>
+      <c r="BN105">
+        <v>1.62</v>
+      </c>
+      <c r="BO105">
+        <v>2.45</v>
+      </c>
+      <c r="BP105">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="213">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,12 @@
     <t>['34']</t>
   </si>
   <si>
+    <t>['30', '48', '56', '71', '74']</t>
+  </si>
+  <si>
+    <t>['2', '4']</t>
+  </si>
+  <si>
     <t>['75']</t>
   </si>
   <si>
@@ -641,6 +647,12 @@
   </si>
   <si>
     <t>['86']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['11', '83']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1342,7 +1354,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ2">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1548,7 +1560,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1673,7 +1685,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -1754,7 +1766,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2085,7 +2097,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2163,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2369,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ7">
         <v>0.67</v>
@@ -2703,7 +2715,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2909,7 +2921,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3115,7 +3127,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3399,7 +3411,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ12">
         <v>0</v>
@@ -3605,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ13">
         <v>0.8</v>
@@ -4145,7 +4157,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4351,7 +4363,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4432,7 +4444,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4557,7 +4569,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4844,7 +4856,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ19">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5047,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ20">
         <v>1.4</v>
@@ -5175,7 +5187,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5587,7 +5599,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6205,7 +6217,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6411,7 +6423,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6617,7 +6629,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7235,7 +7247,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7316,7 +7328,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ31">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>2.54</v>
@@ -7519,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7647,7 +7659,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7853,7 +7865,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8059,7 +8071,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8265,7 +8277,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -8343,10 +8355,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ36">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>0.99</v>
@@ -8549,10 +8561,10 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ37">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR37">
         <v>3.02</v>
@@ -8758,7 +8770,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ38">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR38">
         <v>0.79</v>
@@ -8961,7 +8973,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ39">
         <v>0</v>
@@ -9170,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>2.4</v>
@@ -9373,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ41">
         <v>0.8</v>
@@ -9501,7 +9513,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -9579,7 +9591,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ42">
         <v>0.17</v>
@@ -10119,7 +10131,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10531,7 +10543,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10737,7 +10749,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10818,7 +10830,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ48">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR48">
         <v>0.99</v>
@@ -10943,7 +10955,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11024,7 +11036,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ49">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR49">
         <v>1.66</v>
@@ -11639,7 +11651,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
         <v>0</v>
@@ -11767,7 +11779,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11845,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ53">
         <v>0.6</v>
@@ -11973,7 +11985,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -12054,7 +12066,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.85</v>
@@ -12260,7 +12272,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ55">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>1.78</v>
@@ -12466,7 +12478,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ56">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
         <v>2.27</v>
@@ -12669,7 +12681,7 @@
         <v>0.5</v>
       </c>
       <c r="AP57">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ57">
         <v>0.4</v>
@@ -13081,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ59">
         <v>0</v>
@@ -13209,7 +13221,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13415,7 +13427,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -13702,7 +13714,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR62">
         <v>1.28</v>
@@ -14033,7 +14045,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14111,7 +14123,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ64">
         <v>0.67</v>
@@ -14317,10 +14329,10 @@
         <v>0.67</v>
       </c>
       <c r="AP65">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ65">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
@@ -14651,7 +14663,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -14732,7 +14744,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ67">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR67">
         <v>1.28</v>
@@ -15063,7 +15075,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15141,7 +15153,7 @@
         <v>2.33</v>
       </c>
       <c r="AP69">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ69">
         <v>2</v>
@@ -15475,7 +15487,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15556,7 +15568,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.79</v>
@@ -15887,7 +15899,7 @@
         <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q73">
         <v>3.68</v>
@@ -16093,7 +16105,7 @@
         <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q74">
         <v>3.37</v>
@@ -16299,7 +16311,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>2.75</v>
@@ -16583,7 +16595,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ76">
         <v>0.8</v>
@@ -16711,7 +16723,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17123,7 +17135,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>2.59</v>
@@ -17204,7 +17216,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ79">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR79">
         <v>2.54</v>
@@ -17819,7 +17831,7 @@
         <v>0.25</v>
       </c>
       <c r="AP82">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ82">
         <v>0.17</v>
@@ -18028,7 +18040,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ83">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR83">
         <v>1.28</v>
@@ -18153,7 +18165,7 @@
         <v>154</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18359,7 +18371,7 @@
         <v>155</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q85">
         <v>4.56</v>
@@ -18440,7 +18452,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ85">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR85">
         <v>1.75</v>
@@ -18643,7 +18655,7 @@
         <v>0</v>
       </c>
       <c r="AP86">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AQ86">
         <v>0.5</v>
@@ -18852,7 +18864,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ87">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR87">
         <v>1.46</v>
@@ -19055,7 +19067,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ88">
         <v>0.83</v>
@@ -19183,7 +19195,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>4.39</v>
@@ -19264,7 +19276,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ89">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AR89">
         <v>1.9</v>
@@ -19467,10 +19479,10 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.65</v>
@@ -19673,7 +19685,7 @@
         <v>0.5</v>
       </c>
       <c r="AP91">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -19801,7 +19813,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20007,7 +20019,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20831,7 +20843,7 @@
         <v>93</v>
       </c>
       <c r="P97" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q97">
         <v>2.95</v>
@@ -21037,7 +21049,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q98">
         <v>2.85</v>
@@ -21243,7 +21255,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q99">
         <v>3.22</v>
@@ -21655,7 +21667,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q101">
         <v>2.56</v>
@@ -21861,7 +21873,7 @@
         <v>93</v>
       </c>
       <c r="P102" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q102">
         <v>3.09</v>
@@ -22273,7 +22285,7 @@
         <v>93</v>
       </c>
       <c r="P104" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q104">
         <v>3.5</v>
@@ -22479,7 +22491,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -22636,6 +22648,1036 @@
       </c>
       <c r="BP105">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7834411</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>75</v>
+      </c>
+      <c r="H106" t="s">
+        <v>70</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>5</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>5</v>
+      </c>
+      <c r="O106" t="s">
+        <v>164</v>
+      </c>
+      <c r="P106" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q106">
+        <v>1.65</v>
+      </c>
+      <c r="R106">
+        <v>2.45</v>
+      </c>
+      <c r="S106">
+        <v>6.6</v>
+      </c>
+      <c r="T106">
+        <v>1.37</v>
+      </c>
+      <c r="U106">
+        <v>3.12</v>
+      </c>
+      <c r="V106">
+        <v>2.6</v>
+      </c>
+      <c r="W106">
+        <v>1.47</v>
+      </c>
+      <c r="X106">
+        <v>6.25</v>
+      </c>
+      <c r="Y106">
+        <v>1.09</v>
+      </c>
+      <c r="Z106">
+        <v>1.33</v>
+      </c>
+      <c r="AA106">
+        <v>5</v>
+      </c>
+      <c r="AB106">
+        <v>8.75</v>
+      </c>
+      <c r="AC106">
+        <v>1</v>
+      </c>
+      <c r="AD106">
+        <v>9.5</v>
+      </c>
+      <c r="AE106">
+        <v>1.24</v>
+      </c>
+      <c r="AF106">
+        <v>3.7</v>
+      </c>
+      <c r="AG106">
+        <v>1.96</v>
+      </c>
+      <c r="AH106">
+        <v>1.9</v>
+      </c>
+      <c r="AI106">
+        <v>2.2</v>
+      </c>
+      <c r="AJ106">
+        <v>1.62</v>
+      </c>
+      <c r="AK106">
+        <v>1.06</v>
+      </c>
+      <c r="AL106">
+        <v>1.18</v>
+      </c>
+      <c r="AM106">
+        <v>3.12</v>
+      </c>
+      <c r="AN106">
+        <v>2.2</v>
+      </c>
+      <c r="AO106">
+        <v>0.6</v>
+      </c>
+      <c r="AP106">
+        <v>2.33</v>
+      </c>
+      <c r="AQ106">
+        <v>0.5</v>
+      </c>
+      <c r="AR106">
+        <v>1.87</v>
+      </c>
+      <c r="AS106">
+        <v>1.26</v>
+      </c>
+      <c r="AT106">
+        <v>3.13</v>
+      </c>
+      <c r="AU106">
+        <v>14</v>
+      </c>
+      <c r="AV106">
+        <v>4</v>
+      </c>
+      <c r="AW106">
+        <v>3</v>
+      </c>
+      <c r="AX106">
+        <v>8</v>
+      </c>
+      <c r="AY106">
+        <v>17</v>
+      </c>
+      <c r="AZ106">
+        <v>15</v>
+      </c>
+      <c r="BA106">
+        <v>2</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>6</v>
+      </c>
+      <c r="BD106">
+        <v>1.08</v>
+      </c>
+      <c r="BE106">
+        <v>13</v>
+      </c>
+      <c r="BF106">
+        <v>8</v>
+      </c>
+      <c r="BG106">
+        <v>1.2</v>
+      </c>
+      <c r="BH106">
+        <v>4</v>
+      </c>
+      <c r="BI106">
+        <v>1.34</v>
+      </c>
+      <c r="BJ106">
+        <v>3</v>
+      </c>
+      <c r="BK106">
+        <v>1.55</v>
+      </c>
+      <c r="BL106">
+        <v>2.3</v>
+      </c>
+      <c r="BM106">
+        <v>1.87</v>
+      </c>
+      <c r="BN106">
+        <v>1.83</v>
+      </c>
+      <c r="BO106">
+        <v>2.4</v>
+      </c>
+      <c r="BP106">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7834413</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>80</v>
+      </c>
+      <c r="H107" t="s">
+        <v>86</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" t="s">
+        <v>93</v>
+      </c>
+      <c r="P107" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q107">
+        <v>2.36</v>
+      </c>
+      <c r="R107">
+        <v>1.92</v>
+      </c>
+      <c r="S107">
+        <v>6</v>
+      </c>
+      <c r="T107">
+        <v>1.61</v>
+      </c>
+      <c r="U107">
+        <v>2.4</v>
+      </c>
+      <c r="V107">
+        <v>3.7</v>
+      </c>
+      <c r="W107">
+        <v>1.27</v>
+      </c>
+      <c r="X107">
+        <v>10</v>
+      </c>
+      <c r="Y107">
+        <v>1.02</v>
+      </c>
+      <c r="Z107">
+        <v>1.63</v>
+      </c>
+      <c r="AA107">
+        <v>3.4</v>
+      </c>
+      <c r="AB107">
+        <v>5.5</v>
+      </c>
+      <c r="AC107">
+        <v>1.06</v>
+      </c>
+      <c r="AD107">
+        <v>6.5</v>
+      </c>
+      <c r="AE107">
+        <v>1.42</v>
+      </c>
+      <c r="AF107">
+        <v>2.47</v>
+      </c>
+      <c r="AG107">
+        <v>2.45</v>
+      </c>
+      <c r="AH107">
+        <v>1.44</v>
+      </c>
+      <c r="AI107">
+        <v>2.4</v>
+      </c>
+      <c r="AJ107">
+        <v>1.53</v>
+      </c>
+      <c r="AK107">
+        <v>1.33</v>
+      </c>
+      <c r="AL107">
+        <v>1.28</v>
+      </c>
+      <c r="AM107">
+        <v>2.1</v>
+      </c>
+      <c r="AN107">
+        <v>2.4</v>
+      </c>
+      <c r="AO107">
+        <v>0.4</v>
+      </c>
+      <c r="AP107">
+        <v>2.17</v>
+      </c>
+      <c r="AQ107">
+        <v>0.5</v>
+      </c>
+      <c r="AR107">
+        <v>1.58</v>
+      </c>
+      <c r="AS107">
+        <v>1.52</v>
+      </c>
+      <c r="AT107">
+        <v>3.1</v>
+      </c>
+      <c r="AU107">
+        <v>4</v>
+      </c>
+      <c r="AV107">
+        <v>3</v>
+      </c>
+      <c r="AW107">
+        <v>10</v>
+      </c>
+      <c r="AX107">
+        <v>4</v>
+      </c>
+      <c r="AY107">
+        <v>18</v>
+      </c>
+      <c r="AZ107">
+        <v>8</v>
+      </c>
+      <c r="BA107">
+        <v>8</v>
+      </c>
+      <c r="BB107">
+        <v>3</v>
+      </c>
+      <c r="BC107">
+        <v>11</v>
+      </c>
+      <c r="BD107">
+        <v>1.54</v>
+      </c>
+      <c r="BE107">
+        <v>6.75</v>
+      </c>
+      <c r="BF107">
+        <v>3.5</v>
+      </c>
+      <c r="BG107">
+        <v>1.29</v>
+      </c>
+      <c r="BH107">
+        <v>3.3</v>
+      </c>
+      <c r="BI107">
+        <v>1.49</v>
+      </c>
+      <c r="BJ107">
+        <v>2.4</v>
+      </c>
+      <c r="BK107">
+        <v>1.78</v>
+      </c>
+      <c r="BL107">
+        <v>1.95</v>
+      </c>
+      <c r="BM107">
+        <v>2.35</v>
+      </c>
+      <c r="BN107">
+        <v>1.52</v>
+      </c>
+      <c r="BO107">
+        <v>2.9</v>
+      </c>
+      <c r="BP107">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7834419</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45809.77083333334</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s">
+        <v>83</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>1</v>
+      </c>
+      <c r="O108" t="s">
+        <v>93</v>
+      </c>
+      <c r="P108" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q108">
+        <v>3.55</v>
+      </c>
+      <c r="R108">
+        <v>1.85</v>
+      </c>
+      <c r="S108">
+        <v>3.55</v>
+      </c>
+      <c r="T108">
+        <v>1.55</v>
+      </c>
+      <c r="U108">
+        <v>2.25</v>
+      </c>
+      <c r="V108">
+        <v>3.82</v>
+      </c>
+      <c r="W108">
+        <v>1.22</v>
+      </c>
+      <c r="X108">
+        <v>11</v>
+      </c>
+      <c r="Y108">
+        <v>1.03</v>
+      </c>
+      <c r="Z108">
+        <v>2.75</v>
+      </c>
+      <c r="AA108">
+        <v>2.9</v>
+      </c>
+      <c r="AB108">
+        <v>2.85</v>
+      </c>
+      <c r="AC108">
+        <v>1.05</v>
+      </c>
+      <c r="AD108">
+        <v>6.55</v>
+      </c>
+      <c r="AE108">
+        <v>1.52</v>
+      </c>
+      <c r="AF108">
+        <v>2.33</v>
+      </c>
+      <c r="AG108">
+        <v>2.8</v>
+      </c>
+      <c r="AH108">
+        <v>1.43</v>
+      </c>
+      <c r="AI108">
+        <v>2.1</v>
+      </c>
+      <c r="AJ108">
+        <v>1.67</v>
+      </c>
+      <c r="AK108">
+        <v>1.36</v>
+      </c>
+      <c r="AL108">
+        <v>1.36</v>
+      </c>
+      <c r="AM108">
+        <v>1.4</v>
+      </c>
+      <c r="AN108">
+        <v>2.6</v>
+      </c>
+      <c r="AO108">
+        <v>1</v>
+      </c>
+      <c r="AP108">
+        <v>2.17</v>
+      </c>
+      <c r="AQ108">
+        <v>1.33</v>
+      </c>
+      <c r="AR108">
+        <v>1.34</v>
+      </c>
+      <c r="AS108">
+        <v>2.04</v>
+      </c>
+      <c r="AT108">
+        <v>3.38</v>
+      </c>
+      <c r="AU108">
+        <v>4</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>11</v>
+      </c>
+      <c r="AX108">
+        <v>4</v>
+      </c>
+      <c r="AY108">
+        <v>16</v>
+      </c>
+      <c r="AZ108">
+        <v>12</v>
+      </c>
+      <c r="BA108">
+        <v>8</v>
+      </c>
+      <c r="BB108">
+        <v>8</v>
+      </c>
+      <c r="BC108">
+        <v>16</v>
+      </c>
+      <c r="BD108">
+        <v>1.9</v>
+      </c>
+      <c r="BE108">
+        <v>6.75</v>
+      </c>
+      <c r="BF108">
+        <v>2</v>
+      </c>
+      <c r="BG108">
+        <v>1.28</v>
+      </c>
+      <c r="BH108">
+        <v>3.58</v>
+      </c>
+      <c r="BI108">
+        <v>1.47</v>
+      </c>
+      <c r="BJ108">
+        <v>2.56</v>
+      </c>
+      <c r="BK108">
+        <v>2.05</v>
+      </c>
+      <c r="BL108">
+        <v>1.98</v>
+      </c>
+      <c r="BM108">
+        <v>2.28</v>
+      </c>
+      <c r="BN108">
+        <v>1.59</v>
+      </c>
+      <c r="BO108">
+        <v>2.88</v>
+      </c>
+      <c r="BP108">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7834416</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45809.8125</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>74</v>
+      </c>
+      <c r="H109" t="s">
+        <v>76</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>165</v>
+      </c>
+      <c r="P109" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q109">
+        <v>3.95</v>
+      </c>
+      <c r="R109">
+        <v>1.91</v>
+      </c>
+      <c r="S109">
+        <v>3.08</v>
+      </c>
+      <c r="T109">
+        <v>1.51</v>
+      </c>
+      <c r="U109">
+        <v>2.32</v>
+      </c>
+      <c r="V109">
+        <v>3.48</v>
+      </c>
+      <c r="W109">
+        <v>1.24</v>
+      </c>
+      <c r="X109">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y109">
+        <v>1.03</v>
+      </c>
+      <c r="Z109">
+        <v>3.25</v>
+      </c>
+      <c r="AA109">
+        <v>3.01</v>
+      </c>
+      <c r="AB109">
+        <v>2.45</v>
+      </c>
+      <c r="AC109">
+        <v>1.07</v>
+      </c>
+      <c r="AD109">
+        <v>6.5</v>
+      </c>
+      <c r="AE109">
+        <v>1.5</v>
+      </c>
+      <c r="AF109">
+        <v>2.71</v>
+      </c>
+      <c r="AG109">
+        <v>2.5</v>
+      </c>
+      <c r="AH109">
+        <v>1.5</v>
+      </c>
+      <c r="AI109">
+        <v>2</v>
+      </c>
+      <c r="AJ109">
+        <v>1.75</v>
+      </c>
+      <c r="AK109">
+        <v>1.43</v>
+      </c>
+      <c r="AL109">
+        <v>1.36</v>
+      </c>
+      <c r="AM109">
+        <v>1.27</v>
+      </c>
+      <c r="AN109">
+        <v>2.6</v>
+      </c>
+      <c r="AO109">
+        <v>3</v>
+      </c>
+      <c r="AP109">
+        <v>2.67</v>
+      </c>
+      <c r="AQ109">
+        <v>2.5</v>
+      </c>
+      <c r="AR109">
+        <v>1.69</v>
+      </c>
+      <c r="AS109">
+        <v>1.4</v>
+      </c>
+      <c r="AT109">
+        <v>3.09</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>6</v>
+      </c>
+      <c r="AW109">
+        <v>11</v>
+      </c>
+      <c r="AX109">
+        <v>13</v>
+      </c>
+      <c r="AY109">
+        <v>18</v>
+      </c>
+      <c r="AZ109">
+        <v>23</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>13</v>
+      </c>
+      <c r="BC109">
+        <v>18</v>
+      </c>
+      <c r="BD109">
+        <v>2.15</v>
+      </c>
+      <c r="BE109">
+        <v>6.75</v>
+      </c>
+      <c r="BF109">
+        <v>1.85</v>
+      </c>
+      <c r="BG109">
+        <v>1.16</v>
+      </c>
+      <c r="BH109">
+        <v>4.5</v>
+      </c>
+      <c r="BI109">
+        <v>1.32</v>
+      </c>
+      <c r="BJ109">
+        <v>3</v>
+      </c>
+      <c r="BK109">
+        <v>1.58</v>
+      </c>
+      <c r="BL109">
+        <v>2.15</v>
+      </c>
+      <c r="BM109">
+        <v>1.98</v>
+      </c>
+      <c r="BN109">
+        <v>1.68</v>
+      </c>
+      <c r="BO109">
+        <v>2.65</v>
+      </c>
+      <c r="BP109">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7834417</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45809.85416666666</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>88</v>
+      </c>
+      <c r="H110" t="s">
+        <v>84</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>93</v>
+      </c>
+      <c r="P110" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q110">
+        <v>2.45</v>
+      </c>
+      <c r="R110">
+        <v>1.93</v>
+      </c>
+      <c r="S110">
+        <v>4.25</v>
+      </c>
+      <c r="T110">
+        <v>1.56</v>
+      </c>
+      <c r="U110">
+        <v>2.51</v>
+      </c>
+      <c r="V110">
+        <v>3.56</v>
+      </c>
+      <c r="W110">
+        <v>1.29</v>
+      </c>
+      <c r="X110">
+        <v>7.8</v>
+      </c>
+      <c r="Y110">
+        <v>1.04</v>
+      </c>
+      <c r="Z110">
+        <v>2.01</v>
+      </c>
+      <c r="AA110">
+        <v>3.15</v>
+      </c>
+      <c r="AB110">
+        <v>3.8</v>
+      </c>
+      <c r="AC110">
+        <v>1.07</v>
+      </c>
+      <c r="AD110">
+        <v>6.5</v>
+      </c>
+      <c r="AE110">
+        <v>1.51</v>
+      </c>
+      <c r="AF110">
+        <v>2.63</v>
+      </c>
+      <c r="AG110">
+        <v>2.4</v>
+      </c>
+      <c r="AH110">
+        <v>1.53</v>
+      </c>
+      <c r="AI110">
+        <v>2.1</v>
+      </c>
+      <c r="AJ110">
+        <v>1.75</v>
+      </c>
+      <c r="AK110">
+        <v>1.36</v>
+      </c>
+      <c r="AL110">
+        <v>1.33</v>
+      </c>
+      <c r="AM110">
+        <v>1.67</v>
+      </c>
+      <c r="AN110">
+        <v>1.75</v>
+      </c>
+      <c r="AO110">
+        <v>0.8</v>
+      </c>
+      <c r="AP110">
+        <v>1.4</v>
+      </c>
+      <c r="AQ110">
+        <v>1.17</v>
+      </c>
+      <c r="AR110">
+        <v>2.29</v>
+      </c>
+      <c r="AS110">
+        <v>1.27</v>
+      </c>
+      <c r="AT110">
+        <v>3.56</v>
+      </c>
+      <c r="AU110">
+        <v>5</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>11</v>
+      </c>
+      <c r="AX110">
+        <v>5</v>
+      </c>
+      <c r="AY110">
+        <v>20</v>
+      </c>
+      <c r="AZ110">
+        <v>11</v>
+      </c>
+      <c r="BA110">
+        <v>9</v>
+      </c>
+      <c r="BB110">
+        <v>1</v>
+      </c>
+      <c r="BC110">
+        <v>10</v>
+      </c>
+      <c r="BD110">
+        <v>1.47</v>
+      </c>
+      <c r="BE110">
+        <v>7.2</v>
+      </c>
+      <c r="BF110">
+        <v>2.95</v>
+      </c>
+      <c r="BG110">
+        <v>1.33</v>
+      </c>
+      <c r="BH110">
+        <v>3.02</v>
+      </c>
+      <c r="BI110">
+        <v>1.5</v>
+      </c>
+      <c r="BJ110">
+        <v>2.4</v>
+      </c>
+      <c r="BK110">
+        <v>1.9</v>
+      </c>
+      <c r="BL110">
+        <v>1.8</v>
+      </c>
+      <c r="BM110">
+        <v>2.55</v>
+      </c>
+      <c r="BN110">
+        <v>1.45</v>
+      </c>
+      <c r="BO110">
+        <v>3.2</v>
+      </c>
+      <c r="BP110">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -22390,7 +22390,7 @@
         <v>12</v>
       </c>
       <c r="AY104">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ104">
         <v>26</v>
@@ -22596,7 +22596,7 @@
         <v>9</v>
       </c>
       <c r="AY105">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ105">
         <v>18</v>
@@ -23626,7 +23626,7 @@
         <v>5</v>
       </c>
       <c r="AY110">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AZ110">
         <v>11</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>['2', '4']</t>
+  </si>
+  <si>
+    <t>['45', '72', '77']</t>
   </si>
   <si>
     <t>['75']</t>
@@ -1014,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1685,7 +1688,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -2097,7 +2100,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>2.1</v>
@@ -2715,7 +2718,7 @@
         <v>96</v>
       </c>
       <c r="P9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>3</v>
@@ -2921,7 +2924,7 @@
         <v>97</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>2.6</v>
@@ -3127,7 +3130,7 @@
         <v>98</v>
       </c>
       <c r="P11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>2.88</v>
@@ -3208,7 +3211,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3823,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ14">
         <v>0</v>
@@ -4157,7 +4160,7 @@
         <v>102</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>2.6</v>
@@ -4363,7 +4366,7 @@
         <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4569,7 +4572,7 @@
         <v>104</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5187,7 +5190,7 @@
         <v>107</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5599,7 +5602,7 @@
         <v>109</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5680,7 +5683,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR23">
         <v>1.18</v>
@@ -6217,7 +6220,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q26">
         <v>2.19</v>
@@ -6423,7 +6426,7 @@
         <v>113</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q27">
         <v>2.69</v>
@@ -6629,7 +6632,7 @@
         <v>93</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>4.1</v>
@@ -7247,7 +7250,7 @@
         <v>115</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>2.28</v>
@@ -7659,7 +7662,7 @@
         <v>117</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>2.4</v>
@@ -7737,7 +7740,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ33">
         <v>0.6</v>
@@ -7865,7 +7868,7 @@
         <v>93</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>2.7</v>
@@ -8071,7 +8074,7 @@
         <v>118</v>
       </c>
       <c r="P35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>3.2</v>
@@ -8277,7 +8280,7 @@
         <v>93</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>2.82</v>
@@ -9513,7 +9516,7 @@
         <v>123</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q42">
         <v>2.25</v>
@@ -10131,7 +10134,7 @@
         <v>124</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q45">
         <v>2.75</v>
@@ -10543,7 +10546,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>2.81</v>
@@ -10749,7 +10752,7 @@
         <v>127</v>
       </c>
       <c r="P48" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q48">
         <v>4.9</v>
@@ -10955,7 +10958,7 @@
         <v>128</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>2.37</v>
@@ -11448,7 +11451,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ51">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR51">
         <v>1.54</v>
@@ -11779,7 +11782,7 @@
         <v>132</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q53">
         <v>3.1</v>
@@ -11985,7 +11988,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>3.8</v>
@@ -12475,7 +12478,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ56">
         <v>1.17</v>
@@ -13221,7 +13224,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q60">
         <v>3.1</v>
@@ -13427,7 +13430,7 @@
         <v>138</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>2.6</v>
@@ -14045,7 +14048,7 @@
         <v>140</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>2.95</v>
@@ -14663,7 +14666,7 @@
         <v>93</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q67">
         <v>5.7</v>
@@ -15075,7 +15078,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q69">
         <v>4.4</v>
@@ -15487,7 +15490,7 @@
         <v>93</v>
       </c>
       <c r="P71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>3.8</v>
@@ -15899,7 +15902,7 @@
         <v>145</v>
       </c>
       <c r="P73" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q73">
         <v>3.68</v>
@@ -16105,7 +16108,7 @@
         <v>146</v>
       </c>
       <c r="P74" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>3.37</v>
@@ -16311,7 +16314,7 @@
         <v>147</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q75">
         <v>2.75</v>
@@ -16723,7 +16726,7 @@
         <v>93</v>
       </c>
       <c r="P77" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>3</v>
@@ -17135,7 +17138,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q79">
         <v>2.59</v>
@@ -17419,7 +17422,7 @@
         <v>0.75</v>
       </c>
       <c r="AP80">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AQ80">
         <v>0.67</v>
@@ -17628,7 +17631,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR81">
         <v>1.87</v>
@@ -18165,7 +18168,7 @@
         <v>154</v>
       </c>
       <c r="P84" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18371,7 +18374,7 @@
         <v>155</v>
       </c>
       <c r="P85" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>4.56</v>
@@ -19195,7 +19198,7 @@
         <v>157</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>4.39</v>
@@ -19813,7 +19816,7 @@
         <v>158</v>
       </c>
       <c r="P92" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q92">
         <v>2.38</v>
@@ -20019,7 +20022,7 @@
         <v>93</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q93">
         <v>2.38</v>
@@ -20843,7 +20846,7 @@
         <v>93</v>
       </c>
       <c r="P97" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q97">
         <v>2.95</v>
@@ -21049,7 +21052,7 @@
         <v>93</v>
       </c>
       <c r="P98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q98">
         <v>2.85</v>
@@ -21255,7 +21258,7 @@
         <v>93</v>
       </c>
       <c r="P99" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q99">
         <v>3.22</v>
@@ -21667,7 +21670,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q101">
         <v>2.56</v>
@@ -21873,7 +21876,7 @@
         <v>93</v>
       </c>
       <c r="P102" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q102">
         <v>3.09</v>
@@ -22285,7 +22288,7 @@
         <v>93</v>
       </c>
       <c r="P104" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q104">
         <v>3.5</v>
@@ -22491,7 +22494,7 @@
         <v>93</v>
       </c>
       <c r="P105" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q105">
         <v>3.4</v>
@@ -23109,7 +23112,7 @@
         <v>93</v>
       </c>
       <c r="P108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q108">
         <v>3.55</v>
@@ -23521,7 +23524,7 @@
         <v>93</v>
       </c>
       <c r="P110" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -23678,6 +23681,212 @@
       </c>
       <c r="BP110">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7834402</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45812.83333333334</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>82</v>
+      </c>
+      <c r="H111" t="s">
+        <v>81</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111" t="s">
+        <v>166</v>
+      </c>
+      <c r="P111" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q111">
+        <v>2.28</v>
+      </c>
+      <c r="R111">
+        <v>2.12</v>
+      </c>
+      <c r="S111">
+        <v>5.8</v>
+      </c>
+      <c r="T111">
+        <v>1.49</v>
+      </c>
+      <c r="U111">
+        <v>2.69</v>
+      </c>
+      <c r="V111">
+        <v>3.08</v>
+      </c>
+      <c r="W111">
+        <v>1.34</v>
+      </c>
+      <c r="X111">
+        <v>8.25</v>
+      </c>
+      <c r="Y111">
+        <v>1.06</v>
+      </c>
+      <c r="Z111">
+        <v>1.63</v>
+      </c>
+      <c r="AA111">
+        <v>3.6</v>
+      </c>
+      <c r="AB111">
+        <v>5.5</v>
+      </c>
+      <c r="AC111">
+        <v>1.03</v>
+      </c>
+      <c r="AD111">
+        <v>7.3</v>
+      </c>
+      <c r="AE111">
+        <v>1.36</v>
+      </c>
+      <c r="AF111">
+        <v>2.9</v>
+      </c>
+      <c r="AG111">
+        <v>2.18</v>
+      </c>
+      <c r="AH111">
+        <v>1.65</v>
+      </c>
+      <c r="AI111">
+        <v>2.1</v>
+      </c>
+      <c r="AJ111">
+        <v>1.66</v>
+      </c>
+      <c r="AK111">
+        <v>1.27</v>
+      </c>
+      <c r="AL111">
+        <v>1.26</v>
+      </c>
+      <c r="AM111">
+        <v>2.3</v>
+      </c>
+      <c r="AN111">
+        <v>2.5</v>
+      </c>
+      <c r="AO111">
+        <v>0.5</v>
+      </c>
+      <c r="AP111">
+        <v>2.6</v>
+      </c>
+      <c r="AQ111">
+        <v>0.4</v>
+      </c>
+      <c r="AR111">
+        <v>1.95</v>
+      </c>
+      <c r="AS111">
+        <v>1.32</v>
+      </c>
+      <c r="AT111">
+        <v>3.27</v>
+      </c>
+      <c r="AU111">
+        <v>10</v>
+      </c>
+      <c r="AV111">
+        <v>4</v>
+      </c>
+      <c r="AW111">
+        <v>7</v>
+      </c>
+      <c r="AX111">
+        <v>5</v>
+      </c>
+      <c r="AY111">
+        <v>18</v>
+      </c>
+      <c r="AZ111">
+        <v>10</v>
+      </c>
+      <c r="BA111">
+        <v>6</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>6</v>
+      </c>
+      <c r="BD111">
+        <v>1.4</v>
+      </c>
+      <c r="BE111">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF111">
+        <v>3.8</v>
+      </c>
+      <c r="BG111">
+        <v>1.18</v>
+      </c>
+      <c r="BH111">
+        <v>3.55</v>
+      </c>
+      <c r="BI111">
+        <v>1.38</v>
+      </c>
+      <c r="BJ111">
+        <v>2.71</v>
+      </c>
+      <c r="BK111">
+        <v>1.67</v>
+      </c>
+      <c r="BL111">
+        <v>2.1</v>
+      </c>
+      <c r="BM111">
+        <v>2.05</v>
+      </c>
+      <c r="BN111">
+        <v>1.67</v>
+      </c>
+      <c r="BO111">
+        <v>2.62</v>
+      </c>
+      <c r="BP111">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Brazil Serie A_2025.xlsx
@@ -1384,7 +1384,7 @@
         <v>6</v>
       </c>
       <c r="AZ2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="BA2">
         <v>4</v>
@@ -1590,7 +1590,7 @@
         <v>10</v>
       </c>
       <c r="AZ3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA3">
         <v>3</v>
@@ -1793,10 +1793,10 @@
         <v>15</v>
       </c>
       <c r="AY4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ4">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="BA4">
         <v>1</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="AY5">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA5">
         <v>6</v>
@@ -2205,10 +2205,10 @@
         <v>10</v>
       </c>
       <c r="AY6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA6">
         <v>2</v>
@@ -2411,10 +2411,10 @@
         <v>2</v>
       </c>
       <c r="AY7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA7">
         <v>4</v>
@@ -2617,10 +2617,10 @@
         <v>8</v>
       </c>
       <c r="AY8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BA8">
         <v>2</v>
@@ -2826,7 +2826,7 @@
         <v>13</v>
       </c>
       <c r="AZ9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA9">
         <v>2</v>
@@ -3029,10 +3029,10 @@
         <v>5</v>
       </c>
       <c r="AY10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ10">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA10">
         <v>3</v>
@@ -3235,7 +3235,7 @@
         <v>7</v>
       </c>
       <c r="AY11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ11">
         <v>14</v>
@@ -3441,10 +3441,10 @@
         <v>7</v>
       </c>
       <c r="AY12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA12">
         <v>1</v>
@@ -3647,10 +3647,10 @@
         <v>9</v>
       </c>
       <c r="AY13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ13">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BA13">
         <v>3</v>
@@ -3853,10 +3853,10 @@
         <v>12</v>
       </c>
       <c r="AY14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AZ14">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA14">
         <v>3</v>
@@ -4059,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="AY15">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="AZ15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA15">
         <v>12</v>
@@ -4265,10 +4265,10 @@
         <v>12</v>
       </c>
       <c r="AY16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ16">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BA16">
         <v>6</v>
@@ -4471,7 +4471,7 @@
         <v>3</v>
       </c>
       <c r="AY17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ17">
         <v>8</v>
@@ -4677,7 +4677,7 @@
         <v>7</v>
       </c>
       <c r="AY18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ18">
         <v>15</v>
@@ -4883,10 +4883,10 @@
         <v>4</v>
       </c>
       <c r="AY19">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AZ19">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA19">
         <v>8</v>
@@ -5089,10 +5089,10 @@
         <v>5</v>
       </c>
       <c r="AY20">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="AZ20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA20">
         <v>9</v>
@@ -5295,10 +5295,10 @@
         <v>7</v>
       </c>
       <c r="AY21">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA21">
         <v>9</v>
@@ -5501,10 +5501,10 @@
         <v>10</v>
       </c>
       <c r="AY22">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AZ22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA22">
         <v>3</v>
@@ -5707,10 +5707,10 @@
         <v>7</v>
       </c>
       <c r="AY23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AZ23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA23">
         <v>4</v>
@@ -5913,10 +5913,10 @@
         <v>7</v>
       </c>
       <c r="AY24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA24">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>11</v>
       </c>
       <c r="AZ25">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="BA25">
         <v>1</v>
@@ -6325,7 +6325,7 @@
         <v>2</v>
       </c>
       <c r="AY26">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AZ26">
         <v>6</v>
@@ -6531,10 +6531,10 @@
         <v>12</v>
       </c>
       <c r="AY27">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA27">
         <v>4</v>
@@ -6737,7 +6737,7 @@
         <v>4</v>
       </c>
       <c r="AY28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AZ28">
         <v>9</v>
@@ -6943,7 +6943,7 @@
         <v>3</v>
       </c>
       <c r="AY29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ29">
         <v>5</v>
@@ -7149,10 +7149,10 @@
         <v>9</v>
       </c>
       <c r="AY30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ30">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA30">
         <v>5</v>
@@ -7355,10 +7355,10 @@
         <v>5</v>
       </c>
       <c r="AY31">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ31">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA31">
         <v>16</v>
@@ -7561,7 +7561,7 @@
         <v>8</v>
       </c>
       <c r="AY32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ32">
         <v>12</v>
@@ -7767,10 +7767,10 @@
         <v>10</v>
       </c>
       <c r="AY33">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AZ33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA33">
         <v>9</v>
@@ -7973,10 +7973,10 @@
         <v>9</v>
       </c>
       <c r="AY34">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ34">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA34">
         <v>9</v>
@@ -8182,7 +8182,7 @@
         <v>12</v>
       </c>
       <c r="AZ35">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA35">
         <v>2</v>
@@ -8385,10 +8385,10 @@
         <v>4</v>
       </c>
       <c r="AY36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA36">
         <v>7</v>
@@ -8591,10 +8591,10 @@
         <v>8</v>
       </c>
       <c r="AY37">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AZ37">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA37">
         <v>1</v>
@@ -8797,7 +8797,7 @@
         <v>5</v>
       </c>
       <c r="AY38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AZ38">
         <v>10</v>
@@ -9003,10 +9003,10 @@
         <v>3</v>
       </c>
       <c r="AY39">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA39">
         <v>6</v>
@@ -9209,10 +9209,10 @@
         <v>12</v>
       </c>
       <c r="AY40">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ40">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA40">
         <v>3</v>
@@ -9415,7 +9415,7 @@
         <v>6</v>
       </c>
       <c r="AY41">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ41">
         <v>8</v>
@@ -9621,7 +9621,7 @@
         <v>8</v>
       </c>
       <c r="AY42">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ42">
         <v>11</v>
@@ -9827,7 +9827,7 @@
         <v>10</v>
       </c>
       <c r="AY43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ43">
         <v>18</v>
@@ -10033,10 +10033,10 @@
         <v>9</v>
       </c>
       <c r="AY44">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AZ44">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA44">
         <v>3</v>
@@ -10239,10 +10239,10 @@
         <v>19</v>
       </c>
       <c r="AY45">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AZ45">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="BA45">
         <v>5</v>
@@ -10445,10 +10445,10 @@
         <v>5</v>
       </c>
       <c r="AY46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA46">
         <v>8</v>
@@ -10651,7 +10651,7 @@
         <v>12</v>
       </c>
       <c r="AY47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ47">
         <v>16</v>
@@ -10860,7 +10860,7 @@
         <v>13</v>
       </c>
       <c r="AZ48">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA48">
         <v>8</v>
@@ -11063,10 +11063,10 @@
         <v>4</v>
       </c>
       <c r="AY49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ49">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA49">
         <v>6</v>
@@ -11269,10 +11269,10 @@
         <v>8</v>
       </c>
       <c r="AY50">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AZ50">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA50">
         <v>4</v>
@@ -11475,10 +11475,10 @@
         <v>8</v>
       </c>
       <c r="AY51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ51">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA51">
         <v>3</v>
@@ -11890,7 +11890,7 @@
         <v>8</v>
       </c>
       <c r="AZ53">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BA53">
         <v>3</v>
@@ -12093,10 +12093,10 @@
         <v>11</v>
       </c>
       <c r="AY54">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AZ54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA54">
         <v>9</v>
@@ -12299,10 +12299,10 @@
         <v>9</v>
       </c>
       <c r="AY55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ55">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="BA55">
         <v>6</v>
@@ -12508,7 +12508,7 @@
         <v>16</v>
       </c>
       <c r="AZ56">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA56">
         <v>6</v>
@@ -12711,7 +12711,7 @@
         <v>6</v>
       </c>
       <c r="AY57">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ57">
         <v>9</v>
@@ -12917,7 +12917,7 @@
         <v>6</v>
       </c>
       <c r="AY58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ58">
         <v>12</v>
@@ -13123,10 +13123,10 @@
         <v>10</v>
       </c>
       <c r="AY59">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ59">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA59">
         <v>4</v>
@@ -13329,10 +13329,10 @@
         <v>4</v>
       </c>
       <c r="AY60">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA60">
         <v>6</v>
@@ -13535,10 +13535,10 @@
         <v>10</v>
       </c>
       <c r="AY61">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AZ61">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA61">
         <v>6</v>
@@ -13741,10 +13741,10 @@
         <v>16</v>
       </c>
       <c r="AY62">
+        <v>15</v>
+      </c>
+      <c r="AZ62">
         <v>18</v>
-      </c>
-      <c r="AZ62">
-        <v>28</v>
       </c>
       <c r="BA62">
         <v>5</v>
@@ -13947,10 +13947,10 @@
         <v>6</v>
       </c>
       <c r="AY63">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ63">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA63">
         <v>10</v>
@@ -14153,7 +14153,7 @@
         <v>4</v>
       </c>
       <c r="AY64">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AZ64">
         <v>9</v>
@@ -14359,10 +14359,10 @@
         <v>9</v>
       </c>
       <c r="AY65">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ65">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA65">
         <v>3</v>
@@ -14565,10 +14565,10 @@
         <v>12</v>
       </c>
       <c r="AY66">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ66">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA66">
         <v>3</v>
@@ -14771,10 +14771,10 @@
         <v>14</v>
       </c>
       <c r="AY67">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AZ67">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA67">
         <v>7</v>
@@ -14977,10 +14977,10 @@
         <v>12</v>
       </c>
       <c r="AY68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ68">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BA68">
         <v>3</v>
@@ -15183,7 +15183,7 @@
         <v>2</v>
       </c>
       <c r="AY69">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ69">
         <v>7</v>
@@ -15389,10 +15389,10 @@
         <v>9</v>
       </c>
       <c r="AY70">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ70">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA70">
         <v>4</v>
@@ -15595,10 +15595,10 @@
         <v>22</v>
       </c>
       <c r="AY71">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ71">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="BA71">
         <v>3</v>
@@ -15801,10 +15801,10 @@
         <v>3</v>
       </c>
       <c r="AY72">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA72">
         <v>5</v>
@@ -16007,10 +16007,10 @@
         <v>7</v>
       </c>
       <c r="AY73">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ73">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BA73">
         <v>4</v>
@@ -16213,10 +16213,10 @@
         <v>8</v>
       </c>
       <c r="AY74">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA74">
         <v>6</v>
@@ -16419,10 +16419,10 @@
         <v>12</v>
       </c>
       <c r="AY75">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ75">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA75">
         <v>6</v>
@@ -16625,10 +16625,10 @@
         <v>4</v>
       </c>
       <c r="AY76">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AZ76">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA76">
         <v>8</v>
@@ -17037,10 +17037,10 @@
         <v>2</v>
       </c>
       <c r="AY78">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA78">
         <v>10</v>
@@ -17243,10 +17243,10 @@
         <v>3</v>
       </c>
       <c r="AY79">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA79">
         <v>10</v>
@@ -17449,10 +17449,10 @@
         <v>14</v>
       </c>
       <c r="AY80">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ80">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BA80">
         <v>2</v>
@@ -17655,7 +17655,7 @@
         <v>7</v>
       </c>
       <c r="AY81">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ81">
         <v>14</v>
@@ -17861,7 +17861,7 @@
         <v>5</v>
       </c>
       <c r="AY82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ82">
         <v>10</v>
@@ -18067,7 +18067,7 @@
         <v>7</v>
       </c>
       <c r="AY83">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ83">
         <v>11</v>
@@ -18273,7 +18273,7 @@
         <v>0</v>
       </c>
       <c r="AY84">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AZ84">
         <v>4</v>
@@ -18479,10 +18479,10 @@
         <v>10</v>
       </c>
       <c r="AY85">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ85">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BA85">
         <v>5</v>
@@ -18685,10 +18685,10 @@
         <v>5</v>
       </c>
       <c r="AY86">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA86">
         <v>5</v>
@@ -18894,7 +18894,7 @@
         <v>9</v>
       </c>
       <c r="AZ87">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA87">
         <v>1</v>
@@ -19097,7 +19097,7 @@
         <v>7</v>
       </c>
       <c r="AY88">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AZ88">
         <v>10</v>
@@ -19303,10 +19303,10 @@
         <v>10</v>
       </c>
       <c r="AY89">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ89">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA89">
         <v>8</v>
@@ -19509,7 +19509,7 @@
         <v>4</v>
       </c>
       <c r="AY90">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AZ90">
         <v>8</v>
@@ -19715,10 +19715,10 @@
         <v>6</v>
       </c>
       <c r="AY91">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AZ91">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA91">
         <v>6</v>
@@ -19921,10 +19921,10 @@
         <v>5</v>
       </c>
       <c r="AY92">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AZ92">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA92">
         <v>6</v>
@@ -20127,10 +20127,10 @@
         <v>4</v>
       </c>
       <c r="AY93">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AZ93">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA93">
         <v>5</v>
@@ -20333,7 +20333,7 @@
         <v>7</v>
       </c>
       <c r="AY94">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ94">
         <v>7</v>
@@ -20539,10 +20539,10 @@
         <v>13</v>
       </c>
       <c r="AY95">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ95">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BA95">
         <v>4</v>
@@ -20745,10 +20745,10 @@
         <v>13</v>
       </c>
       <c r="AY96">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ96">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BA96">
         <v>6</v>
@@ -20951,10 +20951,10 @@
         <v>4</v>
       </c>
       <c r="AY97">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ97">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA97">
         <v>3</v>
@@ -21157,10 +21157,10 @@
         <v>6</v>
       </c>
       <c r="AY98">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AZ98">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA98">
         <v>5</v>
@@ -21363,10 +21363,10 @@
         <v>9</v>
       </c>
       <c r="AY99">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ99">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BA99">
         <v>6</v>
@@ -21569,7 +21569,7 @@
         <v>5</v>
       </c>
       <c r="AY100">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ100">
         <v>8</v>
@@ -21775,10 +21775,10 @@
         <v>10</v>
       </c>
       <c r="AY101">
+        <v>14</v>
+      </c>
+      <c r="AZ101">
         <v>15</v>
-      </c>
-      <c r="AZ101">
-        <v>18</v>
       </c>
       <c r="BA101">
         <v>5</v>
@@ -21981,10 +21981,10 @@
         <v>1</v>
       </c>
       <c r="AY102">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ102">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA102">
         <v>7</v>
@@ -22187,10 +22187,10 @@
         <v>6</v>
       </c>
       <c r="AY103">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ103">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA103">
         <v>2</v>
@@ -22393,10 +22393,10 @@
         <v>12</v>
       </c>
       <c r="AY104">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ104">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="BA104">
         <v>5</v>
@@ -22599,10 +22599,10 @@
         <v>9</v>
       </c>
       <c r="AY105">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AZ105">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="BA105">
         <v>5</v>
@@ -22808,7 +22808,7 @@
         <v>17</v>
       </c>
       <c r="AZ106">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BA106">
         <v>2</v>
@@ -23011,10 +23011,10 @@
         <v>4</v>
       </c>
       <c r="AY107">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AZ107">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA107">
         <v>8</v>
@@ -23217,10 +23217,10 @@
         <v>4</v>
       </c>
       <c r="AY108">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ108">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA108">
         <v>8</v>
@@ -23423,10 +23423,10 @@
         <v>13</v>
       </c>
       <c r="AY109">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ109">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA109">
         <v>5</v>
@@ -23629,10 +23629,10 @@
         <v>5</v>
       </c>
       <c r="AY110">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AZ110">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA110">
         <v>9</v>
@@ -23835,10 +23835,10 @@
         <v>5</v>
       </c>
       <c r="AY111">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ111">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA111">
         <v>6</v>
